--- a/Data/UK time series data calculations.xlsx
+++ b/Data/UK time series data calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Modelling\Ventity\Urban1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E97452C-6FEA-41AD-955B-D18A035BB9A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A35ACB-34D4-4AD1-8C81-FAAB6022E123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{B77BA640-AA93-49E8-8229-5CF7C9C7308D}"/>
+    <workbookView xWindow="780" yWindow="-15420" windowWidth="21600" windowHeight="11385" xr2:uid="{B77BA640-AA93-49E8-8229-5CF7C9C7308D}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -7235,10 +7235,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7A687D-A839-4303-8B50-84B2B3DAF972}">
   <dimension ref="A1:AJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="AJ45" sqref="AJ45"/>
+      <selection pane="topRight" activeCell="AF71" sqref="AF71:AF74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8216,11 +8216,11 @@
         <v>1664.0405114750281</v>
       </c>
       <c r="M23" s="8">
-        <f>K23*1000*1000000/(3*H23*C23)</f>
+        <f t="shared" ref="M23:M41" si="2">K23*1000*1000000/(3*H23*C23)</f>
         <v>201.93870781941771</v>
       </c>
       <c r="N23">
-        <f>J23*1000*1000000/(I23*C23)</f>
+        <f t="shared" ref="N23:N41" si="3">J23*1000*1000000/(I23*C23)</f>
         <v>729.70108495595196</v>
       </c>
       <c r="O23">
@@ -8279,11 +8279,11 @@
         <v>1595.2232128959345</v>
       </c>
       <c r="M24" s="8">
-        <f>K24*1000*1000000/(3*H24*C24)</f>
+        <f t="shared" si="2"/>
         <v>211.92644332978307</v>
       </c>
       <c r="N24">
-        <f>J24*1000*1000000/(I24*C24)</f>
+        <f t="shared" si="3"/>
         <v>679.24451044216084</v>
       </c>
       <c r="O24">
@@ -8342,11 +8342,11 @@
         <v>1548.3892180296068</v>
       </c>
       <c r="M25" s="8">
-        <f>K25*1000*1000000/(3*H25*C25)</f>
+        <f t="shared" si="2"/>
         <v>201.47113262703374</v>
       </c>
       <c r="N25">
-        <f>J25*1000*1000000/(I25*C25)</f>
+        <f t="shared" si="3"/>
         <v>610.06080137113054</v>
       </c>
       <c r="O25">
@@ -8405,11 +8405,11 @@
         <v>1501.5552231632792</v>
       </c>
       <c r="M26" s="8">
-        <f>K26*1000*1000000/(3*H26*C26)</f>
+        <f t="shared" si="2"/>
         <v>197.38551406126527</v>
       </c>
       <c r="N26">
-        <f>J26*1000*1000000/(I26*C26)</f>
+        <f t="shared" si="3"/>
         <v>589.05369137377545</v>
       </c>
       <c r="O26">
@@ -8468,11 +8468,11 @@
         <v>1512.0689771128627</v>
       </c>
       <c r="M27" s="8">
-        <f>K27*1000*1000000/(3*H27*C27)</f>
+        <f t="shared" si="2"/>
         <v>190.35622842878357</v>
       </c>
       <c r="N27">
-        <f>J27*1000*1000000/(I27*C27)</f>
+        <f t="shared" si="3"/>
         <v>569.79949136037271</v>
       </c>
       <c r="O27">
@@ -8531,11 +8531,11 @@
         <v>1506.3342022312715</v>
       </c>
       <c r="M28" s="8">
-        <f>K28*1000*1000000/(3*H28*C28)</f>
+        <f t="shared" si="2"/>
         <v>188.38880512486492</v>
       </c>
       <c r="N28">
-        <f>J28*1000*1000000/(I28*C28)</f>
+        <f t="shared" si="3"/>
         <v>560.90351195451547</v>
       </c>
       <c r="O28">
@@ -8588,11 +8588,11 @@
         <v>1483.395102704907</v>
       </c>
       <c r="M29" s="8">
-        <f>K29*1000*1000000/(3*H29*C29)</f>
+        <f t="shared" si="2"/>
         <v>201.44541196626832</v>
       </c>
       <c r="N29">
-        <f>J29*1000*1000000/(I29*C29)</f>
+        <f t="shared" si="3"/>
         <v>563.50968005589846</v>
       </c>
       <c r="O29">
@@ -8645,11 +8645,11 @@
         <v>1455.6770241105498</v>
       </c>
       <c r="M30" s="8">
-        <f>K30*1000*1000000/(3*H30*C30)</f>
+        <f t="shared" si="2"/>
         <v>188.78643404903221</v>
       </c>
       <c r="N30">
-        <f>J30*1000*1000000/(I30*C30)</f>
+        <f t="shared" si="3"/>
         <v>535.87508687928334</v>
       </c>
       <c r="O30">
@@ -8705,11 +8705,11 @@
         <v>1444.2074743473677</v>
       </c>
       <c r="M31" s="8">
-        <f>K31*1000*1000000/(3*H31*C31)</f>
+        <f t="shared" si="2"/>
         <v>190.17497812354759</v>
       </c>
       <c r="N31">
-        <f>J31*1000*1000000/(I31*C31)</f>
+        <f t="shared" si="3"/>
         <v>531.46793236357337</v>
       </c>
       <c r="O31">
@@ -8762,11 +8762,11 @@
         <v>1435.605312024981</v>
       </c>
       <c r="M32" s="8">
-        <f>K32*1000*1000000/(3*H32*C32)</f>
+        <f t="shared" si="2"/>
         <v>186.18576028021289</v>
       </c>
       <c r="N32">
-        <f>J32*1000*1000000/(I32*C32)</f>
+        <f t="shared" si="3"/>
         <v>530.56136761739401</v>
       </c>
       <c r="O32">
@@ -8825,11 +8825,11 @@
         <v>1395.4618878538431</v>
       </c>
       <c r="M33" s="8">
-        <f>K33*1000*1000000/(3*H33*C33)</f>
+        <f t="shared" si="2"/>
         <v>183.53372936081635</v>
       </c>
       <c r="N33">
-        <f>J33*1000*1000000/(I33*C33)</f>
+        <f t="shared" si="3"/>
         <v>536.7699287448836</v>
       </c>
       <c r="O33">
@@ -8895,11 +8895,11 @@
         <v>1362.0090343778947</v>
       </c>
       <c r="M34" s="8">
-        <f>K34*1000*1000000/(3*H34*C34)</f>
+        <f t="shared" si="2"/>
         <v>191.0556040289629</v>
       </c>
       <c r="N34">
-        <f>J34*1000*1000000/(I34*C34)</f>
+        <f t="shared" si="3"/>
         <v>538.04953656649263</v>
       </c>
       <c r="O34">
@@ -8964,11 +8964,11 @@
         <v>1350.5394846147126</v>
       </c>
       <c r="M35" s="8">
-        <f>K35*1000*1000000/(3*H35*C35)</f>
+        <f t="shared" si="2"/>
         <v>189.47118312853084</v>
       </c>
       <c r="N35">
-        <f>J35*1000*1000000/(I35*C35)</f>
+        <f t="shared" si="3"/>
         <v>540.55941413868436</v>
       </c>
       <c r="O35">
@@ -9034,11 +9034,11 @@
         <v>1350.5394846147126</v>
       </c>
       <c r="M36" s="8">
-        <f>K36*1000*1000000/(3*H36*C36)</f>
+        <f t="shared" si="2"/>
         <v>187.9667879669596</v>
       </c>
       <c r="N36">
-        <f>J36*1000*1000000/(I36*C36)</f>
+        <f t="shared" si="3"/>
         <v>532.89483900930838</v>
       </c>
       <c r="O36">
@@ -9060,7 +9060,7 @@
         <v>20</v>
       </c>
       <c r="AJ36">
-        <f t="shared" ref="AJ36:AJ37" si="2">-0.0003*(0.7003*AI36+202.18) + 0.3076</f>
+        <f t="shared" ref="AJ36:AJ37" si="4">-0.0003*(0.7003*AI36+202.18) + 0.3076</f>
         <v>0.24274419999999999</v>
       </c>
     </row>
@@ -9104,11 +9104,11 @@
         <v>1332.3793641563407</v>
       </c>
       <c r="M37" s="8">
-        <f>K37*1000*1000000/(3*H37*C37)</f>
+        <f t="shared" si="2"/>
         <v>180.11593567107369</v>
       </c>
       <c r="N37">
-        <f>J37*1000*1000000/(I37*C37)</f>
+        <f t="shared" si="3"/>
         <v>524.84146058715021</v>
       </c>
       <c r="O37">
@@ -9130,7 +9130,7 @@
         <v>30</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2406433</v>
       </c>
     </row>
@@ -9174,11 +9174,11 @@
         <v>1309.4402646299761</v>
       </c>
       <c r="M38" s="8">
-        <f>K38*1000*1000000/(3*H38*C38)</f>
+        <f t="shared" si="2"/>
         <v>176.51438885678269</v>
       </c>
       <c r="N38">
-        <f>J38*1000*1000000/(I38*C38)</f>
+        <f t="shared" si="3"/>
         <v>514.05312582883505</v>
       </c>
       <c r="O38">
@@ -9231,11 +9231,11 @@
         <v>1275.9874111540278</v>
       </c>
       <c r="M39" s="8">
-        <f>K39*1000*1000000/(3*H39*C39)</f>
+        <f t="shared" si="2"/>
         <v>172.01535860356046</v>
       </c>
       <c r="N39">
-        <f>J39*1000*1000000/(I39*C39)</f>
+        <f t="shared" si="3"/>
         <v>508.26356372134444</v>
       </c>
       <c r="O39">
@@ -9288,11 +9288,11 @@
         <v>1254.9599032548604</v>
       </c>
       <c r="M40" s="8">
-        <f>K40*1000*1000000/(3*H40*C40)</f>
+        <f t="shared" si="2"/>
         <v>168.98411492521382</v>
       </c>
       <c r="N40">
-        <f>J40*1000*1000000/(I40*C40)</f>
+        <f t="shared" si="3"/>
         <v>511.23030971414352</v>
       </c>
       <c r="O40">
@@ -9345,11 +9345,11 @@
         <v>1215.772274897321</v>
       </c>
       <c r="M41" s="8">
-        <f>K41*1000*1000000/(3*H41*C41)</f>
+        <f t="shared" si="2"/>
         <v>165.99224092820441</v>
       </c>
       <c r="N41">
-        <f>J41*1000*1000000/(I41*C41)</f>
+        <f t="shared" si="3"/>
         <v>526.07717895245833</v>
       </c>
       <c r="O41">
@@ -9690,7 +9690,7 @@
         <v>50</v>
       </c>
       <c r="AG49">
-        <f>449.4*EXP(-0.003*AF49)</f>
+        <f t="shared" ref="AG49:AG69" si="5">449.4*EXP(-0.003*AF49)</f>
         <v>386.80216460542096</v>
       </c>
       <c r="AH49">
@@ -9736,11 +9736,11 @@
         <v>200</v>
       </c>
       <c r="AG50">
-        <f>449.4*EXP(-0.003*AF50)</f>
+        <f t="shared" si="5"/>
         <v>246.63594926065545</v>
       </c>
       <c r="AH50">
-        <f t="shared" ref="AH50:AH69" si="3">42125*AF50^(-0.72)</f>
+        <f t="shared" ref="AH50:AH73" si="6">42125*AF50^(-0.72)</f>
         <v>928.53508212933207</v>
       </c>
     </row>
@@ -9784,11 +9784,11 @@
         <v>1149.8223637590229</v>
       </c>
       <c r="M51" s="8">
-        <f>K51*1000*1000000/(3*H51*C51)</f>
+        <f t="shared" ref="M51:M82" si="7">K51*1000*1000000/(3*H51*C51)</f>
         <v>150.00036301262395</v>
       </c>
       <c r="N51">
-        <f>J51*1000*1000000/(I51*C51)</f>
+        <f t="shared" ref="N51:N82" si="8">J51*1000*1000000/(I51*C51)</f>
         <v>505.0217025093404</v>
       </c>
       <c r="O51">
@@ -9798,11 +9798,11 @@
         <v>350</v>
       </c>
       <c r="AG51">
-        <f>449.4*EXP(-0.003*AF51)</f>
+        <f t="shared" si="5"/>
         <v>157.26202445055318</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>620.59878636345559</v>
       </c>
     </row>
@@ -9846,11 +9846,11 @@
         <v>1146.9549763182274</v>
       </c>
       <c r="M52" s="8">
-        <f>K52*1000*1000000/(3*H52*C52)</f>
+        <f t="shared" si="7"/>
         <v>144.34306845120912</v>
       </c>
       <c r="N52">
-        <f>J52*1000*1000000/(I52*C52)</f>
+        <f t="shared" si="8"/>
         <v>492.68438575141795</v>
       </c>
       <c r="O52">
@@ -9860,11 +9860,11 @@
         <v>500</v>
       </c>
       <c r="AG52">
-        <f>449.4*EXP(-0.003*AF52)</f>
+        <f t="shared" si="5"/>
         <v>100.27469397070435</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>480.04451385051658</v>
       </c>
     </row>
@@ -9908,11 +9908,11 @@
         <v>1133.5738349278481</v>
       </c>
       <c r="M53" s="8">
-        <f>K53*1000*1000000/(3*H53*C53)</f>
+        <f t="shared" si="7"/>
         <v>142.42524887090687</v>
       </c>
       <c r="N53">
-        <f>J53*1000*1000000/(I53*C53)</f>
+        <f t="shared" si="8"/>
         <v>470.53554038454314</v>
       </c>
       <c r="O53">
@@ -9922,18 +9922,18 @@
         <v>7428</v>
       </c>
       <c r="Q53">
-        <f t="shared" ref="Q34:Q97" si="4">L53/P53</f>
+        <f t="shared" ref="Q53:Q97" si="9">L53/P53</f>
         <v>0.15260821687235435</v>
       </c>
       <c r="AF53">
         <v>650</v>
       </c>
       <c r="AG53">
-        <f>449.4*EXP(-0.003*AF53)</f>
+        <f t="shared" si="5"/>
         <v>63.937967770979206</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>397.41320830777971</v>
       </c>
     </row>
@@ -9977,11 +9977,11 @@
         <v>1103.944164706294</v>
       </c>
       <c r="M54" s="8">
-        <f>K54*1000*1000000/(3*H54*C54)</f>
+        <f t="shared" si="7"/>
         <v>138.76395823941706</v>
       </c>
       <c r="N54">
-        <f>J54*1000*1000000/(I54*C54)</f>
+        <f t="shared" si="8"/>
         <v>456.56367840242149</v>
       </c>
       <c r="O54">
@@ -9991,11 +9991,11 @@
         <v>800</v>
       </c>
       <c r="AG54">
-        <f>449.4*EXP(-0.003*AF54)</f>
+        <f t="shared" si="5"/>
         <v>40.768648208261979</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>342.2276721895347</v>
       </c>
     </row>
@@ -10039,11 +10039,11 @@
         <v>1080.0492693663309</v>
       </c>
       <c r="M55" s="8">
-        <f>K55*1000*1000000/(3*H55*C55)</f>
+        <f t="shared" si="7"/>
         <v>128.38984992426796</v>
       </c>
       <c r="N55">
-        <f>J55*1000*1000000/(I55*C55)</f>
+        <f t="shared" si="8"/>
         <v>477.21117799769866</v>
       </c>
       <c r="O55">
@@ -10053,11 +10053,11 @@
         <v>950</v>
       </c>
       <c r="AG55">
-        <f>449.4*EXP(-0.003*AF55)</f>
+        <f t="shared" si="5"/>
         <v>25.995237801152403</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>302.39800248561107</v>
       </c>
     </row>
@@ -10101,11 +10101,11 @@
         <v>1059.9775572807619</v>
       </c>
       <c r="M56" s="8">
-        <f>K56*1000*1000000/(3*H56*C56)</f>
+        <f t="shared" si="7"/>
         <v>120.63887417032903</v>
       </c>
       <c r="N56">
-        <f>J56*1000*1000000/(I56*C56)</f>
+        <f t="shared" si="8"/>
         <v>460.94948422240606</v>
       </c>
       <c r="O56">
@@ -10115,11 +10115,11 @@
         <v>1100</v>
       </c>
       <c r="AG56">
-        <f>449.4*EXP(-0.003*AF56)</f>
+        <f t="shared" si="5"/>
         <v>16.575295430117251</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>272.10541254165076</v>
       </c>
     </row>
@@ -10163,11 +10163,11 @@
         <v>1049.463803331178</v>
       </c>
       <c r="M57" s="8">
-        <f>K57*1000*1000000/(3*H57*C57)</f>
+        <f t="shared" si="7"/>
         <v>118.18774633904928</v>
       </c>
       <c r="N57">
-        <f>J57*1000*1000000/(I57*C57)</f>
+        <f t="shared" si="8"/>
         <v>444.30274369706166</v>
       </c>
       <c r="O57">
@@ -10177,11 +10177,11 @@
         <v>1250</v>
       </c>
       <c r="AG57">
-        <f>449.4*EXP(-0.003*AF57)</f>
+        <f t="shared" si="5"/>
         <v>10.568874987690492</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>248.17881382523899</v>
       </c>
     </row>
@@ -10225,11 +10225,11 @@
         <v>1044.6848242631854</v>
       </c>
       <c r="M58" s="8">
-        <f>K58*1000*1000000/(3*H58*C58)</f>
+        <f t="shared" si="7"/>
         <v>114.91309809446781</v>
       </c>
       <c r="N58">
-        <f>J58*1000*1000000/(I58*C58)</f>
+        <f t="shared" si="8"/>
         <v>431.32391262776116</v>
       </c>
       <c r="O58">
@@ -10239,11 +10239,11 @@
         <v>1400</v>
       </c>
       <c r="AG58">
-        <f>449.4*EXP(-0.003*AF58)</f>
+        <f t="shared" si="5"/>
         <v>6.7390122231226792</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>228.73242175596471</v>
       </c>
     </row>
@@ -10287,11 +10287,11 @@
         <v>1015.0551540416312</v>
       </c>
       <c r="M59" s="8">
-        <f>K59*1000*1000000/(3*H59*C59)</f>
+        <f t="shared" si="7"/>
         <v>114.29884023256167</v>
       </c>
       <c r="N59">
-        <f>J59*1000*1000000/(I59*C59)</f>
+        <f t="shared" si="8"/>
         <v>422.69823069660458</v>
       </c>
       <c r="O59">
@@ -10301,11 +10301,11 @@
         <v>1550</v>
       </c>
       <c r="AG59">
-        <f>449.4*EXP(-0.003*AF59)</f>
+        <f t="shared" si="5"/>
         <v>4.2969839075862506</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>212.56956861769436</v>
       </c>
     </row>
@@ -10349,11 +10349,11 @@
         <v>1009.3203791600401</v>
       </c>
       <c r="M60" s="8">
-        <f>K60*1000*1000000/(3*H60*C60)</f>
+        <f t="shared" si="7"/>
         <v>111.74676679020024</v>
       </c>
       <c r="N60">
-        <f>J60*1000*1000000/(I60*C60)</f>
+        <f t="shared" si="8"/>
         <v>414.58899542524341</v>
       </c>
       <c r="O60">
@@ -10363,11 +10363,11 @@
         <v>1700</v>
       </c>
       <c r="AG60">
-        <f>449.4*EXP(-0.003*AF60)</f>
+        <f t="shared" si="5"/>
         <v>2.7398779065427252</v>
       </c>
       <c r="AH60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>198.89171403098533</v>
       </c>
     </row>
@@ -10411,11 +10411,11 @@
         <v>994.98344195606239</v>
       </c>
       <c r="M61" s="8">
-        <f>K61*1000*1000000/(3*H61*C61)</f>
+        <f t="shared" si="7"/>
         <v>109.11164059816312</v>
       </c>
       <c r="N61">
-        <f>J61*1000*1000000/(I61*C61)</f>
+        <f t="shared" si="8"/>
         <v>407.15746016873845</v>
       </c>
       <c r="O61">
@@ -10425,11 +10425,11 @@
         <v>1850</v>
       </c>
       <c r="AG61">
-        <f>449.4*EXP(-0.003*AF61)</f>
+        <f t="shared" si="5"/>
         <v>1.7470232852181729</v>
       </c>
       <c r="AH61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>187.14415582572053</v>
       </c>
     </row>
@@ -10473,11 +10473,11 @@
         <v>987.33707544727417</v>
       </c>
       <c r="M62" s="8">
-        <f>K62*1000*1000000/(3*H62*C62)</f>
+        <f t="shared" si="7"/>
         <v>106.29907492823932</v>
       </c>
       <c r="N62">
-        <f>J62*1000*1000000/(I62*C62)</f>
+        <f t="shared" si="8"/>
         <v>393.26224620127351</v>
       </c>
       <c r="O62">
@@ -10487,11 +10487,11 @@
         <v>2000</v>
       </c>
       <c r="AG62">
-        <f>449.4*EXP(-0.003*AF62)</f>
+        <f t="shared" si="5"/>
         <v>1.1139512281938615</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>176.92871242482201</v>
       </c>
     </row>
@@ -10535,11 +10535,11 @@
         <v>970.13275080250071</v>
       </c>
       <c r="M63" s="8">
-        <f>K63*1000*1000000/(3*H63*C63)</f>
+        <f t="shared" si="7"/>
         <v>102.47515544719047</v>
       </c>
       <c r="N63">
-        <f>J63*1000*1000000/(I63*C63)</f>
+        <f t="shared" si="8"/>
         <v>370.99906419538377</v>
       </c>
       <c r="O63">
@@ -10549,14 +10549,18 @@
         <v>7305</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.13280393577036287</v>
       </c>
       <c r="AF63">
         <v>2150</v>
       </c>
+      <c r="AG63">
+        <f t="shared" si="5"/>
+        <v>0.71028666263005591</v>
+      </c>
       <c r="AH63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>167.95162985999579</v>
       </c>
     </row>
@@ -10600,11 +10604,11 @@
         <v>939.54728476734795</v>
       </c>
       <c r="M64" s="8">
-        <f>K64*1000*1000000/(3*H64*C64)</f>
+        <f t="shared" si="7"/>
         <v>102.23413370505088</v>
       </c>
       <c r="N64">
-        <f>J64*1000*1000000/(I64*C64)</f>
+        <f t="shared" si="8"/>
         <v>360.1375908694215</v>
       </c>
       <c r="O64">
@@ -10613,8 +10617,12 @@
       <c r="AF64">
         <v>2300</v>
       </c>
+      <c r="AG64">
+        <f t="shared" si="5"/>
+        <v>0.45289877181440058</v>
+      </c>
       <c r="AH64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>159.99111753303364</v>
       </c>
     </row>
@@ -10658,11 +10666,11 @@
         <v>907.05022710499816</v>
       </c>
       <c r="M65" s="8">
-        <f>K65*1000*1000000/(3*H65*C65)</f>
+        <f t="shared" si="7"/>
         <v>101.40397053366819</v>
       </c>
       <c r="N65">
-        <f>J65*1000*1000000/(I65*C65)</f>
+        <f t="shared" si="8"/>
         <v>358.2928223502031</v>
       </c>
       <c r="O65">
@@ -10671,8 +10679,12 @@
       <c r="AF65">
         <v>2450</v>
       </c>
+      <c r="AG65">
+        <f t="shared" si="5"/>
+        <v>0.28878100674378743</v>
+      </c>
       <c r="AH65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>152.87635984437031</v>
       </c>
     </row>
@@ -10716,11 +10728,11 @@
         <v>899.40386059621005</v>
       </c>
       <c r="M66" s="8">
-        <f>K66*1000*1000000/(3*H66*C66)</f>
+        <f t="shared" si="7"/>
         <v>100.01220293274257</v>
       </c>
       <c r="N66">
-        <f>J66*1000*1000000/(I66*C66)</f>
+        <f t="shared" si="8"/>
         <v>350.59157368668747</v>
       </c>
       <c r="O66">
@@ -10729,8 +10741,12 @@
       <c r="AF66">
         <v>2600</v>
       </c>
+      <c r="AG66">
+        <f t="shared" si="5"/>
+        <v>0.1841348995535162</v>
+      </c>
       <c r="AH66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>146.47351488826391</v>
       </c>
     </row>
@@ -10774,11 +10790,11 @@
         <v>864.03941549306467</v>
       </c>
       <c r="M67" s="8">
-        <f>K67*1000*1000000/(3*H67*C67)</f>
+        <f t="shared" si="7"/>
         <v>95.557952708709536</v>
       </c>
       <c r="N67">
-        <f>J67*1000*1000000/(I67*C67)</f>
+        <f t="shared" si="8"/>
         <v>339.03075987845608</v>
       </c>
       <c r="O67">
@@ -10787,8 +10803,12 @@
       <c r="AF67">
         <v>2750</v>
       </c>
+      <c r="AG67">
+        <f t="shared" si="5"/>
+        <v>0.11740959565136938</v>
+      </c>
       <c r="AH67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>140.67611767570995</v>
       </c>
     </row>
@@ -10815,11 +10835,11 @@
         <v>0.45887648366737421</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H118" si="5">G68*D68/C68*0.07*2.393758</f>
+        <f t="shared" ref="H68:H118" si="10">G68*D68/C68*0.07*2.393758</f>
         <v>745.64939272545257</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I118" si="6">F68*D68/C68*0.07*2.393758</f>
+        <f t="shared" ref="I68:I118" si="11">F68*D68/C68*0.07*2.393758</f>
         <v>823.89470420125758</v>
       </c>
       <c r="J68" s="1">
@@ -10832,11 +10852,11 @@
         <v>815.29382899953998</v>
       </c>
       <c r="M68" s="8">
-        <f>K68*1000*1000000/(3*H68*C68)</f>
+        <f t="shared" si="7"/>
         <v>94.854231549116278</v>
       </c>
       <c r="N68">
-        <f>J68*1000*1000000/(I68*C68)</f>
+        <f t="shared" si="8"/>
         <v>331.1980425841345</v>
       </c>
       <c r="O68">
@@ -10845,8 +10865,12 @@
       <c r="AF68">
         <v>2900</v>
       </c>
+      <c r="AG68">
+        <f t="shared" si="5"/>
+        <v>7.4863663457842372E-2</v>
+      </c>
       <c r="AH68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>135.39834483648474</v>
       </c>
     </row>
@@ -10873,11 +10897,11 @@
         <v>0.45231900958299809</v>
       </c>
       <c r="H69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>741.47824817057415</v>
       </c>
       <c r="I69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>841.38768904586561</v>
       </c>
       <c r="J69">
@@ -10890,11 +10914,11 @@
         <v>784.12565445026178</v>
       </c>
       <c r="M69" s="8">
-        <f>K69*1000*1000000/(3*H69*C69)</f>
+        <f t="shared" si="7"/>
         <v>95.059526551735402</v>
       </c>
       <c r="N69">
-        <f>J69*1000*1000000/(I69*C69)</f>
+        <f t="shared" si="8"/>
         <v>324.69458758349668</v>
       </c>
       <c r="O69">
@@ -10903,8 +10927,12 @@
       <c r="AF69">
         <v>3150</v>
       </c>
+      <c r="AG69">
+        <f t="shared" si="5"/>
+        <v>3.5363090633144474E-2</v>
+      </c>
       <c r="AH69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>127.57227933833896</v>
       </c>
     </row>
@@ -10931,11 +10959,11 @@
         <v>0.44339730131843347</v>
       </c>
       <c r="H70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>738.33608705281051</v>
       </c>
       <c r="I70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>870.92153728117842</v>
       </c>
       <c r="J70">
@@ -10948,15 +10976,22 @@
         <v>730.23385689354279</v>
       </c>
       <c r="M70" s="8">
-        <f>K70*1000*1000000/(3*H70*C70)</f>
+        <f t="shared" si="7"/>
         <v>91.60846708624895</v>
       </c>
       <c r="N70">
-        <f>J70*1000*1000000/(I70*C70)</f>
+        <f t="shared" si="8"/>
         <v>314.57851516597231</v>
       </c>
       <c r="O70">
         <v>3</v>
+      </c>
+      <c r="AF70">
+        <v>3400</v>
+      </c>
+      <c r="AH70">
+        <f t="shared" si="6"/>
+        <v>120.74665086249239</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
@@ -10982,11 +11017,11 @@
         <v>0.44085038751760997</v>
       </c>
       <c r="H71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>772.73765258785841</v>
       </c>
       <c r="I71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>924.59763444748216</v>
       </c>
       <c r="J71">
@@ -10999,15 +11034,22 @@
         <v>699.24607329842934</v>
       </c>
       <c r="M71" s="8">
-        <f>K71*1000*1000000/(3*H71*C71)</f>
+        <f t="shared" si="7"/>
         <v>85.48988956186092</v>
       </c>
       <c r="N71">
-        <f>J71*1000*1000000/(I71*C71)</f>
+        <f t="shared" si="8"/>
         <v>297.50318393443894</v>
       </c>
       <c r="O71">
         <v>3</v>
+      </c>
+      <c r="AF71">
+        <v>3650</v>
+      </c>
+      <c r="AH71">
+        <f t="shared" si="6"/>
+        <v>114.73318544333532</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
@@ -11033,11 +11075,11 @@
         <v>0.43499425768226962</v>
       </c>
       <c r="H72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>775.01717311057678</v>
       </c>
       <c r="I72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>953.9644390049458</v>
       </c>
       <c r="J72">
@@ -11050,15 +11092,22 @@
         <v>662.86910994764401</v>
       </c>
       <c r="M72" s="8">
-        <f>K72*1000*1000000/(3*H72*C72)</f>
+        <f t="shared" si="7"/>
         <v>84.343882813028699</v>
       </c>
       <c r="N72">
-        <f>J72*1000*1000000/(I72*C72)</f>
+        <f t="shared" si="8"/>
         <v>289.08689216088555</v>
       </c>
       <c r="O72">
         <v>3</v>
+      </c>
+      <c r="AF72">
+        <v>3900</v>
+      </c>
+      <c r="AH72">
+        <f t="shared" si="6"/>
+        <v>109.38893568403599</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
@@ -11084,11 +11133,11 @@
         <v>0.41203928778335275</v>
       </c>
       <c r="H73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>750.79171239532116</v>
       </c>
       <c r="I73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1019.3077588574163</v>
       </c>
       <c r="J73">
@@ -11101,11 +11150,11 @@
         <v>627.83944153577659</v>
       </c>
       <c r="M73" s="8">
-        <f>K73*1000*1000000/(3*H73*C73)</f>
+        <f t="shared" si="7"/>
         <v>85.013947560395223</v>
       </c>
       <c r="N73">
-        <f>J73*1000*1000000/(I73*C73)</f>
+        <f t="shared" si="8"/>
         <v>272.45402133061651</v>
       </c>
       <c r="O73">
@@ -11115,8 +11164,15 @@
         <v>7199</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8.721203521819372E-2</v>
+      </c>
+      <c r="AF73">
+        <v>4150</v>
+      </c>
+      <c r="AH73">
+        <f t="shared" si="6"/>
+        <v>104.60327554819756</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
@@ -11142,11 +11198,11 @@
         <v>0.40389725288566053</v>
       </c>
       <c r="H74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>759.96218798236021</v>
       </c>
       <c r="I74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1068.6526837133688</v>
       </c>
       <c r="J74">
@@ -11159,15 +11215,22 @@
         <v>582.03141361256542</v>
       </c>
       <c r="M74" s="8">
-        <f>K74*1000*1000000/(3*H74*C74)</f>
+        <f t="shared" si="7"/>
         <v>80.317943182567944</v>
       </c>
       <c r="N74">
-        <f>J74*1000*1000000/(I74*C74)</f>
+        <f t="shared" si="8"/>
         <v>259.19421661364004</v>
       </c>
       <c r="O74">
         <v>3</v>
+      </c>
+      <c r="AF74">
+        <v>4400</v>
+      </c>
+      <c r="AH74">
+        <f t="shared" ref="AH74" si="12">42125*AF74^(-0.72)</f>
+        <v>100.28915839211288</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
@@ -11193,11 +11256,11 @@
         <v>0.39515810025518161</v>
       </c>
       <c r="H75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>772.0487418376274</v>
       </c>
       <c r="I75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1127.647542209316</v>
       </c>
       <c r="J75">
@@ -11210,11 +11273,11 @@
         <v>575.29493891797551</v>
       </c>
       <c r="M75" s="8">
-        <f>K75*1000*1000000/(3*H75*C75)</f>
+        <f t="shared" si="7"/>
         <v>76.937240841358175</v>
       </c>
       <c r="N75">
-        <f>J75*1000*1000000/(I75*C75)</f>
+        <f t="shared" si="8"/>
         <v>251.80318231453924</v>
       </c>
       <c r="O75">
@@ -11244,11 +11307,11 @@
         <v>0.38662401924701933</v>
       </c>
       <c r="H76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>805.20095537715497</v>
       </c>
       <c r="I76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1220.7508369952498</v>
       </c>
       <c r="J76">
@@ -11261,11 +11324,11 @@
         <v>582.03141361256542</v>
       </c>
       <c r="M76" s="8">
-        <f>K76*1000*1000000/(3*H76*C76)</f>
+        <f t="shared" si="7"/>
         <v>74.60456053258757</v>
       </c>
       <c r="N76">
-        <f>J76*1000*1000000/(I76*C76)</f>
+        <f t="shared" si="8"/>
         <v>237.99753737166054</v>
       </c>
       <c r="O76">
@@ -11295,11 +11358,11 @@
         <v>0.37749033507024726</v>
       </c>
       <c r="H77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>768.11808632222562</v>
       </c>
       <c r="I77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1212.2798920536648</v>
       </c>
       <c r="J77">
@@ -11312,11 +11375,11 @@
         <v>557.78010471204186</v>
       </c>
       <c r="M77" s="8">
-        <f>K77*1000*1000000/(3*H77*C77)</f>
+        <f t="shared" si="7"/>
         <v>77.817729764658935</v>
       </c>
       <c r="N77">
-        <f>J77*1000*1000000/(I77*C77)</f>
+        <f t="shared" si="8"/>
         <v>241.90301426370567</v>
       </c>
       <c r="O77">
@@ -11346,11 +11409,11 @@
         <v>0.37026957791678833</v>
       </c>
       <c r="H78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>742.57728239480116</v>
       </c>
       <c r="I78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1210.0290808993454</v>
       </c>
       <c r="J78">
@@ -11363,11 +11426,11 @@
         <v>534.87609075043622</v>
       </c>
       <c r="M78" s="8">
-        <f>K78*1000*1000000/(3*H78*C78)</f>
+        <f t="shared" si="7"/>
         <v>77.577054602483571</v>
       </c>
       <c r="N78">
-        <f>J78*1000*1000000/(I78*C78)</f>
+        <f t="shared" si="8"/>
         <v>245.89130749138127</v>
       </c>
       <c r="O78">
@@ -11397,11 +11460,11 @@
         <v>0.37166665574638286</v>
       </c>
       <c r="H79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>767.96313725938353</v>
       </c>
       <c r="I79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1246.4432191781793</v>
       </c>
       <c r="J79">
@@ -11414,11 +11477,11 @@
         <v>529.48691099476434</v>
       </c>
       <c r="M79" s="8">
-        <f>K79*1000*1000000/(3*H79*C79)</f>
+        <f t="shared" si="7"/>
         <v>73.187992472744114</v>
       </c>
       <c r="N79">
-        <f>J79*1000*1000000/(I79*C79)</f>
+        <f t="shared" si="8"/>
         <v>239.56369822655537</v>
       </c>
       <c r="O79">
@@ -11448,11 +11511,11 @@
         <v>0.37352379583179562</v>
       </c>
       <c r="H80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>791.44161750135686</v>
       </c>
       <c r="I80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1276.8318697077077</v>
       </c>
       <c r="J80">
@@ -11465,11 +11528,11 @@
         <v>522.75043630017444</v>
       </c>
       <c r="M80" s="8">
-        <f>K80*1000*1000000/(3*H80*C80)</f>
+        <f t="shared" si="7"/>
         <v>70.892598615956857</v>
       </c>
       <c r="N80">
-        <f>J80*1000*1000000/(I80*C80)</f>
+        <f t="shared" si="8"/>
         <v>235.00225760253079</v>
       </c>
       <c r="O80">
@@ -11499,11 +11562,11 @@
         <v>0.3748770742554815</v>
       </c>
       <c r="H81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>823.16458069990006</v>
       </c>
       <c r="I81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1323.000172756633</v>
       </c>
       <c r="J81">
@@ -11516,11 +11579,11 @@
         <v>514.66666666666663</v>
       </c>
       <c r="M81" s="8">
-        <f>K81*1000*1000000/(3*H81*C81)</f>
+        <f t="shared" si="7"/>
         <v>67.838611749204802</v>
       </c>
       <c r="N81">
-        <f>J81*1000*1000000/(I81*C81)</f>
+        <f t="shared" si="8"/>
         <v>230.72445653309805</v>
       </c>
       <c r="O81">
@@ -11550,11 +11613,11 @@
         <v>0.37582500912382227</v>
       </c>
       <c r="H82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>852.46276106914502</v>
       </c>
       <c r="I82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1367.3481931529361</v>
       </c>
       <c r="J82">
@@ -11567,11 +11630,11 @@
         <v>509.25</v>
       </c>
       <c r="M82" s="8">
-        <f>K82*1000*1000000/(3*H82*C82)</f>
+        <f t="shared" si="7"/>
         <v>65.415043407309852</v>
       </c>
       <c r="N82">
-        <f>J82*1000*1000000/(I82*C82)</f>
+        <f t="shared" si="8"/>
         <v>227.82894365140433</v>
       </c>
       <c r="O82">
@@ -11601,11 +11664,11 @@
         <v>0.37676950726530117</v>
       </c>
       <c r="H83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>836.39608840644996</v>
       </c>
       <c r="I83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1338.9097163601693</v>
       </c>
       <c r="J83">
@@ -11618,11 +11681,11 @@
         <v>508.75</v>
       </c>
       <c r="M83" s="8">
-        <f>K83*1000*1000000/(3*H83*C83)</f>
+        <f t="shared" ref="M83:M118" si="13">K83*1000*1000000/(3*H83*C83)</f>
         <v>63.958422622544042</v>
       </c>
       <c r="N83">
-        <f>J83*1000*1000000/(I83*C83)</f>
+        <f t="shared" ref="N83:N118" si="14">J83*1000*1000000/(I83*C83)</f>
         <v>233.88902814166585</v>
       </c>
       <c r="O83">
@@ -11632,7 +11695,7 @@
         <v>6996</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.272012578616352E-2</v>
       </c>
     </row>
@@ -11659,11 +11722,11 @@
         <v>0.36894525645371901</v>
       </c>
       <c r="H84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>812.64999586011231</v>
       </c>
       <c r="I84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1347.7152037155663</v>
       </c>
       <c r="J84">
@@ -11676,11 +11739,11 @@
         <v>491</v>
       </c>
       <c r="M84" s="8">
-        <f>K84*1000*1000000/(3*H84*C84)</f>
+        <f t="shared" si="13"/>
         <v>60.827486828509052</v>
       </c>
       <c r="N84">
-        <f>J84*1000*1000000/(I84*C84)</f>
+        <f t="shared" si="14"/>
         <v>229.75461804598504</v>
       </c>
       <c r="O84">
@@ -11710,11 +11773,11 @@
         <v>0.36147983797196703</v>
       </c>
       <c r="H85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>814.0390530598454</v>
       </c>
       <c r="I85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1396.704274431411</v>
       </c>
       <c r="J85">
@@ -11727,11 +11790,11 @@
         <v>487.75</v>
       </c>
       <c r="M85" s="8">
-        <f>K85*1000*1000000/(3*H85*C85)</f>
+        <f t="shared" si="13"/>
         <v>57.829653378479328</v>
       </c>
       <c r="N85">
-        <f>J85*1000*1000000/(I85*C85)</f>
+        <f t="shared" si="14"/>
         <v>221.04028860865762</v>
       </c>
       <c r="O85">
@@ -11761,11 +11824,11 @@
         <v>0.35442190840635818</v>
       </c>
       <c r="H86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>830.44622407630209</v>
       </c>
       <c r="I86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1471.7696460128402</v>
       </c>
       <c r="J86">
@@ -11778,11 +11841,11 @@
         <v>488.75</v>
       </c>
       <c r="M86" s="8">
-        <f>K86*1000*1000000/(3*H86*C86)</f>
+        <f t="shared" si="13"/>
         <v>54.748158124080369</v>
       </c>
       <c r="N86">
-        <f>J86*1000*1000000/(I86*C86)</f>
+        <f t="shared" si="14"/>
         <v>212.20983929901905</v>
       </c>
       <c r="O86">
@@ -11812,11 +11875,11 @@
         <v>0.34883101764417723</v>
       </c>
       <c r="H87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>831.72577943791055</v>
       </c>
       <c r="I87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1512.842170338138</v>
       </c>
       <c r="J87">
@@ -11829,11 +11892,11 @@
         <v>499.5</v>
       </c>
       <c r="M87" s="8">
-        <f>K87*1000*1000000/(3*H87*C87)</f>
+        <f t="shared" si="13"/>
         <v>54.452454107007881</v>
       </c>
       <c r="N87">
-        <f>J87*1000*1000000/(I87*C87)</f>
+        <f t="shared" si="14"/>
         <v>213.07821132358885</v>
       </c>
       <c r="O87">
@@ -11863,11 +11926,11 @@
         <v>0.34423050630211266</v>
       </c>
       <c r="H88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>855.21463429566609</v>
       </c>
       <c r="I88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1589.5794367169544</v>
       </c>
       <c r="J88">
@@ -11880,11 +11943,11 @@
         <v>502.5</v>
       </c>
       <c r="M88" s="8">
-        <f>K88*1000*1000000/(3*H88*C88)</f>
+        <f t="shared" si="13"/>
         <v>52.459577289744786</v>
       </c>
       <c r="N88">
-        <f>J88*1000*1000000/(I88*C88)</f>
+        <f t="shared" si="14"/>
         <v>205.90212665483708</v>
       </c>
       <c r="O88">
@@ -11914,11 +11977,11 @@
         <v>0.33736563914695011</v>
       </c>
       <c r="H89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>859.83044722035925</v>
       </c>
       <c r="I89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1647.2594148517476</v>
       </c>
       <c r="J89">
@@ -11931,11 +11994,11 @@
         <v>498</v>
       </c>
       <c r="M89" s="8">
-        <f>K89*1000*1000000/(3*H89*C89)</f>
+        <f t="shared" si="13"/>
         <v>50.972722379701089</v>
       </c>
       <c r="N89">
-        <f>J89*1000*1000000/(I89*C89)</f>
+        <f t="shared" si="14"/>
         <v>200.92804316022924</v>
       </c>
       <c r="O89">
@@ -11965,11 +12028,11 @@
         <v>0.33062090691925389</v>
       </c>
       <c r="H90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>885.15406845670429</v>
       </c>
       <c r="I90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1747.4116627311666</v>
       </c>
       <c r="J90">
@@ -11982,11 +12045,11 @@
         <v>505.5</v>
       </c>
       <c r="M90" s="8">
-        <f>K90*1000*1000000/(3*H90*C90)</f>
+        <f t="shared" si="13"/>
         <v>49.638398524918436</v>
       </c>
       <c r="N90">
-        <f>J90*1000*1000000/(I90*C90)</f>
+        <f t="shared" si="14"/>
         <v>194.70586412812895</v>
       </c>
       <c r="O90">
@@ -12016,11 +12079,11 @@
         <v>0.32390834453326911</v>
       </c>
       <c r="H91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>914.77960684451989</v>
       </c>
       <c r="I91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1861.1441482072166</v>
       </c>
       <c r="J91">
@@ -12033,11 +12096,11 @@
         <v>512</v>
       </c>
       <c r="M91" s="8">
-        <f>K91*1000*1000000/(3*H91*C91)</f>
+        <f t="shared" si="13"/>
         <v>48.83708173616089</v>
       </c>
       <c r="N91">
-        <f>J91*1000*1000000/(I91*C91)</f>
+        <f t="shared" si="14"/>
         <v>190.29376536839976</v>
       </c>
       <c r="O91">
@@ -12067,11 +12130,11 @@
         <v>0.31759757679781558</v>
       </c>
       <c r="H92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>918.09798388099932</v>
       </c>
       <c r="I92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1921.9658657673172</v>
       </c>
       <c r="J92">
@@ -12084,11 +12147,11 @@
         <v>517.75</v>
       </c>
       <c r="M92" s="8">
-        <f>K92*1000*1000000/(3*H92*C92)</f>
+        <f t="shared" si="13"/>
         <v>49.215920675317818</v>
       </c>
       <c r="N92">
-        <f>J92*1000*1000000/(I92*C92)</f>
+        <f t="shared" si="14"/>
         <v>190.06795485527579</v>
       </c>
       <c r="O92">
@@ -12118,11 +12181,11 @@
         <v>0.30489256254883113</v>
       </c>
       <c r="H93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>886.3835962121932</v>
       </c>
       <c r="I93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1971.9499394729826</v>
       </c>
       <c r="J93">
@@ -12135,11 +12198,11 @@
         <v>510.75</v>
       </c>
       <c r="M93" s="8">
-        <f>K93*1000*1000000/(3*H93*C93)</f>
+        <f t="shared" si="13"/>
         <v>49.798579071838503</v>
       </c>
       <c r="N93">
-        <f>J93*1000*1000000/(I93*C93)</f>
+        <f t="shared" si="14"/>
         <v>187.38236293554181</v>
       </c>
       <c r="O93">
@@ -12169,11 +12232,11 @@
         <v>0.28668177228786923</v>
       </c>
       <c r="H94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>824.83443188702881</v>
       </c>
       <c r="I94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2006.4161523071539</v>
       </c>
       <c r="J94">
@@ -12186,11 +12249,11 @@
         <v>495.5</v>
       </c>
       <c r="M94" s="8">
-        <f>K94*1000*1000000/(3*H94*C94)</f>
+        <f t="shared" si="13"/>
         <v>49.367785277945003</v>
       </c>
       <c r="N94">
-        <f>J94*1000*1000000/(I94*C94)</f>
+        <f t="shared" si="14"/>
         <v>181.20390425061871</v>
       </c>
       <c r="O94">
@@ -12200,7 +12263,7 @@
         <v>6729</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.3636498736810815E-2</v>
       </c>
     </row>
@@ -12227,11 +12290,11 @@
         <v>0.27650408288290934</v>
       </c>
       <c r="H95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>797.58760064097737</v>
       </c>
       <c r="I95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2040.0399416275204</v>
       </c>
       <c r="J95">
@@ -12244,11 +12307,11 @@
         <v>492</v>
       </c>
       <c r="M95" s="8">
-        <f>K95*1000*1000000/(3*H95*C95)</f>
+        <f t="shared" si="13"/>
         <v>47.842233309301342</v>
       </c>
       <c r="N95">
-        <f>J95*1000*1000000/(I95*C95)</f>
+        <f t="shared" si="14"/>
         <v>176.02283264313098</v>
       </c>
       <c r="O95">
@@ -12258,7 +12321,7 @@
         <v>6778</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.258778400708174E-2</v>
       </c>
     </row>
@@ -12285,11 +12348,11 @@
         <v>0.27035307293596184</v>
       </c>
       <c r="H96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>798.58953244221141</v>
       </c>
       <c r="I96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2105.7971901647302</v>
       </c>
       <c r="J96">
@@ -12302,11 +12365,11 @@
         <v>501.75</v>
       </c>
       <c r="M96" s="8">
-        <f>K96*1000*1000000/(3*H96*C96)</f>
+        <f t="shared" si="13"/>
         <v>45.88330778913992</v>
       </c>
       <c r="N96">
-        <f>J96*1000*1000000/(I96*C96)</f>
+        <f t="shared" si="14"/>
         <v>170.51217104789907</v>
       </c>
       <c r="O96">
@@ -12316,7 +12379,7 @@
         <v>6829</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.3473422170156691E-2</v>
       </c>
     </row>
@@ -12343,11 +12406,11 @@
         <v>0.27478268797683902</v>
       </c>
       <c r="H97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>838.58965549116431</v>
       </c>
       <c r="I97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2163.2827737643352</v>
       </c>
       <c r="J97">
@@ -12360,11 +12423,11 @@
         <v>483</v>
       </c>
       <c r="M97" s="8">
-        <f>K97*1000*1000000/(3*H97*C97)</f>
+        <f t="shared" si="13"/>
         <v>43.757968891359539</v>
       </c>
       <c r="N97">
-        <f>J97*1000*1000000/(I97*C97)</f>
+        <f t="shared" si="14"/>
         <v>167.1937188898109</v>
       </c>
       <c r="O97">
@@ -12374,7 +12437,7 @@
         <v>6700</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7.2089552238805976E-2</v>
       </c>
     </row>
@@ -12401,11 +12464,11 @@
         <v>0.27692145133003487</v>
       </c>
       <c r="H98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>861.0378294614718</v>
       </c>
       <c r="I98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2194.9637493109667</v>
       </c>
       <c r="J98">
@@ -12418,11 +12481,11 @@
         <v>468.25</v>
       </c>
       <c r="M98" s="8">
-        <f>K98*1000*1000000/(3*H98*C98)</f>
+        <f t="shared" si="13"/>
         <v>42.756238283144121</v>
       </c>
       <c r="N98">
-        <f>J98*1000*1000000/(I98*C98)</f>
+        <f t="shared" si="14"/>
         <v>166.27374242481727</v>
       </c>
       <c r="O98">
@@ -12432,7 +12495,7 @@
         <v>6626</v>
       </c>
       <c r="Q98">
-        <f t="shared" ref="Q98:Q118" si="7">L98/P98</f>
+        <f t="shared" ref="Q98:Q118" si="15">L98/P98</f>
         <v>7.0668578327799575E-2</v>
       </c>
     </row>
@@ -12459,11 +12522,11 @@
         <v>0.27496217154106811</v>
       </c>
       <c r="H99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>872.96232418180239</v>
       </c>
       <c r="I99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2251.9094127393901</v>
       </c>
       <c r="J99">
@@ -12476,11 +12539,11 @@
         <v>476.75</v>
       </c>
       <c r="M99" s="8">
-        <f>K99*1000*1000000/(3*H99*C99)</f>
+        <f t="shared" si="13"/>
         <v>42.198954245410562</v>
       </c>
       <c r="N99">
-        <f>J99*1000*1000000/(I99*C99)</f>
+        <f t="shared" si="14"/>
         <v>163.42063427323095</v>
       </c>
       <c r="O99">
@@ -12490,7 +12553,7 @@
         <v>6663</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>7.1551853519435688E-2</v>
       </c>
     </row>
@@ -12517,11 +12580,11 @@
         <v>0.26981540008449911</v>
       </c>
       <c r="H100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>879.12326587814073</v>
       </c>
       <c r="I100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2343.0405571537422</v>
       </c>
       <c r="J100">
@@ -12534,11 +12597,11 @@
         <v>490</v>
       </c>
       <c r="M100" s="8">
-        <f>K100*1000*1000000/(3*H100*C100)</f>
+        <f t="shared" si="13"/>
         <v>41.998723236513641</v>
       </c>
       <c r="N100">
-        <f>J100*1000*1000000/(I100*C100)</f>
+        <f t="shared" si="14"/>
         <v>159.8921291113102</v>
       </c>
       <c r="O100">
@@ -12548,7 +12611,7 @@
         <v>6731</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>7.2797504085574213E-2</v>
       </c>
     </row>
@@ -12575,11 +12638,11 @@
         <v>0.25974083390675146</v>
       </c>
       <c r="H101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>872.19547518979414</v>
       </c>
       <c r="I101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2451.9965345645833</v>
       </c>
       <c r="J101">
@@ -12592,11 +12655,11 @@
         <v>458</v>
       </c>
       <c r="M101" s="8">
-        <f>K101*1000*1000000/(3*H101*C101)</f>
+        <f t="shared" si="13"/>
         <v>42.617937548996352</v>
       </c>
       <c r="N101">
-        <f>J101*1000*1000000/(I101*C101)</f>
+        <f t="shared" si="14"/>
         <v>154.02903621125378</v>
       </c>
       <c r="O101">
@@ -12606,7 +12669,7 @@
         <v>6619</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.9194742408218768E-2</v>
       </c>
     </row>
@@ -12633,11 +12696,11 @@
         <v>0.2487098343362793</v>
       </c>
       <c r="H102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>860.62675663490938</v>
       </c>
       <c r="I102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2567.1204648564494</v>
       </c>
       <c r="J102">
@@ -12650,11 +12713,11 @@
         <v>420.75</v>
       </c>
       <c r="M102" s="8">
-        <f>K102*1000*1000000/(3*H102*C102)</f>
+        <f t="shared" si="13"/>
         <v>42.007073525299489</v>
       </c>
       <c r="N102">
-        <f>J102*1000*1000000/(I102*C102)</f>
+        <f t="shared" si="14"/>
         <v>150.54930829351201</v>
       </c>
       <c r="O102">
@@ -12664,7 +12727,7 @@
         <v>6540</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.4334862385321101E-2</v>
       </c>
     </row>
@@ -12691,11 +12754,11 @@
         <v>0.25343317367965584</v>
       </c>
       <c r="H103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>907.1694715693551</v>
       </c>
       <c r="I103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2641.2567176457055</v>
       </c>
       <c r="J103">
@@ -12708,11 +12771,11 @@
         <v>391.25</v>
       </c>
       <c r="M103" s="8">
-        <f>K103*1000*1000000/(3*H103*C103)</f>
+        <f t="shared" si="13"/>
         <v>38.993178129778009</v>
       </c>
       <c r="N103">
-        <f>J103*1000*1000000/(I103*C103)</f>
+        <f t="shared" si="14"/>
         <v>149.21100535897489</v>
       </c>
       <c r="O103">
@@ -12722,7 +12785,7 @@
         <v>6495</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.0238645111624328E-2</v>
       </c>
     </row>
@@ -12749,11 +12812,11 @@
         <v>0.23959951151215605</v>
       </c>
       <c r="H104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>875.35541369484963</v>
       </c>
       <c r="I104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2747.8295346768573</v>
       </c>
       <c r="J104">
@@ -12766,11 +12829,11 @@
         <v>363.25</v>
       </c>
       <c r="M104" s="8">
-        <f>K104*1000*1000000/(3*H104*C104)</f>
+        <f t="shared" si="13"/>
         <v>39.530492304298591</v>
       </c>
       <c r="N104">
-        <f>J104*1000*1000000/(I104*C104)</f>
+        <f t="shared" si="14"/>
         <v>145.90994112918938</v>
       </c>
       <c r="O104">
@@ -12780,7 +12843,7 @@
         <v>6504</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.5850246002460024E-2</v>
       </c>
     </row>
@@ -12807,11 +12870,11 @@
         <v>0.23601633226000729</v>
       </c>
       <c r="H105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>876.78449594416827</v>
       </c>
       <c r="I105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2808.3141915683564</v>
       </c>
       <c r="J105">
@@ -12824,11 +12887,11 @@
         <v>355.25</v>
       </c>
       <c r="M105" s="8">
-        <f>K105*1000*1000000/(3*H105*C105)</f>
+        <f t="shared" si="13"/>
         <v>38.081332012541402</v>
       </c>
       <c r="N105">
-        <f>J105*1000*1000000/(I105*C105)</f>
+        <f t="shared" si="14"/>
         <v>144.73596171419283</v>
       </c>
       <c r="O105">
@@ -12838,7 +12901,7 @@
         <v>6460</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.4992260061919505E-2</v>
       </c>
     </row>
@@ -12865,11 +12928,11 @@
         <v>0.22621614780615334</v>
       </c>
       <c r="H106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>866.2085205444854</v>
       </c>
       <c r="I106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2930.5049742743131</v>
       </c>
       <c r="J106">
@@ -12882,11 +12945,11 @@
         <v>356.5</v>
       </c>
       <c r="M106" s="8">
-        <f>K106*1000*1000000/(3*H106*C106)</f>
+        <f t="shared" si="13"/>
         <v>37.432256411761671</v>
       </c>
       <c r="N106">
-        <f>J106*1000*1000000/(I106*C106)</f>
+        <f t="shared" si="14"/>
         <v>140.74290991869924</v>
       </c>
       <c r="O106">
@@ -12896,7 +12959,7 @@
         <v>6395</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.5746677091477716E-2</v>
       </c>
     </row>
@@ -12923,11 +12986,11 @@
         <v>0.21789724013086931</v>
       </c>
       <c r="H107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>849.31449027770225</v>
       </c>
       <c r="I107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3015.0823935489293</v>
       </c>
       <c r="J107">
@@ -12940,11 +13003,11 @@
         <v>365</v>
       </c>
       <c r="M107" s="8">
-        <f>K107*1000*1000000/(3*H107*C107)</f>
+        <f t="shared" si="13"/>
         <v>37.288044680167083</v>
       </c>
       <c r="N107">
-        <f>J107*1000*1000000/(I107*C107)</f>
+        <f t="shared" si="14"/>
         <v>138.37087666874564</v>
       </c>
       <c r="O107">
@@ -12954,7 +13017,7 @@
         <v>6423</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.6827027868597231E-2</v>
       </c>
     </row>
@@ -12981,11 +13044,11 @@
         <v>0.22027767331632067</v>
       </c>
       <c r="H108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>880.10298589198328</v>
       </c>
       <c r="I108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3089.8469470079203</v>
       </c>
       <c r="J108">
@@ -12998,11 +13061,11 @@
         <v>389</v>
       </c>
       <c r="M108" s="8">
-        <f>K108*1000*1000000/(3*H108*C108)</f>
+        <f t="shared" si="13"/>
         <v>35.31761761425939</v>
       </c>
       <c r="N108">
-        <f>J108*1000*1000000/(I108*C108)</f>
+        <f t="shared" si="14"/>
         <v>136.39346006775583</v>
       </c>
       <c r="O108">
@@ -13012,7 +13075,7 @@
         <v>6313</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.1618881672738796E-2</v>
       </c>
     </row>
@@ -13039,11 +13102,11 @@
         <v>0.22051451454047905</v>
       </c>
       <c r="H109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>896.81104546988206</v>
       </c>
       <c r="I109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3144.8888014692766</v>
       </c>
       <c r="J109">
@@ -13056,11 +13119,11 @@
         <v>379.5</v>
       </c>
       <c r="M109" s="8">
-        <f>K109*1000*1000000/(3*H109*C109)</f>
+        <f t="shared" si="13"/>
         <v>34.289407507114475</v>
       </c>
       <c r="N109">
-        <f>J109*1000*1000000/(I109*C109)</f>
+        <f t="shared" si="14"/>
         <v>135.35425344193479</v>
       </c>
       <c r="O109">
@@ -13070,7 +13133,7 @@
         <v>6197</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.1239309343230595E-2</v>
       </c>
     </row>
@@ -13097,11 +13160,11 @@
         <v>0.21541748987830744</v>
       </c>
       <c r="H110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>891.06260238383118</v>
       </c>
       <c r="I110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3219.3880338320732</v>
       </c>
       <c r="J110">
@@ -13114,11 +13177,11 @@
         <v>376.5</v>
       </c>
       <c r="M110" s="8">
-        <f>K110*1000*1000000/(3*H110*C110)</f>
+        <f t="shared" si="13"/>
         <v>34.238270736271133</v>
       </c>
       <c r="N110">
-        <f>J110*1000*1000000/(I110*C110)</f>
+        <f t="shared" si="14"/>
         <v>132.47432494420158</v>
       </c>
       <c r="O110">
@@ -13128,7 +13191,7 @@
         <v>6215</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.0579243765084473E-2</v>
       </c>
     </row>
@@ -13155,11 +13218,11 @@
         <v>0.21144015269000152</v>
       </c>
       <c r="H111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>863.85303224127301</v>
       </c>
       <c r="I111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3193.2304122476494</v>
       </c>
       <c r="J111">
@@ -13172,11 +13235,11 @@
         <v>391.25</v>
       </c>
       <c r="M111" s="8">
-        <f>K111*1000*1000000/(3*H111*C111)</f>
+        <f t="shared" si="13"/>
         <v>34.243522368257665</v>
       </c>
       <c r="N111">
-        <f>J111*1000*1000000/(I111*C111)</f>
+        <f t="shared" si="14"/>
         <v>133.6810210154224</v>
       </c>
       <c r="O111">
@@ -13186,7 +13249,7 @@
         <v>6070</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.4456342668863256E-2</v>
       </c>
     </row>
@@ -13213,11 +13276,11 @@
         <v>0.19939677144669946</v>
       </c>
       <c r="H112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>771.93549780688841</v>
       </c>
       <c r="I112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3076.0682355316512</v>
       </c>
       <c r="J112">
@@ -13230,11 +13293,11 @@
         <v>388</v>
       </c>
       <c r="M112" s="8">
-        <f>K112*1000*1000000/(3*H112*C112)</f>
+        <f t="shared" si="13"/>
         <v>36.247297891118549</v>
       </c>
       <c r="N112">
-        <f>J112*1000*1000000/(I112*C112)</f>
+        <f t="shared" si="14"/>
         <v>136.11817910311947</v>
       </c>
       <c r="O112">
@@ -13244,7 +13307,7 @@
         <v>6092</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.3690085357846357E-2</v>
       </c>
     </row>
@@ -13271,11 +13334,11 @@
         <v>0.20112608552736219</v>
       </c>
       <c r="H113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>787.8337168516606</v>
       </c>
       <c r="I113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3100.6706135150539</v>
       </c>
       <c r="J113">
@@ -13288,11 +13351,11 @@
         <v>416</v>
       </c>
       <c r="M113" s="8">
-        <f>K113*1000*1000000/(3*H113*C113)</f>
+        <f t="shared" si="13"/>
         <v>33.775591679404542</v>
       </c>
       <c r="N113">
-        <f>J113*1000*1000000/(I113*C113)</f>
+        <f t="shared" si="14"/>
         <v>134.11740195188395</v>
       </c>
       <c r="O113">
@@ -13302,7 +13365,7 @@
         <v>6015</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.9160432252701576E-2</v>
       </c>
     </row>
@@ -13329,11 +13392,11 @@
         <v>0.20306664600657678</v>
       </c>
       <c r="H114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>800.43255660833972</v>
       </c>
       <c r="I114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3114.5308863356549</v>
       </c>
       <c r="J114">
@@ -13346,11 +13409,11 @@
         <v>418.75</v>
       </c>
       <c r="M114" s="8">
-        <f>K114*1000*1000000/(3*H114*C114)</f>
+        <f t="shared" si="13"/>
         <v>32.969452963719966</v>
       </c>
       <c r="N114">
-        <f>J114*1000*1000000/(I114*C114)</f>
+        <f t="shared" si="14"/>
         <v>133.25741200466922</v>
       </c>
       <c r="O114">
@@ -13360,7 +13423,7 @@
         <v>6106</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.8580085162135609E-2</v>
       </c>
     </row>
@@ -13387,11 +13450,11 @@
         <v>0.20146953414604138</v>
       </c>
       <c r="H115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>797.75766969285075</v>
       </c>
       <c r="I115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3135.5315921999581</v>
       </c>
       <c r="J115">
@@ -13404,11 +13467,11 @@
         <v>409</v>
       </c>
       <c r="M115" s="8">
-        <f>K115*1000*1000000/(3*H115*C115)</f>
+        <f t="shared" si="13"/>
         <v>33.065302429183603</v>
       </c>
       <c r="N115">
-        <f>J115*1000*1000000/(I115*C115)</f>
+        <f t="shared" si="14"/>
         <v>133.2371943328109</v>
       </c>
       <c r="O115">
@@ -13418,7 +13481,7 @@
         <v>6258</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.5356343879833814E-2</v>
       </c>
     </row>
@@ -13445,11 +13508,11 @@
         <v>0.20502232279528962</v>
       </c>
       <c r="H116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>818.83230317692937</v>
       </c>
       <c r="I116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3146.4821067844114</v>
       </c>
       <c r="J116">
@@ -13462,11 +13525,11 @@
         <v>373.25</v>
       </c>
       <c r="M116" s="8">
-        <f>K116*1000*1000000/(3*H116*C116)</f>
+        <f t="shared" si="13"/>
         <v>31.879606851548917</v>
       </c>
       <c r="N116">
-        <f>J116*1000*1000000/(I116*C116)</f>
+        <f t="shared" si="14"/>
         <v>133.96645258609078</v>
       </c>
       <c r="O116">
@@ -13476,7 +13539,7 @@
         <v>6310</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.9152139461172738E-2</v>
       </c>
     </row>
@@ -13503,11 +13566,11 @@
         <v>0.2014910027606146</v>
       </c>
       <c r="H117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>825.91385878704614</v>
       </c>
       <c r="I117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3245.342777873178</v>
       </c>
       <c r="J117">
@@ -13520,11 +13583,11 @@
         <v>419.25</v>
       </c>
       <c r="M117" s="8">
-        <f>K117*1000*1000000/(3*H117*C117)</f>
+        <f t="shared" si="13"/>
         <v>32.08134739642604</v>
       </c>
       <c r="N117">
-        <f>J117*1000*1000000/(I117*C117)</f>
+        <f t="shared" si="14"/>
         <v>133.03370082445224</v>
       </c>
       <c r="O117">
@@ -13534,7 +13597,7 @@
         <v>6278</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.6780821917808222E-2</v>
       </c>
     </row>
@@ -13561,11 +13624,11 @@
         <v>0.19365357610149103</v>
       </c>
       <c r="H118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>806.73181186238583</v>
       </c>
       <c r="I118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3324.9694522700415</v>
       </c>
       <c r="J118">
@@ -13578,11 +13641,11 @@
         <v>385.5</v>
       </c>
       <c r="M118" s="8">
-        <f>K118*1000*1000000/(3*H118*C118)</f>
+        <f t="shared" si="13"/>
         <v>32.94380899110557</v>
       </c>
       <c r="N118">
-        <f>J118*1000*1000000/(I118*C118)</f>
+        <f t="shared" si="14"/>
         <v>131.11188712059382</v>
       </c>
       <c r="O118">
@@ -13592,7 +13655,7 @@
         <v>6059</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.3624360455520709E-2</v>
       </c>
     </row>

--- a/Data/UK time series data calculations.xlsx
+++ b/Data/UK time series data calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Modelling\Ventity\Urban1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF49E9EF-4F9A-410C-81FC-0A34679515DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099D1E14-7EF7-4A50-BAF9-0317E20835AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B77BA640-AA93-49E8-8229-5CF7C9C7308D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B77BA640-AA93-49E8-8229-5CF7C9C7308D}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Unemployment rate</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Fraction</t>
+  </si>
+  <si>
+    <t>Arable land 1k hectares</t>
+  </si>
+  <si>
+    <t>Jobs (1k)</t>
   </si>
 </sst>
 </file>
@@ -16991,16 +16997,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17726,12 +17732,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7A687D-A839-4303-8B50-84B2B3DAF972}">
-  <dimension ref="A1:AJ121"/>
+  <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="G118" sqref="D2:G118"/>
+      <selection pane="topRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17751,7 +17757,7 @@
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -17774,7 +17780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -17836,7 +17842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -17869,8 +17875,17 @@
       <c r="O3">
         <v>3</v>
       </c>
+      <c r="AH3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1901</v>
       </c>
@@ -17924,8 +17939,24 @@
         <f>I4/I3</f>
         <v>1.0152799355853741</v>
       </c>
+      <c r="AG4">
+        <v>1900</v>
+      </c>
+      <c r="AH4">
+        <v>6357</v>
+      </c>
+      <c r="AI4">
+        <v>2278</v>
+      </c>
+      <c r="AJ4">
+        <f>AI4/AH4</f>
+        <v>0.35834513135126633</v>
+      </c>
+      <c r="AK4">
+        <v>110</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1902</v>
       </c>
@@ -17963,8 +17994,24 @@
         <f t="shared" ref="R5:R68" si="2">I5/I4</f>
         <v>1.0044399138213373</v>
       </c>
+      <c r="AG5">
+        <v>1910</v>
+      </c>
+      <c r="AH5">
+        <v>5936</v>
+      </c>
+      <c r="AI5">
+        <v>2262</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" ref="AJ5:AJ41" si="3">AI5/AH5</f>
+        <v>0.3810646900269542</v>
+      </c>
+      <c r="AK5">
+        <v>130</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1903</v>
       </c>
@@ -18002,8 +18049,24 @@
         <f t="shared" si="2"/>
         <v>0.97882789374094115</v>
       </c>
+      <c r="AG6">
+        <v>1920</v>
+      </c>
+      <c r="AH6">
+        <v>6232</v>
+      </c>
+      <c r="AI6">
+        <v>1664</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="3"/>
+        <v>0.26700898587933247</v>
+      </c>
+      <c r="AK6">
+        <v>140</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1904</v>
       </c>
@@ -18047,8 +18110,24 @@
       <c r="AC7">
         <v>272.81099999999998</v>
       </c>
+      <c r="AG7">
+        <v>1930</v>
+      </c>
+      <c r="AH7">
+        <v>5728</v>
+      </c>
+      <c r="AI7">
+        <v>1395</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="3"/>
+        <v>0.24354050279329609</v>
+      </c>
+      <c r="AK7">
+        <v>191</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1905</v>
       </c>
@@ -18092,8 +18171,14 @@
       <c r="AC8">
         <v>275.20100000000002</v>
       </c>
+      <c r="AG8">
+        <v>1940</v>
+      </c>
+      <c r="AH8">
+        <v>5806</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1906</v>
       </c>
@@ -18137,8 +18222,24 @@
       <c r="AC9">
         <v>277.55200000000002</v>
       </c>
+      <c r="AG9">
+        <v>1950</v>
+      </c>
+      <c r="AH9">
+        <v>7428</v>
+      </c>
+      <c r="AI9">
+        <v>1134</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="3"/>
+        <v>0.15266558966074315</v>
+      </c>
+      <c r="AK9">
+        <v>250</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1907</v>
       </c>
@@ -18182,8 +18283,21 @@
       <c r="AC10">
         <v>279.86599999999999</v>
       </c>
+      <c r="AG10">
+        <v>1960</v>
+      </c>
+      <c r="AH10">
+        <v>7305</v>
+      </c>
+      <c r="AI10">
+        <v>970</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="3"/>
+        <v>0.1327857631759069</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1908</v>
       </c>
@@ -18227,8 +18341,21 @@
       <c r="AC11">
         <v>282.142</v>
       </c>
+      <c r="AG11">
+        <v>1970</v>
+      </c>
+      <c r="AH11">
+        <v>7199</v>
+      </c>
+      <c r="AI11">
+        <v>628</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="3"/>
+        <v>8.7234338102514242E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1909</v>
       </c>
@@ -18272,8 +18399,21 @@
       <c r="AC12">
         <v>284.37900000000002</v>
       </c>
+      <c r="AG12">
+        <v>1980</v>
+      </c>
+      <c r="AH12">
+        <v>6996</v>
+      </c>
+      <c r="AI12">
+        <v>509</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="3"/>
+        <v>7.2755860491709554E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1910</v>
       </c>
@@ -18317,8 +18457,27 @@
       <c r="AC13">
         <v>286.56</v>
       </c>
+      <c r="AG13">
+        <v>1990</v>
+      </c>
+      <c r="AH13">
+        <v>6760</v>
+      </c>
+      <c r="AI13">
+        <v>495.5</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="3"/>
+        <v>7.3298816568047334E-2</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1911</v>
       </c>
@@ -18378,8 +18537,28 @@
       <c r="AC14">
         <v>288.67</v>
       </c>
+      <c r="AG14">
+        <v>1991</v>
+      </c>
+      <c r="AH14">
+        <v>6729</v>
+      </c>
+      <c r="AI14">
+        <v>492</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="3"/>
+        <v>7.3116362015158268E-2</v>
+      </c>
+      <c r="AO14">
+        <v>10</v>
+      </c>
+      <c r="AP14">
+        <f>-0.0003*(0.7003*AO14+202.18) + 0.3076</f>
+        <v>0.24484509999999998</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1912</v>
       </c>
@@ -18423,8 +18602,28 @@
       <c r="AC15">
         <v>290.72500000000002</v>
       </c>
+      <c r="AG15">
+        <v>1992</v>
+      </c>
+      <c r="AH15">
+        <v>6778</v>
+      </c>
+      <c r="AI15">
+        <v>501.75</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="3"/>
+        <v>7.4026261434051346E-2</v>
+      </c>
+      <c r="AO15">
+        <v>20</v>
+      </c>
+      <c r="AP15">
+        <f>-0.0003*(0.7003*AO15+202.18) + 0.3076</f>
+        <v>0.24274419999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1913</v>
       </c>
@@ -18468,8 +18667,28 @@
       <c r="AC16">
         <v>292.74099999999999</v>
       </c>
+      <c r="AG16">
+        <v>1993</v>
+      </c>
+      <c r="AH16">
+        <v>6829</v>
+      </c>
+      <c r="AI16">
+        <v>483</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="3"/>
+        <v>7.0727778591301804E-2</v>
+      </c>
+      <c r="AO16">
+        <v>30</v>
+      </c>
+      <c r="AP16">
+        <f>-0.0003*(0.7003*AO16+202.18) + 0.3076</f>
+        <v>0.2406433</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1914</v>
       </c>
@@ -18513,8 +18732,21 @@
       <c r="AC17">
         <v>294.74900000000002</v>
       </c>
+      <c r="AG17">
+        <v>1994</v>
+      </c>
+      <c r="AH17">
+        <v>6700</v>
+      </c>
+      <c r="AI17">
+        <v>468.25</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="3"/>
+        <v>6.9888059701492533E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1915</v>
       </c>
@@ -18558,8 +18790,21 @@
       <c r="AC18">
         <v>296.77</v>
       </c>
+      <c r="AG18">
+        <v>1995</v>
+      </c>
+      <c r="AH18">
+        <v>6626</v>
+      </c>
+      <c r="AI18">
+        <v>476.75</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="3"/>
+        <v>7.1951403561726537E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1916</v>
       </c>
@@ -18603,8 +18848,21 @@
       <c r="AC19">
         <v>298.81200000000001</v>
       </c>
+      <c r="AG19">
+        <v>1996</v>
+      </c>
+      <c r="AH19">
+        <v>6663</v>
+      </c>
+      <c r="AI19">
+        <v>490</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="3"/>
+        <v>7.3540447245985296E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1917</v>
       </c>
@@ -18651,8 +18909,21 @@
       <c r="AE20" t="s">
         <v>22</v>
       </c>
+      <c r="AG20">
+        <v>1997</v>
+      </c>
+      <c r="AH20">
+        <v>6731</v>
+      </c>
+      <c r="AI20">
+        <v>458</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="3"/>
+        <v>6.8043381369781608E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1918</v>
       </c>
@@ -18696,8 +18967,21 @@
       <c r="AC21">
         <v>302.91699999999997</v>
       </c>
+      <c r="AG21">
+        <v>1998</v>
+      </c>
+      <c r="AH21">
+        <v>6619</v>
+      </c>
+      <c r="AI21">
+        <v>420.75</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="3"/>
+        <v>6.3567004079166031E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1919</v>
       </c>
@@ -18747,8 +19031,21 @@
       <c r="AF22">
         <v>370</v>
       </c>
+      <c r="AG22">
+        <v>1999</v>
+      </c>
+      <c r="AH22">
+        <v>6540</v>
+      </c>
+      <c r="AI22">
+        <v>391.25</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="3"/>
+        <v>5.9824159021406725E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1920</v>
       </c>
@@ -18788,11 +19085,11 @@
         <v>1664.0405114750281</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" ref="M23:M41" si="3">K23*1000*1000000/(3*H23*C23)</f>
+        <f t="shared" ref="M23:M41" si="4">K23*1000*1000000/(3*H23*C23)</f>
         <v>201.93870781941771</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:N41" si="4">J23*1000*1000000/(I23*C23)</f>
+        <f t="shared" ref="N23:N41" si="5">J23*1000*1000000/(I23*C23)</f>
         <v>729.70108495595196</v>
       </c>
       <c r="O23">
@@ -18814,8 +19111,21 @@
       <c r="AF23">
         <v>180</v>
       </c>
+      <c r="AG23">
+        <v>2000</v>
+      </c>
+      <c r="AH23">
+        <v>6495</v>
+      </c>
+      <c r="AI23">
+        <v>363.25</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="3"/>
+        <v>5.5927636643571976E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1921</v>
       </c>
@@ -18855,11 +19165,11 @@
         <v>1595.2232128959345</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>211.92644332978307</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>679.24451044216084</v>
       </c>
       <c r="O24">
@@ -18881,8 +19191,21 @@
       <c r="AF24">
         <v>120</v>
       </c>
+      <c r="AG24">
+        <v>2001</v>
+      </c>
+      <c r="AH24">
+        <v>6504</v>
+      </c>
+      <c r="AI24">
+        <v>355.25</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="3"/>
+        <v>5.4620233702337026E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1922</v>
       </c>
@@ -18922,11 +19245,11 @@
         <v>1548.3892180296068</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201.47113262703374</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>610.06080137113054</v>
       </c>
       <c r="O25">
@@ -18948,8 +19271,21 @@
       <c r="AF25">
         <v>90</v>
       </c>
+      <c r="AG25">
+        <v>2002</v>
+      </c>
+      <c r="AH25">
+        <v>6460</v>
+      </c>
+      <c r="AI25">
+        <v>356.5</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="3"/>
+        <v>5.5185758513931892E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1923</v>
       </c>
@@ -18989,11 +19325,11 @@
         <v>1501.5552231632792</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197.38551406126527</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>589.05369137377545</v>
       </c>
       <c r="O26">
@@ -19015,8 +19351,21 @@
       <c r="AF26">
         <v>70</v>
       </c>
+      <c r="AG26">
+        <v>2003</v>
+      </c>
+      <c r="AH26">
+        <v>6395</v>
+      </c>
+      <c r="AI26">
+        <v>365</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="3"/>
+        <v>5.7075840500390933E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1924</v>
       </c>
@@ -19056,11 +19405,11 @@
         <v>1512.0689771128627</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>190.35622842878357</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>569.79949136037271</v>
       </c>
       <c r="O27">
@@ -19082,8 +19431,21 @@
       <c r="AF27">
         <v>60</v>
       </c>
+      <c r="AG27">
+        <v>2004</v>
+      </c>
+      <c r="AH27">
+        <v>6423</v>
+      </c>
+      <c r="AI27">
+        <v>389</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="3"/>
+        <v>6.0563599564066636E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1925</v>
       </c>
@@ -19123,11 +19485,11 @@
         <v>1506.3342022312715</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>188.38880512486492</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>560.90351195451547</v>
       </c>
       <c r="O28">
@@ -19143,8 +19505,21 @@
       <c r="AC28">
         <v>315.95299999999997</v>
       </c>
+      <c r="AG28">
+        <v>2005</v>
+      </c>
+      <c r="AH28">
+        <v>6313</v>
+      </c>
+      <c r="AI28">
+        <v>379.5</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="3"/>
+        <v>6.0114050372247742E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1926</v>
       </c>
@@ -19184,11 +19559,11 @@
         <v>1483.395102704907</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201.44541196626832</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>563.50968005589846</v>
       </c>
       <c r="O29">
@@ -19204,8 +19579,21 @@
       <c r="AC29">
         <v>317.90199999999999</v>
       </c>
+      <c r="AG29">
+        <v>2006</v>
+      </c>
+      <c r="AH29">
+        <v>6197</v>
+      </c>
+      <c r="AI29">
+        <v>376.5</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="3"/>
+        <v>6.0755204131031144E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1927</v>
       </c>
@@ -19245,11 +19633,11 @@
         <v>1455.6770241105498</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>188.78643404903221</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>535.87508687928334</v>
       </c>
       <c r="O30">
@@ -19268,8 +19656,21 @@
       <c r="AE30" t="s">
         <v>23</v>
       </c>
+      <c r="AG30">
+        <v>2007</v>
+      </c>
+      <c r="AH30">
+        <v>6215</v>
+      </c>
+      <c r="AI30">
+        <v>391.25</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="3"/>
+        <v>6.2952534191472245E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1928</v>
       </c>
@@ -19309,11 +19710,11 @@
         <v>1444.2074743473677</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>190.17497812354759</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>531.46793236357337</v>
       </c>
       <c r="O31">
@@ -19329,8 +19730,21 @@
       <c r="AC31">
         <v>321.95</v>
       </c>
+      <c r="AG31">
+        <v>2008</v>
+      </c>
+      <c r="AH31">
+        <v>6070</v>
+      </c>
+      <c r="AI31">
+        <v>388</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="3"/>
+        <v>6.392092257001647E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1929</v>
       </c>
@@ -19370,11 +19784,11 @@
         <v>1435.605312024981</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>186.18576028021289</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>530.56136761739401</v>
       </c>
       <c r="O32">
@@ -19395,6 +19809,19 @@
       </c>
       <c r="AF32">
         <v>1100.0000000000002</v>
+      </c>
+      <c r="AG32">
+        <v>2009</v>
+      </c>
+      <c r="AH32">
+        <v>6092</v>
+      </c>
+      <c r="AI32">
+        <v>416</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="3"/>
+        <v>6.8286277084701252E-2</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
@@ -19437,11 +19864,11 @@
         <v>1395.4618878538431</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>183.53372936081635</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>536.7699287448836</v>
       </c>
       <c r="O33">
@@ -19469,6 +19896,19 @@
       </c>
       <c r="AF33">
         <v>600</v>
+      </c>
+      <c r="AG33">
+        <v>2010</v>
+      </c>
+      <c r="AH33">
+        <v>6015</v>
+      </c>
+      <c r="AI33">
+        <v>418.75</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="3"/>
+        <v>6.9617622610141316E-2</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
@@ -19511,11 +19951,11 @@
         <v>1362.0090343778947</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>191.0556040289629</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>538.04953656649263</v>
       </c>
       <c r="O34">
@@ -19537,11 +19977,18 @@
       <c r="AF34">
         <v>350</v>
       </c>
-      <c r="AI34" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>28</v>
+      <c r="AG34">
+        <v>2011</v>
+      </c>
+      <c r="AH34">
+        <v>6106</v>
+      </c>
+      <c r="AI34">
+        <v>409</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="3"/>
+        <v>6.6983295119554531E-2</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
@@ -19567,11 +20014,11 @@
         <v>0.359513001697426</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H66" si="5">G35*D35/C35*0.07*2.393758</f>
+        <f t="shared" ref="H35:H66" si="6">G35*D35/C35*0.07*2.393758</f>
         <v>270.33129531079601</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I66" si="6">F35*D35/C35*0.07*2.393758</f>
+        <f t="shared" ref="I35:I66" si="7">F35*D35/C35*0.07*2.393758</f>
         <v>449.12080181237661</v>
       </c>
       <c r="J35">
@@ -19584,11 +20031,11 @@
         <v>1350.5394846147126</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189.47118312853084</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>540.55941413868436</v>
       </c>
       <c r="O35">
@@ -19610,12 +20057,18 @@
       <c r="AF35">
         <v>200</v>
       </c>
+      <c r="AG35">
+        <v>2012</v>
+      </c>
+      <c r="AH35">
+        <v>6258</v>
+      </c>
       <c r="AI35">
-        <v>10</v>
+        <v>373.25</v>
       </c>
       <c r="AJ35">
-        <f>-0.0003*(0.7003*AI35+202.18) + 0.3076</f>
-        <v>0.24484509999999998</v>
+        <f t="shared" si="3"/>
+        <v>5.9643656120166186E-2</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
@@ -19641,11 +20094,11 @@
         <v>0.36161080654357264</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>279.74892671131988</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>461.19171650084496</v>
       </c>
       <c r="J36">
@@ -19658,11 +20111,11 @@
         <v>1350.5394846147126</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>187.9667879669596</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>532.89483900930838</v>
       </c>
       <c r="O36">
@@ -19684,12 +20137,18 @@
       <c r="AF36">
         <v>150</v>
       </c>
+      <c r="AG36">
+        <v>2013</v>
+      </c>
+      <c r="AH36">
+        <v>6310</v>
+      </c>
       <c r="AI36">
-        <v>20</v>
+        <v>419.25</v>
       </c>
       <c r="AJ36">
-        <f>-0.0003*(0.7003*AI36+202.18) + 0.3076</f>
-        <v>0.24274419999999999</v>
+        <f t="shared" si="3"/>
+        <v>6.6442155309033274E-2</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
@@ -19715,11 +20174,11 @@
         <v>0.37296260390982439</v>
       </c>
       <c r="H37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>305.47606860944649</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>476.24154924585582</v>
       </c>
       <c r="J37">
@@ -19732,11 +20191,11 @@
         <v>1332.3793641563407</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180.11593567107369</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>524.84146058715021</v>
       </c>
       <c r="O37">
@@ -19758,12 +20217,18 @@
       <c r="AF37">
         <v>150</v>
       </c>
+      <c r="AG37">
+        <v>2014</v>
+      </c>
+      <c r="AH37">
+        <v>6278</v>
+      </c>
       <c r="AI37">
-        <v>30</v>
+        <v>385.5</v>
       </c>
       <c r="AJ37">
-        <f>-0.0003*(0.7003*AI37+202.18) + 0.3076</f>
-        <v>0.2406433</v>
+        <f t="shared" si="3"/>
+        <v>6.1404906021025801E-2</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
@@ -19789,11 +20254,11 @@
         <v>0.37681918080738747</v>
       </c>
       <c r="H38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>318.60337193250274</v>
       </c>
       <c r="I38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>491.96108901342336</v>
       </c>
       <c r="J38">
@@ -19806,11 +20271,11 @@
         <v>1309.4402646299761</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>176.51438885678269</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>514.05312582883505</v>
       </c>
       <c r="O38">
@@ -19825,6 +20290,19 @@
       </c>
       <c r="AC38">
         <v>337.93400000000003</v>
+      </c>
+      <c r="AG38">
+        <v>2015</v>
+      </c>
+      <c r="AH38">
+        <v>6059</v>
+      </c>
+      <c r="AI38">
+        <v>387.75</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="3"/>
+        <v>6.3995708862848652E-2</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
@@ -19850,11 +20328,11 @@
         <v>0.38682609154493602</v>
       </c>
       <c r="H39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>341.59484109225787</v>
       </c>
       <c r="I39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>508.14645005418919</v>
       </c>
       <c r="J39">
@@ -19867,11 +20345,11 @@
         <v>1275.9874111540278</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>172.01535860356046</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>508.26356372134444</v>
       </c>
       <c r="O39">
@@ -19886,6 +20364,12 @@
       </c>
       <c r="AC39">
         <v>340.51900000000001</v>
+      </c>
+      <c r="AG39">
+        <v>2016</v>
+      </c>
+      <c r="AH39">
+        <v>6073</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
@@ -19911,11 +20395,11 @@
         <v>0.39824683303444397</v>
       </c>
       <c r="H40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>362.27683173153434</v>
       </c>
       <c r="I40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>518.09482387412993</v>
       </c>
       <c r="J40">
@@ -19928,11 +20412,11 @@
         <v>1254.9599032548604</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168.98411492521382</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>511.23030971414352</v>
       </c>
       <c r="O40">
@@ -19947,6 +20431,12 @@
       </c>
       <c r="AC40">
         <v>343.13600000000002</v>
+      </c>
+      <c r="AG40">
+        <v>2017</v>
+      </c>
+      <c r="AH40">
+        <v>6131</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
@@ -19972,11 +20462,11 @@
         <v>0.39942988950927211</v>
       </c>
       <c r="H41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>364.17527139302734</v>
       </c>
       <c r="I41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>508.00920211128198</v>
       </c>
       <c r="J41">
@@ -19989,11 +20479,11 @@
         <v>1215.772274897321</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>165.99224092820441</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>526.07717895245833</v>
       </c>
       <c r="O41">
@@ -20008,6 +20498,12 @@
       </c>
       <c r="AC41">
         <v>345.76499999999999</v>
+      </c>
+      <c r="AG41">
+        <v>2018</v>
+      </c>
+      <c r="AH41">
+        <v>6206</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
@@ -20033,11 +20529,11 @@
         <v>0.40281911492936323</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>382.16611647654116</v>
       </c>
       <c r="I42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>523.91828856226857</v>
       </c>
       <c r="M42" s="8"/>
@@ -20078,11 +20574,11 @@
         <v>0.40620834034945441</v>
       </c>
       <c r="H43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>424.76198764267275</v>
       </c>
       <c r="I43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>572.27271689028669</v>
       </c>
       <c r="M43" s="8"/>
@@ -20126,11 +20622,11 @@
         <v>0.40959756576954554</v>
       </c>
       <c r="H44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>467.99945209037696</v>
       </c>
       <c r="I44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>619.64560832194354</v>
       </c>
       <c r="M44" s="8"/>
@@ -20171,11 +20667,11 @@
         <v>0.41298679118963671</v>
       </c>
       <c r="H45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>479.64357347760318</v>
       </c>
       <c r="I45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>624.09508221008764</v>
       </c>
       <c r="M45" s="8"/>
@@ -20216,11 +20712,11 @@
         <v>0.41637601660972784</v>
       </c>
       <c r="H46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>488.30425352903677</v>
       </c>
       <c r="I46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>624.38008621915037</v>
       </c>
       <c r="M46" s="8"/>
@@ -20261,11 +20757,11 @@
         <v>0.41976524202981902</v>
       </c>
       <c r="H47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>466.22683721009605</v>
       </c>
       <c r="I47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>585.83235227933551</v>
       </c>
       <c r="M47" s="8"/>
@@ -20306,11 +20802,11 @@
         <v>0.42315446744991014</v>
       </c>
       <c r="H48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>443.52636804006272</v>
       </c>
       <c r="I48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>547.64993597684031</v>
       </c>
       <c r="M48" s="8"/>
@@ -20351,11 +20847,11 @@
         <v>0.42654369287000132</v>
       </c>
       <c r="H49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>433.6525525897506</v>
       </c>
       <c r="I49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>526.1648156621236</v>
       </c>
       <c r="M49" s="8"/>
@@ -20370,7 +20866,7 @@
         <v>50</v>
       </c>
       <c r="AG49">
-        <f t="shared" ref="AG49:AG69" si="7">449.4*EXP(-0.003*AF49)</f>
+        <f t="shared" ref="AG49:AG69" si="8">449.4*EXP(-0.003*AF49)</f>
         <v>386.80216460542096</v>
       </c>
       <c r="AH49">
@@ -20401,11 +20897,11 @@
         <v>0.42993291829009245</v>
       </c>
       <c r="H50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>428.54584092522339</v>
       </c>
       <c r="I50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>510.9296106593215</v>
       </c>
       <c r="M50" s="8"/>
@@ -20420,11 +20916,11 @@
         <v>200</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>246.63594926065545</v>
       </c>
       <c r="AH50">
-        <f t="shared" ref="AH50:AH73" si="8">42125*AF50^(-0.72)</f>
+        <f t="shared" ref="AH50:AH73" si="9">42125*AF50^(-0.72)</f>
         <v>928.53508212933207</v>
       </c>
     </row>
@@ -20451,11 +20947,11 @@
         <v>0.43332214371018363</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>443.29740120319053</v>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>519.31306931127767</v>
       </c>
       <c r="J51">
@@ -20468,11 +20964,11 @@
         <v>1149.8223637590229</v>
       </c>
       <c r="M51" s="8">
-        <f t="shared" ref="M51:M82" si="9">K51*1000*1000000/(3*H51*C51)</f>
+        <f t="shared" ref="M51:M82" si="10">K51*1000*1000000/(3*H51*C51)</f>
         <v>150.00036301262395</v>
       </c>
       <c r="N51">
-        <f t="shared" ref="N51:N82" si="10">J51*1000*1000000/(I51*C51)</f>
+        <f t="shared" ref="N51:N82" si="11">J51*1000*1000000/(I51*C51)</f>
         <v>505.0217025093404</v>
       </c>
       <c r="O51">
@@ -20486,11 +20982,11 @@
         <v>350</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>157.26202445055318</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>620.59878636345559</v>
       </c>
     </row>
@@ -20517,11 +21013,11 @@
         <v>0.4403265504032563</v>
       </c>
       <c r="H52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>463.61674828954051</v>
       </c>
       <c r="I52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>525.40162179545553</v>
       </c>
       <c r="J52">
@@ -20534,11 +21030,11 @@
         <v>1146.9549763182274</v>
       </c>
       <c r="M52" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>144.34306845120912</v>
       </c>
       <c r="N52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>492.68438575141795</v>
       </c>
       <c r="O52">
@@ -20552,11 +21048,11 @@
         <v>500</v>
       </c>
       <c r="AG52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>100.27469397070435</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>480.04451385051658</v>
       </c>
     </row>
@@ -20583,11 +21079,11 @@
         <v>0.43894642873257872</v>
       </c>
       <c r="H53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>475.55400544377443</v>
       </c>
       <c r="I53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>550.29172337435216</v>
       </c>
       <c r="J53">
@@ -20600,11 +21096,11 @@
         <v>1133.5738349278481</v>
       </c>
       <c r="M53" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>142.42524887090687</v>
       </c>
       <c r="N53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>470.53554038454314</v>
       </c>
       <c r="O53">
@@ -20625,11 +21121,11 @@
         <v>650</v>
       </c>
       <c r="AG53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>63.937967770979206</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>397.41320830777971</v>
       </c>
     </row>
@@ -20656,11 +21152,11 @@
         <v>0.44268655902967802</v>
       </c>
       <c r="H54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>499.89749400693296</v>
       </c>
       <c r="I54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>576.18638445247336</v>
       </c>
       <c r="J54">
@@ -20673,11 +21169,11 @@
         <v>1103.944164706294</v>
       </c>
       <c r="M54" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>138.76395823941706</v>
       </c>
       <c r="N54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>456.56367840242149</v>
       </c>
       <c r="O54">
@@ -20691,11 +21187,11 @@
         <v>800</v>
       </c>
       <c r="AG54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40.768648208261979</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>342.2276721895347</v>
       </c>
     </row>
@@ -20722,11 +21218,11 @@
         <v>0.46501234028046562</v>
       </c>
       <c r="H55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>534.442940499614</v>
       </c>
       <c r="I55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>552.69807015263439</v>
       </c>
       <c r="J55">
@@ -20739,11 +21235,11 @@
         <v>1080.0492693663309</v>
       </c>
       <c r="M55" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>128.38984992426796</v>
       </c>
       <c r="N55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>477.21117799769866</v>
       </c>
       <c r="O55">
@@ -20757,11 +21253,11 @@
         <v>950</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25.995237801152403</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>302.39800248561107</v>
       </c>
     </row>
@@ -20788,11 +21284,11 @@
         <v>0.47354354480978933</v>
       </c>
       <c r="H56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>573.78516398573811</v>
       </c>
       <c r="I56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>573.07736978674245</v>
       </c>
       <c r="J56">
@@ -20805,11 +21301,11 @@
         <v>1059.9775572807619</v>
       </c>
       <c r="M56" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120.63887417032903</v>
       </c>
       <c r="N56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>460.94948422240606</v>
       </c>
       <c r="O56">
@@ -20823,11 +21319,11 @@
         <v>1100</v>
       </c>
       <c r="AG56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.575295430117251</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>272.10541254165076</v>
       </c>
     </row>
@@ -20854,11 +21350,11 @@
         <v>0.47335721475217629</v>
       </c>
       <c r="H57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>595.70423501698087</v>
       </c>
       <c r="I57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>599.78545586184919</v>
       </c>
       <c r="J57">
@@ -20871,11 +21367,11 @@
         <v>1049.463803331178</v>
       </c>
       <c r="M57" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>118.18774633904928</v>
       </c>
       <c r="N57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>444.30274369706166</v>
       </c>
       <c r="O57">
@@ -20889,11 +21385,11 @@
         <v>1250</v>
       </c>
       <c r="AG57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.568874987690492</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248.17881382523899</v>
       </c>
     </row>
@@ -20920,11 +21416,11 @@
         <v>0.47811107322113849</v>
       </c>
       <c r="H58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>622.54401914362813</v>
       </c>
       <c r="I58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>619.95716877321036</v>
       </c>
       <c r="J58">
@@ -20937,11 +21433,11 @@
         <v>1044.6848242631854</v>
       </c>
       <c r="M58" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>114.91309809446781</v>
       </c>
       <c r="N58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>431.32391262776116</v>
       </c>
       <c r="O58">
@@ -20955,11 +21451,11 @@
         <v>1400</v>
       </c>
       <c r="AG58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.7390122231226792</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>228.73242175596471</v>
       </c>
     </row>
@@ -20986,11 +21482,11 @@
         <v>0.47455618125763094</v>
       </c>
       <c r="H59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>627.30297445053884</v>
       </c>
       <c r="I59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>635.50846729891077</v>
       </c>
       <c r="J59">
@@ -21003,11 +21499,11 @@
         <v>1015.0551540416312</v>
       </c>
       <c r="M59" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>114.29884023256167</v>
       </c>
       <c r="N59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>422.69823069660458</v>
       </c>
       <c r="O59">
@@ -21021,11 +21517,11 @@
         <v>1550</v>
       </c>
       <c r="AG59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2969839075862506</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>212.56956861769436</v>
       </c>
     </row>
@@ -21052,11 +21548,11 @@
         <v>0.47565272991125218</v>
       </c>
       <c r="H60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>637.87403407984016</v>
       </c>
       <c r="I60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>643.52482020769719</v>
       </c>
       <c r="J60">
@@ -21069,11 +21565,11 @@
         <v>1009.3203791600401</v>
       </c>
       <c r="M60" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>111.74676679020024</v>
       </c>
       <c r="N60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>414.58899542524341</v>
       </c>
       <c r="O60">
@@ -21087,11 +21583,11 @@
         <v>1700</v>
       </c>
       <c r="AG60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.7398779065427252</v>
       </c>
       <c r="AH60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>198.89171403098533</v>
       </c>
     </row>
@@ -21118,11 +21614,11 @@
         <v>0.47483340318346229</v>
       </c>
       <c r="H61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>640.01759060483084</v>
       </c>
       <c r="I61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>649.24491670085547</v>
       </c>
       <c r="J61">
@@ -21135,11 +21631,11 @@
         <v>994.98344195606239</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>109.11164059816312</v>
       </c>
       <c r="N61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>407.15746016873845</v>
       </c>
       <c r="O61">
@@ -21153,11 +21649,11 @@
         <v>1850</v>
       </c>
       <c r="AG61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7470232852181729</v>
       </c>
       <c r="AH61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>187.14415582572053</v>
       </c>
     </row>
@@ -21184,11 +21680,11 @@
         <v>0.47251625919781232</v>
       </c>
       <c r="H62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>656.42960498425691</v>
       </c>
       <c r="I62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>674.99478395189874</v>
       </c>
       <c r="J62">
@@ -21201,11 +21697,11 @@
         <v>987.33707544727417</v>
       </c>
       <c r="M62" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>106.29907492823932</v>
       </c>
       <c r="N62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>393.26224620127351</v>
       </c>
       <c r="O62">
@@ -21219,11 +21715,11 @@
         <v>2000</v>
       </c>
       <c r="AG62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1139512281938615</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>176.92871242482201</v>
       </c>
     </row>
@@ -21250,11 +21746,11 @@
         <v>0.47265137996428597</v>
       </c>
       <c r="H63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>693.69158047412395</v>
       </c>
       <c r="I63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>716.28318665337724</v>
       </c>
       <c r="J63">
@@ -21267,11 +21763,11 @@
         <v>970.13275080250071</v>
       </c>
       <c r="M63" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.47515544719047</v>
       </c>
       <c r="N63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>370.99906419538377</v>
       </c>
       <c r="O63">
@@ -21292,11 +21788,11 @@
         <v>2150</v>
       </c>
       <c r="AG63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.71028666263005591</v>
       </c>
       <c r="AH63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>167.95162985999579</v>
       </c>
     </row>
@@ -21323,11 +21819,11 @@
         <v>0.46706402207707015</v>
       </c>
       <c r="H64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>699.14001614893641</v>
       </c>
       <c r="I64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>739.83101785018573</v>
       </c>
       <c r="J64">
@@ -21340,11 +21836,11 @@
         <v>939.54728476734795</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102.23413370505088</v>
       </c>
       <c r="N64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>360.1375908694215</v>
       </c>
       <c r="O64">
@@ -21358,11 +21854,11 @@
         <v>2300</v>
       </c>
       <c r="AG64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45289877181440058</v>
       </c>
       <c r="AH64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>159.99111753303364</v>
       </c>
     </row>
@@ -21389,11 +21885,11 @@
         <v>0.46240286621493987</v>
       </c>
       <c r="H65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>694.38169298684875</v>
       </c>
       <c r="I65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>748.9439312793661</v>
       </c>
       <c r="J65">
@@ -21406,11 +21902,11 @@
         <v>907.05022710499816</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>101.40397053366819</v>
       </c>
       <c r="N65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>358.2928223502031</v>
       </c>
       <c r="O65">
@@ -21424,11 +21920,11 @@
         <v>2450</v>
       </c>
       <c r="AG65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28878100674378743</v>
       </c>
       <c r="AH65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>152.87635984437031</v>
       </c>
     </row>
@@ -21455,11 +21951,11 @@
         <v>0.45739317892313486</v>
       </c>
       <c r="H66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>694.74529437526417</v>
       </c>
       <c r="I66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>769.05776155906779</v>
       </c>
       <c r="J66">
@@ -21472,11 +21968,11 @@
         <v>899.40386059621005</v>
       </c>
       <c r="M66" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100.01220293274257</v>
       </c>
       <c r="N66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>350.59157368668747</v>
       </c>
       <c r="O66">
@@ -21497,11 +21993,11 @@
         <v>2600</v>
       </c>
       <c r="AG66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1841348995535162</v>
       </c>
       <c r="AH66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>146.47351488826391</v>
       </c>
     </row>
@@ -21528,11 +22024,11 @@
         <v>0.46197304962823921</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H98" si="11">G67*D67/C67*0.07*2.393758</f>
+        <f t="shared" ref="H67:H98" si="12">G67*D67/C67*0.07*2.393758</f>
         <v>736.48159725830521</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I98" si="12">F67*D67/C67*0.07*2.393758</f>
+        <f t="shared" ref="I67:I98" si="13">F67*D67/C67*0.07*2.393758</f>
         <v>800.51890347336928</v>
       </c>
       <c r="J67">
@@ -21545,11 +22041,11 @@
         <v>864.03941549306467</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95.557952708709536</v>
       </c>
       <c r="N67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>339.03075987845608</v>
       </c>
       <c r="O67">
@@ -21563,18 +22059,18 @@
         <v>200</v>
       </c>
       <c r="AA67">
-        <f t="shared" ref="AA67:AA70" si="13">Z67*0.88+146.58</f>
+        <f t="shared" ref="AA67:AA70" si="14">Z67*0.88+146.58</f>
         <v>322.58000000000004</v>
       </c>
       <c r="AF67">
         <v>2750</v>
       </c>
       <c r="AG67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11740959565136938</v>
       </c>
       <c r="AH67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>140.67611767570995</v>
       </c>
     </row>
@@ -21601,11 +22097,11 @@
         <v>0.45887648366737421</v>
       </c>
       <c r="H68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>745.64939272545257</v>
       </c>
       <c r="I68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>823.89470420125758</v>
       </c>
       <c r="J68" s="1">
@@ -21618,11 +22114,11 @@
         <v>815.29382899953998</v>
       </c>
       <c r="M68" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>94.854231549116278</v>
       </c>
       <c r="N68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>331.1980425841345</v>
       </c>
       <c r="O68">
@@ -21636,18 +22132,18 @@
         <v>400</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>498.58000000000004</v>
       </c>
       <c r="AF68">
         <v>2900</v>
       </c>
       <c r="AG68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.4863663457842372E-2</v>
       </c>
       <c r="AH68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>135.39834483648474</v>
       </c>
     </row>
@@ -21674,11 +22170,11 @@
         <v>0.45231900958299809</v>
       </c>
       <c r="H69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>741.47824817057415</v>
       </c>
       <c r="I69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>841.38768904586561</v>
       </c>
       <c r="J69">
@@ -21691,36 +22187,36 @@
         <v>784.12565445026178</v>
       </c>
       <c r="M69" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95.059526551735402</v>
       </c>
       <c r="N69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>324.69458758349668</v>
       </c>
       <c r="O69">
         <v>3</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69:R118" si="14">I69/I68</f>
+        <f t="shared" ref="R69:R118" si="15">I69/I68</f>
         <v>1.0212320637035373</v>
       </c>
       <c r="Z69">
         <v>600</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>674.58</v>
       </c>
       <c r="AF69">
         <v>3150</v>
       </c>
       <c r="AG69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5363090633144474E-2</v>
       </c>
       <c r="AH69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>127.57227933833896</v>
       </c>
     </row>
@@ -21747,11 +22243,11 @@
         <v>0.44339730131843347</v>
       </c>
       <c r="H70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>738.33608705281051</v>
       </c>
       <c r="I70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>870.92153728117842</v>
       </c>
       <c r="J70">
@@ -21764,32 +22260,32 @@
         <v>730.23385689354279</v>
       </c>
       <c r="M70" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>91.60846708624895</v>
       </c>
       <c r="N70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>314.57851516597231</v>
       </c>
       <c r="O70">
         <v>3</v>
       </c>
       <c r="R70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0351013553202855</v>
       </c>
       <c r="Z70">
         <v>700</v>
       </c>
       <c r="AA70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>762.58</v>
       </c>
       <c r="AF70">
         <v>3400</v>
       </c>
       <c r="AH70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>120.74665086249239</v>
       </c>
     </row>
@@ -21816,11 +22312,11 @@
         <v>0.44085038751760997</v>
       </c>
       <c r="H71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>772.73765258785841</v>
       </c>
       <c r="I71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>924.59763444748216</v>
       </c>
       <c r="J71">
@@ -21833,18 +22329,18 @@
         <v>699.24607329842934</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85.48988956186092</v>
       </c>
       <c r="N71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>297.50318393443894</v>
       </c>
       <c r="O71">
         <v>3</v>
       </c>
       <c r="R71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0616313810930298</v>
       </c>
       <c r="Z71">
@@ -21858,7 +22354,7 @@
         <v>3650</v>
       </c>
       <c r="AH71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>114.73318544333532</v>
       </c>
     </row>
@@ -21885,11 +22381,11 @@
         <v>0.43499425768226962</v>
       </c>
       <c r="H72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>775.01717311057678</v>
       </c>
       <c r="I72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>953.9644390049458</v>
       </c>
       <c r="J72">
@@ -21902,18 +22398,18 @@
         <v>662.86910994764401</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>84.343882813028699</v>
       </c>
       <c r="N72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>289.08689216088555</v>
       </c>
       <c r="O72">
         <v>3</v>
       </c>
       <c r="R72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0317617128395669</v>
       </c>
       <c r="Z72">
@@ -21927,7 +22423,7 @@
         <v>3900</v>
       </c>
       <c r="AH72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>109.38893568403599</v>
       </c>
     </row>
@@ -21954,11 +22450,11 @@
         <v>0.41203928778335275</v>
       </c>
       <c r="H73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>750.79171239532116</v>
       </c>
       <c r="I73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1019.3077588574163</v>
       </c>
       <c r="J73">
@@ -21971,11 +22467,11 @@
         <v>627.83944153577659</v>
       </c>
       <c r="M73" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>85.013947560395223</v>
       </c>
       <c r="N73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>272.45402133061651</v>
       </c>
       <c r="O73">
@@ -21989,21 +22485,21 @@
         <v>8.721203521819372E-2</v>
       </c>
       <c r="R73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0684965992240008</v>
       </c>
       <c r="Z73">
         <v>770</v>
       </c>
       <c r="AA73">
-        <f t="shared" ref="AA73:AA77" si="15">Z73*5.2366-2944.2</f>
+        <f t="shared" ref="AA73:AA77" si="16">Z73*5.2366-2944.2</f>
         <v>1087.9820000000004</v>
       </c>
       <c r="AF73">
         <v>4150</v>
       </c>
       <c r="AH73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>104.60327554819756</v>
       </c>
     </row>
@@ -22030,11 +22526,11 @@
         <v>0.40389725288566053</v>
       </c>
       <c r="H74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>759.96218798236021</v>
       </c>
       <c r="I74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1068.6526837133688</v>
       </c>
       <c r="J74">
@@ -22047,25 +22543,25 @@
         <v>582.03141361256542</v>
       </c>
       <c r="M74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80.317943182567944</v>
       </c>
       <c r="N74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>259.19421661364004</v>
       </c>
       <c r="O74">
         <v>3</v>
       </c>
       <c r="R74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0484102317746167</v>
       </c>
       <c r="Z74">
         <v>790</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1192.7139999999999</v>
       </c>
       <c r="AF74">
@@ -22099,11 +22595,11 @@
         <v>0.39515810025518161</v>
       </c>
       <c r="H75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>772.0487418376274</v>
       </c>
       <c r="I75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1127.647542209316</v>
       </c>
       <c r="J75">
@@ -22116,25 +22612,25 @@
         <v>575.29493891797551</v>
       </c>
       <c r="M75" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76.937240841358175</v>
       </c>
       <c r="N75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>251.80318231453924</v>
       </c>
       <c r="O75">
         <v>3</v>
       </c>
       <c r="R75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0552048943450467</v>
       </c>
       <c r="Z75">
         <v>810</v>
       </c>
       <c r="AA75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1297.4459999999999</v>
       </c>
     </row>
@@ -22161,11 +22657,11 @@
         <v>0.38662401924701933</v>
       </c>
       <c r="H76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>805.20095537715497</v>
       </c>
       <c r="I76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1220.7508369952498</v>
       </c>
       <c r="J76">
@@ -22178,25 +22674,25 @@
         <v>582.03141361256542</v>
       </c>
       <c r="M76" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>74.60456053258757</v>
       </c>
       <c r="N76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>237.99753737166054</v>
       </c>
       <c r="O76">
         <v>3</v>
       </c>
       <c r="R76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0825641801191916</v>
       </c>
       <c r="Z76">
         <v>830</v>
       </c>
       <c r="AA76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1402.1779999999999</v>
       </c>
     </row>
@@ -22223,11 +22719,11 @@
         <v>0.37749033507024726</v>
       </c>
       <c r="H77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>768.11808632222562</v>
       </c>
       <c r="I77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1212.2798920536648</v>
       </c>
       <c r="J77">
@@ -22240,25 +22736,25 @@
         <v>557.78010471204186</v>
       </c>
       <c r="M77" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77.817729764658935</v>
       </c>
       <c r="N77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>241.90301426370567</v>
       </c>
       <c r="O77">
         <v>3</v>
       </c>
       <c r="R77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.99306087312425251</v>
       </c>
       <c r="Z77">
         <v>850</v>
       </c>
       <c r="AA77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1506.9099999999999</v>
       </c>
     </row>
@@ -22285,11 +22781,11 @@
         <v>0.37026957791678833</v>
       </c>
       <c r="H78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>742.57728239480116</v>
       </c>
       <c r="I78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1210.0290808993454</v>
       </c>
       <c r="J78">
@@ -22302,18 +22798,18 @@
         <v>534.87609075043622</v>
       </c>
       <c r="M78" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77.577054602483571</v>
       </c>
       <c r="N78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245.89130749138127</v>
       </c>
       <c r="O78">
         <v>3</v>
       </c>
       <c r="R78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.99814332385691362</v>
       </c>
     </row>
@@ -22340,11 +22836,11 @@
         <v>0.37166665574638286</v>
       </c>
       <c r="H79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>767.96313725938353</v>
       </c>
       <c r="I79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1246.4432191781793</v>
       </c>
       <c r="J79">
@@ -22357,18 +22853,18 @@
         <v>529.48691099476434</v>
       </c>
       <c r="M79" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73.187992472744114</v>
       </c>
       <c r="N79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>239.56369822655537</v>
       </c>
       <c r="O79">
         <v>3</v>
       </c>
       <c r="R79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0300936058923222</v>
       </c>
     </row>
@@ -22395,11 +22891,11 @@
         <v>0.37352379583179562</v>
       </c>
       <c r="H80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>791.44161750135686</v>
       </c>
       <c r="I80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1276.8318697077077</v>
       </c>
       <c r="J80">
@@ -22412,18 +22908,18 @@
         <v>522.75043630017444</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>70.892598615956857</v>
       </c>
       <c r="N80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>235.00225760253079</v>
       </c>
       <c r="O80">
         <v>3</v>
       </c>
       <c r="R80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0243802927096548</v>
       </c>
     </row>
@@ -22450,11 +22946,11 @@
         <v>0.3748770742554815</v>
       </c>
       <c r="H81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>823.16458069990006</v>
       </c>
       <c r="I81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1323.000172756633</v>
       </c>
       <c r="J81">
@@ -22467,18 +22963,18 @@
         <v>514.66666666666663</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>67.838611749204802</v>
       </c>
       <c r="N81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230.72445653309805</v>
       </c>
       <c r="O81">
         <v>3</v>
       </c>
       <c r="R81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0361584826822141</v>
       </c>
     </row>
@@ -22505,11 +23001,11 @@
         <v>0.37582500912382227</v>
       </c>
       <c r="H82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>852.46276106914502</v>
       </c>
       <c r="I82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1367.3481931529361</v>
       </c>
       <c r="J82">
@@ -22522,18 +23018,18 @@
         <v>509.25</v>
       </c>
       <c r="M82" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65.415043407309852</v>
       </c>
       <c r="N82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>227.82894365140433</v>
       </c>
       <c r="O82">
         <v>3</v>
       </c>
       <c r="R82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0335207971317937</v>
       </c>
     </row>
@@ -22560,11 +23056,11 @@
         <v>0.37676950726530117</v>
       </c>
       <c r="H83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>836.39608840644996</v>
       </c>
       <c r="I83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1338.9097163601693</v>
       </c>
       <c r="J83">
@@ -22577,11 +23073,11 @@
         <v>508.75</v>
       </c>
       <c r="M83" s="8">
-        <f t="shared" ref="M83:M118" si="16">K83*1000*1000000/(3*H83*C83)</f>
+        <f t="shared" ref="M83:M118" si="17">K83*1000*1000000/(3*H83*C83)</f>
         <v>63.958422622544042</v>
       </c>
       <c r="N83">
-        <f t="shared" ref="N83:N118" si="17">J83*1000*1000000/(I83*C83)</f>
+        <f t="shared" ref="N83:N118" si="18">J83*1000*1000000/(I83*C83)</f>
         <v>233.88902814166585</v>
       </c>
       <c r="O83">
@@ -22595,7 +23091,7 @@
         <v>7.272012578616352E-2</v>
       </c>
       <c r="R83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.97920173008223221</v>
       </c>
     </row>
@@ -22622,11 +23118,11 @@
         <v>0.36894525645371901</v>
       </c>
       <c r="H84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>812.64999586011231</v>
       </c>
       <c r="I84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1347.7152037155663</v>
       </c>
       <c r="J84">
@@ -22639,18 +23135,18 @@
         <v>491</v>
       </c>
       <c r="M84" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>60.827486828509052</v>
       </c>
       <c r="N84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>229.75461804598504</v>
       </c>
       <c r="O84">
         <v>3</v>
       </c>
       <c r="R84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0065766102432467</v>
       </c>
     </row>
@@ -22677,11 +23173,11 @@
         <v>0.36147983797196703</v>
       </c>
       <c r="H85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>814.0390530598454</v>
       </c>
       <c r="I85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1396.704274431411</v>
       </c>
       <c r="J85">
@@ -22694,18 +23190,18 @@
         <v>487.75</v>
       </c>
       <c r="M85" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>57.829653378479328</v>
       </c>
       <c r="N85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>221.04028860865762</v>
       </c>
       <c r="O85">
         <v>3</v>
       </c>
       <c r="R85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0363497203124108</v>
       </c>
     </row>
@@ -22732,11 +23228,11 @@
         <v>0.35442190840635818</v>
       </c>
       <c r="H86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>830.44622407630209</v>
       </c>
       <c r="I86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1471.7696460128402</v>
       </c>
       <c r="J86">
@@ -22749,18 +23245,18 @@
         <v>488.75</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>54.748158124080369</v>
       </c>
       <c r="N86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>212.20983929901905</v>
       </c>
       <c r="O86">
         <v>3</v>
       </c>
       <c r="R86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0537446422665155</v>
       </c>
     </row>
@@ -22787,11 +23283,11 @@
         <v>0.34883101764417723</v>
       </c>
       <c r="H87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>831.72577943791055</v>
       </c>
       <c r="I87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1512.842170338138</v>
       </c>
       <c r="J87">
@@ -22804,18 +23300,18 @@
         <v>499.5</v>
       </c>
       <c r="M87" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>54.452454107007881</v>
       </c>
       <c r="N87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>213.07821132358885</v>
       </c>
       <c r="O87">
         <v>3</v>
       </c>
       <c r="R87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0279068972760561</v>
       </c>
       <c r="AC87">
@@ -22848,11 +23344,11 @@
         <v>0.34423050630211266</v>
       </c>
       <c r="H88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>855.21463429566609</v>
       </c>
       <c r="I88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1589.5794367169544</v>
       </c>
       <c r="J88">
@@ -22865,18 +23361,18 @@
         <v>502.5</v>
       </c>
       <c r="M88" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>52.459577289744786</v>
       </c>
       <c r="N88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>205.90212665483708</v>
       </c>
       <c r="O88">
         <v>3</v>
       </c>
       <c r="R88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0507239075452695</v>
       </c>
       <c r="AC88">
@@ -22909,11 +23405,11 @@
         <v>0.33736563914695011</v>
       </c>
       <c r="H89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>859.83044722035925</v>
       </c>
       <c r="I89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1647.2594148517476</v>
       </c>
       <c r="J89">
@@ -22926,18 +23422,18 @@
         <v>498</v>
       </c>
       <c r="M89" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>50.972722379701089</v>
       </c>
       <c r="N89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200.92804316022924</v>
       </c>
       <c r="O89">
         <v>3</v>
       </c>
       <c r="R89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.036286313727059</v>
       </c>
       <c r="AC89">
@@ -22970,11 +23466,11 @@
         <v>0.33062090691925389</v>
       </c>
       <c r="H90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>885.15406845670429</v>
       </c>
       <c r="I90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1747.4116627311666</v>
       </c>
       <c r="J90">
@@ -22987,18 +23483,18 @@
         <v>505.5</v>
       </c>
       <c r="M90" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>49.638398524918436</v>
       </c>
       <c r="N90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>194.70586412812895</v>
       </c>
       <c r="O90">
         <v>3</v>
       </c>
       <c r="R90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0607993173245471</v>
       </c>
       <c r="AC90">
@@ -23031,11 +23527,11 @@
         <v>0.32390834453326911</v>
       </c>
       <c r="H91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>914.77960684451989</v>
       </c>
       <c r="I91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1861.1441482072166</v>
       </c>
       <c r="J91">
@@ -23048,18 +23544,18 @@
         <v>512</v>
       </c>
       <c r="M91" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>48.83708173616089</v>
       </c>
       <c r="N91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>190.29376536839976</v>
       </c>
       <c r="O91">
         <v>3</v>
       </c>
       <c r="R91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.065086257521189</v>
       </c>
       <c r="AC91">
@@ -23092,11 +23588,11 @@
         <v>0.31759757679781558</v>
       </c>
       <c r="H92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>918.09798388099932</v>
       </c>
       <c r="I92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1921.9658657673172</v>
       </c>
       <c r="J92">
@@ -23109,18 +23605,18 @@
         <v>517.75</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>49.215920675317818</v>
       </c>
       <c r="N92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>190.06795485527579</v>
       </c>
       <c r="O92">
         <v>3</v>
       </c>
       <c r="R92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0326797457460177</v>
       </c>
       <c r="AC92">
@@ -23153,11 +23649,11 @@
         <v>0.30489256254883113</v>
       </c>
       <c r="H93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>886.3835962121932</v>
       </c>
       <c r="I93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1971.9499394729826</v>
       </c>
       <c r="J93">
@@ -23170,18 +23666,18 @@
         <v>510.75</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>49.798579071838503</v>
       </c>
       <c r="N93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>187.38236293554181</v>
       </c>
       <c r="O93">
         <v>3</v>
       </c>
       <c r="R93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0260067437179536</v>
       </c>
       <c r="AC93">
@@ -23214,11 +23710,11 @@
         <v>0.28668177228786923</v>
       </c>
       <c r="H94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>824.83443188702881</v>
       </c>
       <c r="I94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2006.4161523071539</v>
       </c>
       <c r="J94">
@@ -23231,11 +23727,11 @@
         <v>495.5</v>
       </c>
       <c r="M94" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>49.367785277945003</v>
       </c>
       <c r="N94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>181.20390425061871</v>
       </c>
       <c r="O94">
@@ -23249,7 +23745,7 @@
         <v>7.3636498736810815E-2</v>
       </c>
       <c r="R94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0174782392515413</v>
       </c>
       <c r="AC94">
@@ -23282,11 +23778,11 @@
         <v>0.27650408288290934</v>
       </c>
       <c r="H95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>797.58760064097737</v>
       </c>
       <c r="I95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2040.0399416275204</v>
       </c>
       <c r="J95">
@@ -23299,11 +23795,11 @@
         <v>492</v>
       </c>
       <c r="M95" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>47.842233309301342</v>
       </c>
       <c r="N95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>176.02283264313098</v>
       </c>
       <c r="O95">
@@ -23317,7 +23813,7 @@
         <v>7.258778400708174E-2</v>
       </c>
       <c r="R95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0167581332923894</v>
       </c>
       <c r="AC95">
@@ -23350,11 +23846,11 @@
         <v>0.27035307293596184</v>
       </c>
       <c r="H96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>798.58953244221141</v>
       </c>
       <c r="I96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2105.7971901647302</v>
       </c>
       <c r="J96">
@@ -23367,11 +23863,11 @@
         <v>501.75</v>
       </c>
       <c r="M96" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>45.88330778913992</v>
       </c>
       <c r="N96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>170.51217104789907</v>
       </c>
       <c r="O96">
@@ -23385,7 +23881,7 @@
         <v>7.3473422170156691E-2</v>
       </c>
       <c r="R96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0322333142579303</v>
       </c>
     </row>
@@ -23412,11 +23908,11 @@
         <v>0.27478268797683902</v>
       </c>
       <c r="H97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>838.58965549116431</v>
       </c>
       <c r="I97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2163.2827737643352</v>
       </c>
       <c r="J97">
@@ -23429,11 +23925,11 @@
         <v>483</v>
       </c>
       <c r="M97" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43.757968891359539</v>
       </c>
       <c r="N97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>167.1937188898109</v>
       </c>
       <c r="O97">
@@ -23447,7 +23943,7 @@
         <v>7.2089552238805976E-2</v>
       </c>
       <c r="R97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0272987274691481</v>
       </c>
     </row>
@@ -23474,11 +23970,11 @@
         <v>0.27692145133003487</v>
       </c>
       <c r="H98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>861.0378294614718</v>
       </c>
       <c r="I98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2194.9637493109667</v>
       </c>
       <c r="J98">
@@ -23491,11 +23987,11 @@
         <v>468.25</v>
       </c>
       <c r="M98" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.756238283144121</v>
       </c>
       <c r="N98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>166.27374242481727</v>
       </c>
       <c r="O98">
@@ -23505,11 +24001,11 @@
         <v>6626</v>
       </c>
       <c r="Q98">
-        <f t="shared" ref="Q98:Q118" si="18">L98/P98</f>
+        <f t="shared" ref="Q98:Q118" si="19">L98/P98</f>
         <v>7.0668578327799575E-2</v>
       </c>
       <c r="R98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0146448610097807</v>
       </c>
     </row>
@@ -23536,11 +24032,11 @@
         <v>0.27496217154106811</v>
       </c>
       <c r="H99">
-        <f t="shared" ref="H99:H130" si="19">G99*D99/C99*0.07*2.393758</f>
+        <f t="shared" ref="H99:H118" si="20">G99*D99/C99*0.07*2.393758</f>
         <v>872.96232418180239</v>
       </c>
       <c r="I99">
-        <f t="shared" ref="I99:I118" si="20">F99*D99/C99*0.07*2.393758</f>
+        <f t="shared" ref="I99:I118" si="21">F99*D99/C99*0.07*2.393758</f>
         <v>2251.9094127393901</v>
       </c>
       <c r="J99">
@@ -23553,11 +24049,11 @@
         <v>476.75</v>
       </c>
       <c r="M99" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.198954245410562</v>
       </c>
       <c r="N99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>163.42063427323095</v>
       </c>
       <c r="O99">
@@ -23567,11 +24063,11 @@
         <v>6663</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.1551853519435688E-2</v>
       </c>
       <c r="R99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0259437831017937</v>
       </c>
     </row>
@@ -23598,11 +24094,11 @@
         <v>0.26981540008449911</v>
       </c>
       <c r="H100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>879.12326587814073</v>
       </c>
       <c r="I100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2343.0405571537422</v>
       </c>
       <c r="J100">
@@ -23615,11 +24111,11 @@
         <v>490</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.998723236513641</v>
       </c>
       <c r="N100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>159.8921291113102</v>
       </c>
       <c r="O100">
@@ -23629,11 +24125,11 @@
         <v>6731</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.2797504085574213E-2</v>
       </c>
       <c r="R100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0404683882481283</v>
       </c>
     </row>
@@ -23660,11 +24156,11 @@
         <v>0.25974083390675146</v>
       </c>
       <c r="H101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>872.19547518979414</v>
       </c>
       <c r="I101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2451.9965345645833</v>
       </c>
       <c r="J101">
@@ -23677,11 +24173,11 @@
         <v>458</v>
       </c>
       <c r="M101" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.617937548996352</v>
       </c>
       <c r="N101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>154.02903621125378</v>
       </c>
       <c r="O101">
@@ -23691,11 +24187,11 @@
         <v>6619</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.9194742408218768E-2</v>
       </c>
       <c r="R101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0465019596345349</v>
       </c>
     </row>
@@ -23722,11 +24218,11 @@
         <v>0.2487098343362793</v>
       </c>
       <c r="H102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>860.62675663490938</v>
       </c>
       <c r="I102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2567.1204648564494</v>
       </c>
       <c r="J102">
@@ -23739,11 +24235,11 @@
         <v>420.75</v>
       </c>
       <c r="M102" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.007073525299489</v>
       </c>
       <c r="N102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>150.54930829351201</v>
       </c>
       <c r="O102">
@@ -23753,11 +24249,11 @@
         <v>6540</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.4334862385321101E-2</v>
       </c>
       <c r="R102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0469510982862418</v>
       </c>
     </row>
@@ -23784,11 +24280,11 @@
         <v>0.25343317367965584</v>
       </c>
       <c r="H103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>907.1694715693551</v>
       </c>
       <c r="I103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2641.2567176457055</v>
       </c>
       <c r="J103">
@@ -23801,11 +24297,11 @@
         <v>391.25</v>
       </c>
       <c r="M103" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.993178129778009</v>
       </c>
       <c r="N103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>149.21100535897489</v>
       </c>
       <c r="O103">
@@ -23815,11 +24311,11 @@
         <v>6495</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.0238645111624328E-2</v>
       </c>
       <c r="R103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0288791483703907</v>
       </c>
     </row>
@@ -23846,11 +24342,11 @@
         <v>0.23959951151215605</v>
       </c>
       <c r="H104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>875.35541369484963</v>
       </c>
       <c r="I104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2747.8295346768573</v>
       </c>
       <c r="J104">
@@ -23863,11 +24359,11 @@
         <v>363.25</v>
       </c>
       <c r="M104" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.530492304298591</v>
       </c>
       <c r="N104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>145.90994112918938</v>
       </c>
       <c r="O104">
@@ -23877,11 +24373,11 @@
         <v>6504</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.5850246002460024E-2</v>
       </c>
       <c r="R104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0403492838538413</v>
       </c>
     </row>
@@ -23908,11 +24404,11 @@
         <v>0.23601633226000729</v>
       </c>
       <c r="H105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>876.78449594416827</v>
       </c>
       <c r="I105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2808.3141915683564</v>
       </c>
       <c r="J105">
@@ -23925,11 +24421,11 @@
         <v>355.25</v>
       </c>
       <c r="M105" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.081332012541402</v>
       </c>
       <c r="N105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>144.73596171419283</v>
       </c>
       <c r="O105">
@@ -23939,11 +24435,11 @@
         <v>6460</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.4992260061919505E-2</v>
       </c>
       <c r="R105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0220117937187148</v>
       </c>
     </row>
@@ -23970,11 +24466,11 @@
         <v>0.22621614780615334</v>
       </c>
       <c r="H106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>866.2085205444854</v>
       </c>
       <c r="I106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2930.5049742743131</v>
       </c>
       <c r="J106">
@@ -23987,11 +24483,11 @@
         <v>356.5</v>
       </c>
       <c r="M106" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.432256411761671</v>
       </c>
       <c r="N106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>140.74290991869924</v>
       </c>
       <c r="O106">
@@ -24001,11 +24497,11 @@
         <v>6395</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.5746677091477716E-2</v>
       </c>
       <c r="R106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0435103675624404</v>
       </c>
     </row>
@@ -24032,11 +24528,11 @@
         <v>0.21789724013086931</v>
       </c>
       <c r="H107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>849.31449027770225</v>
       </c>
       <c r="I107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3015.0823935489293</v>
       </c>
       <c r="J107">
@@ -24049,11 +24545,11 @@
         <v>365</v>
       </c>
       <c r="M107" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.288044680167083</v>
       </c>
       <c r="N107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>138.37087666874564</v>
       </c>
       <c r="O107">
@@ -24063,11 +24559,11 @@
         <v>6423</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.6827027868597231E-2</v>
       </c>
       <c r="R107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.028861039314755</v>
       </c>
     </row>
@@ -24094,11 +24590,11 @@
         <v>0.22027767331632067</v>
       </c>
       <c r="H108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>880.10298589198328</v>
       </c>
       <c r="I108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3089.8469470079203</v>
       </c>
       <c r="J108">
@@ -24111,11 +24607,11 @@
         <v>389</v>
       </c>
       <c r="M108" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>35.31761761425939</v>
       </c>
       <c r="N108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>136.39346006775583</v>
       </c>
       <c r="O108">
@@ -24125,11 +24621,11 @@
         <v>6313</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.1618881672738796E-2</v>
       </c>
       <c r="R108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0247968525234856</v>
       </c>
     </row>
@@ -24156,11 +24652,11 @@
         <v>0.22051451454047905</v>
       </c>
       <c r="H109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>896.81104546988206</v>
       </c>
       <c r="I109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3144.8888014692766</v>
       </c>
       <c r="J109">
@@ -24173,11 +24669,11 @@
         <v>379.5</v>
       </c>
       <c r="M109" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34.289407507114475</v>
       </c>
       <c r="N109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>135.35425344193479</v>
       </c>
       <c r="O109">
@@ -24187,11 +24683,11 @@
         <v>6197</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.1239309343230595E-2</v>
       </c>
       <c r="R109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0178137802309777</v>
       </c>
     </row>
@@ -24218,11 +24714,11 @@
         <v>0.21541748987830744</v>
       </c>
       <c r="H110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>891.06260238383118</v>
       </c>
       <c r="I110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3219.3880338320732</v>
       </c>
       <c r="J110">
@@ -24235,11 +24731,11 @@
         <v>376.5</v>
       </c>
       <c r="M110" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34.238270736271133</v>
       </c>
       <c r="N110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>132.47432494420158</v>
       </c>
       <c r="O110">
@@ -24249,11 +24745,11 @@
         <v>6215</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.0579243765084473E-2</v>
       </c>
       <c r="R110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0236889877721562</v>
       </c>
     </row>
@@ -24280,11 +24776,11 @@
         <v>0.21144015269000152</v>
       </c>
       <c r="H111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>863.85303224127301</v>
       </c>
       <c r="I111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3193.2304122476494</v>
       </c>
       <c r="J111">
@@ -24297,11 +24793,11 @@
         <v>391.25</v>
       </c>
       <c r="M111" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>34.243522368257665</v>
       </c>
       <c r="N111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>133.6810210154224</v>
       </c>
       <c r="O111">
@@ -24311,11 +24807,11 @@
         <v>6070</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.4456342668863256E-2</v>
       </c>
       <c r="R111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.99187497086106513</v>
       </c>
     </row>
@@ -24342,11 +24838,11 @@
         <v>0.19939677144669946</v>
       </c>
       <c r="H112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>771.93549780688841</v>
       </c>
       <c r="I112">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3076.0682355316512</v>
       </c>
       <c r="J112">
@@ -24359,11 +24855,11 @@
         <v>388</v>
       </c>
       <c r="M112" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>36.247297891118549</v>
       </c>
       <c r="N112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>136.11817910311947</v>
       </c>
       <c r="O112">
@@ -24373,11 +24869,11 @@
         <v>6092</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.3690085357846357E-2</v>
       </c>
       <c r="R112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9633092005304027</v>
       </c>
     </row>
@@ -24404,11 +24900,11 @@
         <v>0.20112608552736219</v>
       </c>
       <c r="H113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>787.8337168516606</v>
       </c>
       <c r="I113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3100.6706135150539</v>
       </c>
       <c r="J113">
@@ -24421,11 +24917,11 @@
         <v>416</v>
       </c>
       <c r="M113" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33.775591679404542</v>
       </c>
       <c r="N113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>134.11740195188395</v>
       </c>
       <c r="O113">
@@ -24435,11 +24931,11 @@
         <v>6015</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.9160432252701576E-2</v>
       </c>
       <c r="R113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.007997994875153</v>
       </c>
     </row>
@@ -24466,11 +24962,11 @@
         <v>0.20306664600657678</v>
       </c>
       <c r="H114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>800.43255660833972</v>
       </c>
       <c r="I114">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3114.5308863356549</v>
       </c>
       <c r="J114">
@@ -24483,11 +24979,11 @@
         <v>418.75</v>
       </c>
       <c r="M114" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32.969452963719966</v>
       </c>
       <c r="N114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>133.25741200466922</v>
       </c>
       <c r="O114">
@@ -24497,11 +24993,11 @@
         <v>6106</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.8580085162135609E-2</v>
       </c>
       <c r="R114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0044700887479592</v>
       </c>
     </row>
@@ -24528,11 +25024,11 @@
         <v>0.20146953414604138</v>
       </c>
       <c r="H115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>797.75766969285075</v>
       </c>
       <c r="I115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3135.5315921999581</v>
       </c>
       <c r="J115">
@@ -24545,11 +25041,11 @@
         <v>409</v>
       </c>
       <c r="M115" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33.065302429183603</v>
       </c>
       <c r="N115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>133.2371943328109</v>
       </c>
       <c r="O115">
@@ -24559,11 +25055,11 @@
         <v>6258</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.5356343879833814E-2</v>
       </c>
       <c r="R115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0067428150918134</v>
       </c>
     </row>
@@ -24590,11 +25086,11 @@
         <v>0.20502232279528962</v>
       </c>
       <c r="H116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>818.83230317692937</v>
       </c>
       <c r="I116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3146.4821067844114</v>
       </c>
       <c r="J116">
@@ -24607,11 +25103,11 @@
         <v>373.25</v>
       </c>
       <c r="M116" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31.879606851548917</v>
       </c>
       <c r="N116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>133.96645258609078</v>
       </c>
       <c r="O116">
@@ -24621,11 +25117,11 @@
         <v>6310</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.9152139461172738E-2</v>
       </c>
       <c r="R116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0034923949137347</v>
       </c>
     </row>
@@ -24652,11 +25148,11 @@
         <v>0.2014910027606146</v>
       </c>
       <c r="H117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>825.91385878704614</v>
       </c>
       <c r="I117">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3245.342777873178</v>
       </c>
       <c r="J117">
@@ -24669,11 +25165,11 @@
         <v>419.25</v>
       </c>
       <c r="M117" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32.08134739642604</v>
       </c>
       <c r="N117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>133.03370082445224</v>
       </c>
       <c r="O117">
@@ -24683,11 +25179,11 @@
         <v>6278</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.6780821917808222E-2</v>
       </c>
       <c r="R117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0314194289793048</v>
       </c>
     </row>
@@ -24714,11 +25210,11 @@
         <v>0.19365357610149103</v>
       </c>
       <c r="H118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>806.73181186238583</v>
       </c>
       <c r="I118">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3324.9694522700415</v>
       </c>
       <c r="J118">
@@ -24731,11 +25227,11 @@
         <v>385.5</v>
       </c>
       <c r="M118" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32.94380899110557</v>
       </c>
       <c r="N118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>131.11188712059382</v>
       </c>
       <c r="O118">
@@ -24745,11 +25241,11 @@
         <v>6059</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.3624360455520709E-2</v>
       </c>
       <c r="R118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0245356746103247</v>
       </c>
     </row>
@@ -24801,7 +25297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8882FE-1DFF-4002-B6AF-D8A07619D216}">
   <dimension ref="C1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F96" workbookViewId="0">
+    <sheetView topLeftCell="F109" workbookViewId="0">
       <selection activeCell="T2" sqref="T2:T117"/>
     </sheetView>
   </sheetViews>
@@ -24862,7 +25358,7 @@
         <v>128726.5768363213</v>
       </c>
       <c r="F2">
-        <f>E2/C2</f>
+        <f t="shared" ref="F2:F33" si="0">E2/C2</f>
         <v>0.64928022503534766</v>
       </c>
       <c r="H2">
@@ -24893,7 +25389,7 @@
         <v>171557.27763968764</v>
       </c>
       <c r="Q2">
-        <f>P2/C2</f>
+        <f t="shared" ref="Q2:Q33" si="1">P2/C2</f>
         <v>0.86531274714141804</v>
       </c>
       <c r="S2" s="1">
@@ -24916,7 +25412,7 @@
         <v>131242.91798400748</v>
       </c>
       <c r="F3">
-        <f>E3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.65932689015163193</v>
       </c>
       <c r="H3">
@@ -24932,30 +25428,30 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L66" si="0">I3*C3</f>
+        <f t="shared" ref="L3:L66" si="2">I3*C3</f>
         <v>14252.403577069055</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M66" si="1">J3*C3</f>
+        <f t="shared" ref="M3:M66" si="3">J3*C3</f>
         <v>108803.9636204741</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="2">K3*C3</f>
+        <f t="shared" ref="N3:N66" si="4">K3*C3</f>
         <v>75900.020725369133</v>
       </c>
       <c r="P3">
         <v>176650.23695389496</v>
       </c>
       <c r="Q3">
-        <f>P3/C3</f>
+        <f t="shared" si="1"/>
         <v>0.88744027612638776</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S66" si="3">P3-M3-L3</f>
+        <f t="shared" ref="S3:S66" si="5">P3-M3-L3</f>
         <v>53593.869756351807</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="4">S3/N3</f>
+        <f t="shared" ref="T3:T66" si="6">S3/N3</f>
         <v>0.70611139818092794</v>
       </c>
     </row>
@@ -24967,7 +25463,7 @@
         <v>131950.63893179424</v>
       </c>
       <c r="F4">
-        <f>E4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.66002973432663847</v>
       </c>
       <c r="H4">
@@ -24983,30 +25479,30 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14314.000197513773</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109274.19703856185</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76228.048537877112</v>
       </c>
       <c r="P4">
         <v>176461.60883114653</v>
       </c>
       <c r="Q4">
-        <f>P4/C4</f>
+        <f t="shared" si="1"/>
         <v>0.88267786907706125</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52873.411595070909</v>
       </c>
       <c r="T4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.69362147672977004</v>
       </c>
     </row>
@@ -25018,7 +25514,7 @@
         <v>132501.0885578506</v>
       </c>
       <c r="F5">
-        <f>E5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.67257132950528331</v>
       </c>
       <c r="H5">
@@ -25034,30 +25530,30 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14105.68295814872</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107683.8869402806</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75118.671954498699</v>
       </c>
       <c r="P5">
         <v>175046.89791053339</v>
       </c>
       <c r="Q5">
-        <f>P5/C5</f>
+        <f t="shared" si="1"/>
         <v>0.88853251044847759</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53257.328012104066</v>
       </c>
       <c r="T5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.70897589941903383</v>
       </c>
     </row>
@@ -25069,7 +25565,7 @@
         <v>134388.34441861525</v>
       </c>
       <c r="F6">
-        <f>E6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.67806275951432182</v>
       </c>
       <c r="H6">
@@ -25085,30 +25581,30 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14190.729877666456</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108333.14177559337</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75571.582435114789</v>
       </c>
       <c r="P6">
         <v>176744.55101526919</v>
       </c>
       <c r="Q6">
-        <f>P6/C6</f>
+        <f t="shared" si="1"/>
         <v>0.8917730068704729</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54220.679362009367</v>
       </c>
       <c r="T6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7174744476015551</v>
       </c>
     </row>
@@ -25120,7 +25616,7 @@
         <v>135174.70102726718</v>
       </c>
       <c r="F7">
-        <f>E7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.65873543021120406</v>
       </c>
       <c r="H7">
@@ -25136,30 +25632,30 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14692.55811919696</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112164.13782057344</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78244.028084494421</v>
       </c>
       <c r="P7">
         <v>177593.3775676371</v>
       </c>
       <c r="Q7">
-        <f>P7/C7</f>
+        <f t="shared" si="1"/>
         <v>0.86545077655529512</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50736.681627866703</v>
       </c>
       <c r="T7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.64844158551087128</v>
       </c>
     </row>
@@ -25171,7 +25667,7 @@
         <v>137533.77085322296</v>
       </c>
       <c r="F8">
-        <f>E8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.64332728859643928</v>
       </c>
       <c r="H8">
@@ -25187,30 +25683,30 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15307.011170900403</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116854.92047505811</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81516.248037211219</v>
       </c>
       <c r="P8">
         <v>180234.17128611499</v>
       </c>
       <c r="Q8">
-        <f>P8/C8</f>
+        <f t="shared" si="1"/>
         <v>0.84306247117782274</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48072.239640156469</v>
       </c>
       <c r="T8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.58972586199271648</v>
       </c>
     </row>
@@ -25222,7 +25718,7 @@
         <v>139342.39105312241</v>
       </c>
       <c r="F9">
-        <f>E9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.63593218544321994</v>
       </c>
       <c r="H9">
@@ -25238,30 +25734,30 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15688.646411959859</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119768.35375387233</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83548.615598886783</v>
       </c>
       <c r="P9">
         <v>182120.45251359919</v>
       </c>
       <c r="Q9">
-        <f>P9/C9</f>
+        <f t="shared" si="1"/>
         <v>0.83116312635060141</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46663.452347766994</v>
       </c>
       <c r="T9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.55851855848571053</v>
       </c>
     </row>
@@ -25273,7 +25769,7 @@
         <v>138870.57708793125</v>
       </c>
       <c r="F10">
-        <f>E10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.66398106337598628</v>
       </c>
       <c r="H10">
@@ -25289,30 +25785,30 @@
         <v>0.38679749740647301</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14956.708887063032</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113181.29284925753</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80898.07773717778</v>
       </c>
       <c r="P10">
         <v>181931.82439085079</v>
       </c>
       <c r="Q10">
-        <f>P10/C10</f>
+        <f t="shared" si="1"/>
         <v>0.86986954871283917</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53793.822654530224</v>
       </c>
       <c r="T10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66495798366551995</v>
       </c>
     </row>
@@ -25324,7 +25820,7 @@
         <v>139499.66237485281</v>
       </c>
       <c r="F11">
-        <f>E11/C11</f>
+        <f t="shared" si="0"/>
         <v>0.65516883342633192</v>
       </c>
       <c r="H11">
@@ -25340,30 +25836,30 @@
         <v>0.39229499481294611</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15207.899757984313</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114063.4504065385</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83528.117541177227</v>
       </c>
       <c r="P11">
         <v>183346.53531146393</v>
       </c>
       <c r="Q11">
-        <f>P11/C11</f>
+        <f t="shared" si="1"/>
         <v>0.86109839699816948</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54075.185146941119</v>
       </c>
       <c r="T11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.64738900790244003</v>
       </c>
     </row>
@@ -25375,7 +25871,7 @@
         <v>141780.09653994342</v>
       </c>
       <c r="F12">
-        <f>E12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.64336274431474172</v>
       </c>
       <c r="H12">
@@ -25391,30 +25887,30 @@
         <v>0.39779249221941915</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15720.843393237221</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116855.05660845553</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87662.921809073174</v>
       </c>
       <c r="P12">
         <v>186647.52745956127</v>
       </c>
       <c r="Q12">
-        <f>P12/C12</f>
+        <f t="shared" si="1"/>
         <v>0.84695996417320796</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54071.627457868519</v>
       </c>
       <c r="T12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.61681297339865837</v>
       </c>
     </row>
@@ -25426,7 +25922,7 @@
         <v>146026.42222666385</v>
       </c>
       <c r="F13">
-        <f>E13/C13</f>
+        <f t="shared" si="0"/>
         <v>0.63742968562928182</v>
       </c>
       <c r="H13">
@@ -25442,30 +25938,30 @@
         <v>0.40328998962589219</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16322.330020359021</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120227.28895438969</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92388.220430554924</v>
       </c>
       <c r="P13">
         <v>192212.05708063964</v>
       </c>
       <c r="Q13">
-        <f>P13/C13</f>
+        <f t="shared" si="1"/>
         <v>0.83903768407672263</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55662.438105890935</v>
       </c>
       <c r="T13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.60248414620920743</v>
       </c>
     </row>
@@ -25477,7 +25973,7 @@
         <v>146970.05015704618</v>
       </c>
       <c r="F14">
-        <f>E14/C14</f>
+        <f t="shared" si="0"/>
         <v>0.63260621719409094</v>
       </c>
       <c r="H14">
@@ -25493,30 +25989,30 @@
         <v>0.40878748703236528</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16532.717249516056</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120661.36657724531</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94971.430630575822</v>
       </c>
       <c r="P14">
         <v>193626.76800125279</v>
       </c>
       <c r="Q14">
-        <f>P14/C14</f>
+        <f t="shared" si="1"/>
         <v>0.83343168980280757</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56432.68417449142</v>
       </c>
       <c r="T14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.59420695044603289</v>
       </c>
     </row>
@@ -25528,7 +26024,7 @@
         <v>152317.27509587933</v>
       </c>
       <c r="F15">
-        <f>E15/C15</f>
+        <f t="shared" si="0"/>
         <v>0.62522604244895141</v>
       </c>
       <c r="H15">
@@ -25544,30 +26040,30 @@
         <v>0.41428498443883832</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17315.145813781553</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>125200.52283392778</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100927.91352019674</v>
       </c>
       <c r="P15">
         <v>200417.3804201959</v>
       </c>
       <c r="Q15">
-        <f>P15/C15</f>
+        <f t="shared" si="1"/>
         <v>0.82266548898822167</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57901.711772486567</v>
       </c>
       <c r="T15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.57369373598414697</v>
       </c>
     </row>
@@ -25579,7 +26075,7 @@
         <v>153004.93773739572</v>
       </c>
       <c r="F16">
-        <f>E16/C16</f>
+        <f t="shared" si="0"/>
         <v>0.62859158753282629</v>
       </c>
       <c r="H16">
@@ -25595,30 +26091,30 @@
         <v>0.41978248184531142</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17278.875379931909</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>123766.55971493082</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>102178.89289623553</v>
       </c>
       <c r="P16">
         <v>209429.50585554453</v>
       </c>
       <c r="Q16">
-        <f>P16/C16</f>
+        <f t="shared" si="1"/>
         <v>0.86040115769268244</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68384.070760681803</v>
       </c>
       <c r="T16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66925828634811135</v>
       </c>
     </row>
@@ -25630,7 +26126,7 @@
         <v>156314.31419969333</v>
       </c>
       <c r="F17">
-        <f>E17/C17</f>
+        <f t="shared" si="0"/>
         <v>0.61123733098296018</v>
       </c>
       <c r="H17">
@@ -25646,30 +26142,30 @@
         <v>0.42527997925178446</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18131.400373823293</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>128640.54537520299</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>108758.65221238545</v>
       </c>
       <c r="P17">
         <v>267649.88437822281</v>
       </c>
       <c r="Q17">
-        <f>P17/C17</f>
+        <f t="shared" si="1"/>
         <v>1.0465938567612239</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120877.93862919652</v>
       </c>
       <c r="T17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1114328485162206</v>
       </c>
     </row>
@@ -25681,7 +26177,7 @@
         <v>143334.68184107155</v>
       </c>
       <c r="F18">
-        <f>E18/C18</f>
+        <f t="shared" si="0"/>
         <v>0.55452161147457291</v>
       </c>
       <c r="H18">
@@ -25697,30 +26193,30 @@
         <v>0.4307774766582575</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18303.683403983272</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>128615.53667016221</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>111348.86591149973</v>
       </c>
       <c r="P18">
         <v>263451.05320948083</v>
       </c>
       <c r="Q18">
-        <f>P18/C18</f>
+        <f t="shared" si="1"/>
         <v>1.0192181033504333</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>116531.83313533533</v>
       </c>
       <c r="T18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0465471038380851</v>
       </c>
     </row>
@@ -25732,7 +26228,7 @@
         <v>132117.18500133551</v>
       </c>
       <c r="F19">
-        <f>E19/C19</f>
+        <f t="shared" si="0"/>
         <v>0.50772375544630111</v>
       </c>
       <c r="H19">
@@ -25748,30 +26244,30 @@
         <v>0.43627497406473059</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18403.48471685671</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>128059.56885445889</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>113525.16174725066</v>
       </c>
       <c r="P19">
         <v>258791.37471734034</v>
       </c>
       <c r="Q19">
-        <f>P19/C19</f>
+        <f t="shared" si="1"/>
         <v>0.99453018657088976</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112328.32114602474</v>
       </c>
       <c r="T19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.98945748605150163</v>
       </c>
     </row>
@@ -25783,7 +26279,7 @@
         <v>130870.79646358706</v>
       </c>
       <c r="F20">
-        <f>E20/C20</f>
+        <f t="shared" si="0"/>
         <v>0.51406478484917795</v>
       </c>
       <c r="H20">
@@ -25799,30 +26295,30 @@
         <v>0.44177247147120363</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17982.704752967435</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>123900.04840535471</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>112466.59351327897</v>
       </c>
       <c r="P20">
         <v>252697.94899684895</v>
       </c>
       <c r="Q20">
-        <f>P20/C20</f>
+        <f t="shared" si="1"/>
         <v>0.99260583944743852</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>110815.19583852681</v>
       </c>
       <c r="T20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.98531654935776836</v>
       </c>
     </row>
@@ -25834,7 +26330,7 @@
         <v>149781.51910528765</v>
       </c>
       <c r="F21">
-        <f>E21/C21</f>
+        <f t="shared" si="0"/>
         <v>0.63336978943763123</v>
       </c>
       <c r="H21">
@@ -25850,30 +26346,30 @@
         <v>0.44726996887767667</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16683.694448212485</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113804.50268831308</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>105771.9779280221</v>
       </c>
       <c r="P21">
         <v>220950.68894050721</v>
       </c>
       <c r="Q21">
-        <f>P21/C21</f>
+        <f t="shared" si="1"/>
         <v>0.93431747899403084</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90462.491803981655</v>
       </c>
       <c r="T21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.85525952691875951</v>
       </c>
     </row>
@@ -25885,7 +26381,7 @@
         <v>150125.35042604583</v>
       </c>
       <c r="F22">
-        <f>E22/C22</f>
+        <f t="shared" si="0"/>
         <v>0.65708455457868098</v>
       </c>
       <c r="H22">
@@ -25901,30 +26397,30 @@
         <v>0.45276746628414977</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16098.472324299277</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108704.53589279314</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>103444.63899475474</v>
       </c>
       <c r="P22">
         <v>203182.46436058692</v>
       </c>
       <c r="Q22">
-        <f>P22/C22</f>
+        <f t="shared" si="1"/>
         <v>0.88931055756864463</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78379.456143494506</v>
       </c>
       <c r="T22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.75769471386012388</v>
       </c>
     </row>
@@ -25936,7 +26432,7 @@
         <v>137779.3647138458</v>
       </c>
       <c r="F23">
-        <f>E23/C23</f>
+        <f t="shared" si="0"/>
         <v>0.67095349361904022</v>
       </c>
       <c r="H23">
@@ -25952,30 +26448,30 @@
         <v>0.40112943385058869</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16704.683453253878</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106032.64589824017</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82371.370131562246</v>
       </c>
       <c r="P23">
         <v>188700.65880503136</v>
       </c>
       <c r="Q23">
-        <f>P23/C23</f>
+        <f t="shared" si="1"/>
         <v>0.91892836446448634</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65963.329453537313</v>
       </c>
       <c r="T23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.80080408214870935</v>
       </c>
     </row>
@@ -25987,7 +26483,7 @@
         <v>143929.40964111275</v>
       </c>
       <c r="F24">
-        <f>E24/C24</f>
+        <f t="shared" si="0"/>
         <v>0.67337965176063019</v>
       </c>
       <c r="H24">
@@ -26003,30 +26499,30 @@
         <v>0.40259059114668827</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12707.873252385252</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114630.20362355676</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86050.45602329445</v>
       </c>
       <c r="P24">
         <v>194548.02935010474</v>
       </c>
       <c r="Q24">
-        <f>P24/C24</f>
+        <f t="shared" si="1"/>
         <v>0.91020094212259961</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>67209.952474162725</v>
       </c>
       <c r="T24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.78105283318857166</v>
       </c>
     </row>
@@ -26038,7 +26534,7 @@
         <v>148335.41197706517</v>
       </c>
       <c r="F25">
-        <f>E25/C25</f>
+        <f t="shared" si="0"/>
         <v>0.68528171301203167</v>
       </c>
       <c r="H25">
@@ -26054,30 +26550,30 @@
         <v>0.41186650353107163</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9868.8405063073951</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117095.45589506302</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89152.222101922962</v>
       </c>
       <c r="P25">
         <v>198428.06027253662</v>
       </c>
       <c r="Q25">
-        <f>P25/C25</f>
+        <f t="shared" si="1"/>
         <v>0.91670032961679382</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71463.763871166215</v>
       </c>
       <c r="T25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.80159262647952312</v>
       </c>
     </row>
@@ -26089,7 +26585,7 @@
         <v>153246.26874734549</v>
       </c>
       <c r="F26">
-        <f>E26/C26</f>
+        <f t="shared" si="0"/>
         <v>0.68276442053774578</v>
       </c>
       <c r="H26">
@@ -26105,30 +26601,30 @@
         <v>0.4149401129481185</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9818.0902197145278</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121200.7182490183</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93133.183496614074</v>
       </c>
       <c r="P26">
         <v>204494.0241090146</v>
       </c>
       <c r="Q26">
-        <f>P26/C26</f>
+        <f t="shared" si="1"/>
         <v>0.91109065829468472</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73475.215640281764</v>
       </c>
       <c r="T26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7889262761317829</v>
       </c>
     </row>
@@ -26140,7 +26636,7 @@
         <v>155908.22849198341</v>
       </c>
       <c r="F27">
-        <f>E27/C27</f>
+        <f t="shared" si="0"/>
         <v>0.66783605329521167</v>
       </c>
       <c r="H27">
@@ -26156,30 +26652,30 @@
         <v>0.40559994118223697</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12336.172778703962</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>126029.00838784045</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94688.461328430392</v>
       </c>
       <c r="P27">
         <v>208374.05503144645</v>
       </c>
       <c r="Q27">
-        <f>P27/C27</f>
+        <f t="shared" si="1"/>
         <v>0.89257448351082935</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70008.873864902038</v>
       </c>
       <c r="T27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.73936013831794878</v>
       </c>
     </row>
@@ -26191,7 +26687,7 @@
         <v>156780.24978764067</v>
       </c>
       <c r="F28">
-        <f>E28/C28</f>
+        <f t="shared" si="0"/>
         <v>0.68908450130045595</v>
       </c>
       <c r="H28">
@@ -26207,30 +26703,30 @@
         <v>0.38695279745738603</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11124.921924243365</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127964.83797124603</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88039.356750738123</v>
       </c>
       <c r="P28">
         <v>209904.20807127873</v>
       </c>
       <c r="Q28">
-        <f>P28/C28</f>
+        <f t="shared" si="1"/>
         <v>0.92257626031073381</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70814.448175789337</v>
       </c>
       <c r="T28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.80434990428522901</v>
       </c>
     </row>
@@ -26242,7 +26738,7 @@
         <v>163572.83672223397</v>
       </c>
       <c r="F29">
-        <f>E29/C29</f>
+        <f t="shared" si="0"/>
         <v>0.66634019503105124</v>
       </c>
       <c r="H29">
@@ -26258,30 +26754,30 @@
         <v>0.39699694828911963</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9658.70513807528</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>137998.02670327915</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97454.599746448206</v>
       </c>
       <c r="P29">
         <v>218265.40146750514</v>
       </c>
       <c r="Q29">
-        <f>P29/C29</f>
+        <f t="shared" si="1"/>
         <v>0.88913913273608325</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70608.669626150717</v>
       </c>
       <c r="T29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72452885558871827</v>
       </c>
     </row>
@@ -26293,7 +26789,7 @@
         <v>165638.15031721166</v>
       </c>
       <c r="F30">
-        <f>E30/C30</f>
+        <f t="shared" si="0"/>
         <v>0.67191575547714066</v>
       </c>
       <c r="H30">
@@ -26309,30 +26805,30 @@
         <v>0.38702578144337074</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9981.8738544361877</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>140674.78036717043</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>95408.143120308654</v>
       </c>
       <c r="P30">
         <v>220997.8176100628</v>
       </c>
       <c r="Q30">
-        <f>P30/C30</f>
+        <f t="shared" si="1"/>
         <v>0.89648378283559427</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70341.163388456189</v>
       </c>
       <c r="T30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.73726582541027685</v>
       </c>
     </row>
@@ -26344,7 +26840,7 @@
         <v>169447.50650350389</v>
       </c>
       <c r="F31">
-        <f>E31/C31</f>
+        <f t="shared" si="0"/>
         <v>0.66900820048532772</v>
       </c>
       <c r="H31">
@@ -26360,30 +26856,30 @@
         <v>0.38872214851733661</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10913.912018792909</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>143209.00426775884</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>98456.190434084187</v>
       </c>
       <c r="P31">
         <v>226025.4633123689</v>
       </c>
       <c r="Q31">
-        <f>P31/C31</f>
+        <f t="shared" si="1"/>
         <v>0.8923878054903307</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71902.547025817155</v>
       </c>
       <c r="T31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.73029991013064299</v>
       </c>
     </row>
@@ -26395,7 +26891,7 @@
         <v>171558.71595614776</v>
       </c>
       <c r="F32">
-        <f>E32/C32</f>
+        <f t="shared" si="0"/>
         <v>0.67273671347202502</v>
       </c>
       <c r="H32">
@@ -26411,30 +26907,30 @@
         <v>0.3801964792388503</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13791.445022691627</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>143977.9303662031</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>96956.236344870893</v>
       </c>
       <c r="P32">
         <v>229140.41771488462</v>
       </c>
       <c r="Q32">
-        <f>P32/C32</f>
+        <f t="shared" si="1"/>
         <v>0.89853302222500397</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71371.042325989896</v>
       </c>
       <c r="T32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.73611605623927989</v>
       </c>
     </row>
@@ -26446,7 +26942,7 @@
         <v>174082.98812778716</v>
       </c>
       <c r="F33">
-        <f>E33/C33</f>
+        <f t="shared" si="0"/>
         <v>0.70729075161067734</v>
       </c>
       <c r="H33">
@@ -26462,30 +26958,30 @@
         <v>0.36236767084235633</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10761.970215604755</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>145843.25154250581</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89188.281901735958</v>
       </c>
       <c r="P33">
         <v>232692.55870020957</v>
       </c>
       <c r="Q33">
-        <f>P33/C33</f>
+        <f t="shared" si="1"/>
         <v>0.94541859895276226</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76087.336942099006</v>
       </c>
       <c r="T33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.85310912285460272</v>
       </c>
     </row>
@@ -26497,7 +26993,7 @@
         <v>173073.27925913138</v>
       </c>
       <c r="F34">
-        <f>E34/C34</f>
+        <f t="shared" ref="F34:F65" si="7">E34/C34</f>
         <v>0.70828731978375092</v>
       </c>
       <c r="H34">
@@ -26513,30 +27009,30 @@
         <v>0.359513001697426</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10212.010657437399</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>145949.29517244379</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87848.663109011148</v>
       </c>
       <c r="P34">
         <v>231490.29559748422</v>
       </c>
       <c r="Q34">
-        <f>P34/C34</f>
+        <f t="shared" ref="Q34:Q65" si="8">P34/C34</f>
         <v>0.94735387072201493</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75328.989767603038</v>
       </c>
       <c r="T34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.8574858979257034</v>
       </c>
     </row>
@@ -26548,7 +27044,7 @@
         <v>179590.4910477277</v>
       </c>
       <c r="F35">
-        <f>E35/C35</f>
+        <f t="shared" si="7"/>
         <v>0.7040112035195718</v>
       </c>
       <c r="H35">
@@ -26564,30 +27060,30 @@
         <v>0.36161080654357264</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10328.897032787094</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>152075.14436323635</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92245.495512941314</v>
       </c>
       <c r="P35">
         <v>239632.89570230604</v>
       </c>
       <c r="Q35">
-        <f>P35/C35</f>
+        <f t="shared" si="8"/>
         <v>0.93938293905230152</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>77228.854306282592</v>
       </c>
       <c r="T35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.83721003260747828</v>
       </c>
     </row>
@@ -26599,7 +27095,7 @@
         <v>184180.07681434482</v>
       </c>
       <c r="F36">
-        <f>E36/C36</f>
+        <f t="shared" si="7"/>
         <v>0.68740947857082701</v>
       </c>
       <c r="H36">
@@ -26615,30 +27111,30 @@
         <v>0.37296260390982439</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11794.497320940982</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>155791.05252495673</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>99929.202576324125</v>
       </c>
       <c r="P36">
         <v>245644.21121593288</v>
       </c>
       <c r="Q36">
-        <f>P36/C36</f>
+        <f t="shared" si="8"/>
         <v>0.9168101244528043</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>78058.661370035174</v>
       </c>
       <c r="T36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.78113964044109507</v>
       </c>
     </row>
@@ -26650,7 +27146,7 @@
         <v>189366.30873062217</v>
       </c>
       <c r="F37">
-        <f>E37/C37</f>
+        <f t="shared" si="7"/>
         <v>0.68096271655255991</v>
       </c>
       <c r="H37">
@@ -26666,30 +27162,30 @@
         <v>0.37681918080738747</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10915.437499042246</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161805.30880933211</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>104788.19999080554</v>
       </c>
       <c r="P37">
         <v>253622.86635220124</v>
       </c>
       <c r="Q37">
-        <f>P37/C37</f>
+        <f t="shared" si="8"/>
         <v>0.91202979668744766</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80902.120043826872</v>
       </c>
       <c r="T37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7720537240922688</v>
       </c>
     </row>
@@ -26701,7 +27197,7 @@
         <v>196342.47909588018</v>
       </c>
       <c r="F38">
-        <f>E38/C38</f>
+        <f t="shared" si="7"/>
         <v>0.67372311091236059</v>
       </c>
       <c r="H38">
@@ -26717,30 +27213,30 @@
         <v>0.38682609154493602</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10445.257872687645</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>167697.34133406443</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>112732.35630888493</v>
       </c>
       <c r="P38">
         <v>264552.53092243185</v>
       </c>
       <c r="Q38">
-        <f>P38/C38</f>
+        <f t="shared" si="8"/>
         <v>0.90777683440454804</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86409.931715679762</v>
       </c>
       <c r="T38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76650515029525212</v>
       </c>
     </row>
@@ -26752,7 +27248,7 @@
         <v>198729.06369452109</v>
       </c>
       <c r="F39">
-        <f>E39/C39</f>
+        <f t="shared" si="7"/>
         <v>0.65953327174545617</v>
       </c>
       <c r="H39">
@@ -26768,30 +27264,30 @@
         <v>0.39824683303444397</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9216.4999176344081</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>171611.22846635274</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>119998.8289276</v>
       </c>
       <c r="P39">
         <v>270891.73637316562</v>
       </c>
       <c r="Q39">
-        <f>P39/C39</f>
+        <f t="shared" si="8"/>
         <v>0.89902357439591352</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90064.00798917847</v>
       </c>
       <c r="T39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.75054072438921571</v>
       </c>
     </row>
@@ -26803,7 +27299,7 @@
         <v>197811.14654119767</v>
       </c>
       <c r="F40">
-        <f>E40/C40</f>
+        <f t="shared" si="7"/>
         <v>0.64905464832251669</v>
       </c>
       <c r="H40">
@@ -26819,30 +27315,30 @@
         <v>0.39942988950927211</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12636.693962374</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>169813.09696104491</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>121733.48517086954</v>
       </c>
       <c r="P40">
         <v>276411.21698113205</v>
       </c>
       <c r="Q40">
-        <f>P40/C40</f>
+        <f t="shared" si="8"/>
         <v>0.90695589387690567</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93961.426057713135</v>
       </c>
       <c r="T40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.77186179238872088</v>
       </c>
     </row>
@@ -26854,7 +27350,7 @@
         <v>197306.29210686981</v>
       </c>
       <c r="F41">
-        <f>E41/C41</f>
+        <f t="shared" si="7"/>
         <v>0.62654148459350567</v>
       </c>
       <c r="H41">
@@ -26870,30 +27366,30 @@
         <v>0.40281911492936323</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13591.84190169057</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>173905.19426883006</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>126853.12610712247</v>
       </c>
       <c r="P41">
         <v>296958.98637316562</v>
       </c>
       <c r="Q41">
-        <f>P41/C41</f>
+        <f t="shared" si="8"/>
         <v>0.94298626870373214</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>109461.95020264499</v>
       </c>
       <c r="T41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.86290305617071417</v>
       </c>
     </row>
@@ -26905,7 +27401,7 @@
         <v>172017.6745328095</v>
       </c>
       <c r="F42">
-        <f>E42/C42</f>
+        <f t="shared" si="7"/>
         <v>0.5116274454373686</v>
       </c>
       <c r="H42">
@@ -26921,30 +27417,30 @@
         <v>0.40620834034945441</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15081.952617223918</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>184003.24071155128</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>136574.01436510502</v>
       </c>
       <c r="P42">
         <v>347945.87159329141</v>
       </c>
       <c r="Q42">
-        <f>P42/C42</f>
+        <f t="shared" si="8"/>
         <v>1.034885850638565</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>148860.6782645162</v>
       </c>
       <c r="T42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0899634088997714</v>
       </c>
     </row>
@@ -26956,7 +27452,7 @@
         <v>167473.98462385856</v>
       </c>
       <c r="F43">
-        <f>E43/C43</f>
+        <f t="shared" si="7"/>
         <v>0.45873371663760609</v>
       </c>
       <c r="H43">
@@ -26972,30 +27468,30 @@
         <v>0.40959756576954554</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16996.283460836024</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>197989.46863709739</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>149535.4144327034</v>
       </c>
       <c r="P43">
         <v>380188.38207547169</v>
       </c>
       <c r="Q43">
-        <f>P43/C43</f>
+        <f t="shared" si="8"/>
         <v>1.0413869946644438</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>165202.62997753828</v>
       </c>
       <c r="T43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.104772609246258</v>
       </c>
     </row>
@@ -27007,7 +27503,7 @@
         <v>167473.98462385856</v>
       </c>
       <c r="F44">
-        <f>E44/C44</f>
+        <f t="shared" si="7"/>
         <v>0.45002597892794827</v>
       </c>
       <c r="H44">
@@ -27023,30 +27519,30 @@
         <v>0.41298679118963671</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17956.776173386435</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>199976.08424336929</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>153690.11291817788</v>
       </c>
       <c r="P44">
         <v>389260.00366876309</v>
       </c>
       <c r="Q44">
-        <f>P44/C44</f>
+        <f t="shared" si="8"/>
         <v>1.0459959772377441</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>171327.14325200737</v>
       </c>
       <c r="T44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1147570913896014</v>
       </c>
     </row>
@@ -27058,7 +27554,7 @@
         <v>166143.00475153959</v>
       </c>
       <c r="F45">
-        <f>E45/C45</f>
+        <f t="shared" si="7"/>
         <v>0.43766221806917677</v>
       </c>
       <c r="H45">
@@ -27074,30 +27570,30 @@
         <v>0.41637601660972784</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18961.612353528915</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>202109.74102880954</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>158062.45010411862</v>
       </c>
       <c r="P45">
         <v>393577.2211740042</v>
       </c>
       <c r="Q45">
-        <f>P45/C45</f>
+        <f t="shared" si="8"/>
         <v>1.0367808133608551</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172505.86779166575</v>
       </c>
       <c r="T45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0913779185254497</v>
       </c>
     </row>
@@ -27109,7 +27605,7 @@
         <v>172384.84139413887</v>
       </c>
       <c r="F46">
-        <f>E46/C46</f>
+        <f t="shared" si="7"/>
         <v>0.47510989515632335</v>
       </c>
       <c r="H46">
@@ -27125,30 +27621,30 @@
         <v>0.41976524202981902</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18739.119821573047</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>191376.03629189773</v>
       </c>
       <c r="N46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>152304.05724611142</v>
       </c>
       <c r="P46">
         <v>388440.2788259958</v>
       </c>
       <c r="Q46">
-        <f>P46/C46</f>
+        <f t="shared" si="8"/>
         <v>1.0705803286122737</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>178325.12271252502</v>
       </c>
       <c r="T46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1708494569147663</v>
       </c>
     </row>
@@ -27160,7 +27656,7 @@
         <v>185878.2235479932</v>
       </c>
       <c r="F47">
-        <f>E47/C47</f>
+        <f t="shared" si="7"/>
         <v>0.5417053498293869</v>
       </c>
       <c r="H47">
@@ -27176,30 +27672,30 @@
         <v>0.42315446744991014</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18304.262353005306</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>179286.63495201425</v>
       </c>
       <c r="N47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>145199.23187164258</v>
       </c>
       <c r="P47">
         <v>371007.46383647801</v>
       </c>
       <c r="Q47">
-        <f>P47/C47</f>
+        <f t="shared" si="8"/>
         <v>1.0812279359607788</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>173416.56653145846</v>
       </c>
       <c r="T47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.1943352888034577</v>
       </c>
     </row>
@@ -27211,7 +27707,7 @@
         <v>203456.33703413676</v>
       </c>
       <c r="F48">
-        <f>E48/C48</f>
+        <f t="shared" si="7"/>
         <v>0.59641264787783188</v>
       </c>
       <c r="H48">
@@ -27227,30 +27723,30 @@
         <v>0.42654369287000132</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18776.472178418913</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>176550.03083183558</v>
       </c>
       <c r="N48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>145508.34501102127</v>
       </c>
       <c r="P48">
         <v>323955.25786163524</v>
       </c>
       <c r="Q48">
-        <f>P48/C48</f>
+        <f t="shared" si="8"/>
         <v>0.94964362354948884</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>128628.75485138074</v>
       </c>
       <c r="T48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.88399572438019269</v>
       </c>
     </row>
@@ -27262,7 +27758,7 @@
         <v>212130.65413304311</v>
       </c>
       <c r="F49">
-        <f>E49/C49</f>
+        <f t="shared" si="7"/>
         <v>0.61777482331748435</v>
       </c>
       <c r="H49">
@@ -27278,30 +27774,30 @@
         <v>0.42993291829009245</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19482.849398835944</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>176010.14988141743</v>
       </c>
       <c r="N49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>147629.76370653315</v>
       </c>
       <c r="P49">
         <v>310293.17714884697</v>
       </c>
       <c r="Q49">
-        <f>P49/C49</f>
+        <f t="shared" si="8"/>
         <v>0.90364739350459811</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>114800.1778685936</v>
       </c>
       <c r="T49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7776221744606997</v>
       </c>
     </row>
@@ -27313,7 +27809,7 @@
         <v>216123.59375</v>
       </c>
       <c r="F50">
-        <f>E50/C50</f>
+        <f t="shared" si="7"/>
         <v>0.61083321177093797</v>
       </c>
       <c r="H50">
@@ -27329,30 +27825,30 @@
         <v>0.43332214371018363</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20675.671262936245</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>179607.50851093818</v>
       </c>
       <c r="N50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>153317.03834273168</v>
       </c>
       <c r="P50">
         <v>312807</v>
       </c>
       <c r="Q50">
-        <f>P50/C50</f>
+        <f t="shared" si="8"/>
         <v>0.88409090909090904</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112523.82022612558</v>
       </c>
       <c r="T50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7339289973406925</v>
       </c>
     </row>
@@ -27364,7 +27860,7 @@
         <v>219965.328125</v>
       </c>
       <c r="F51">
-        <f>E51/C51</f>
+        <f t="shared" si="7"/>
         <v>0.60663835883434647</v>
       </c>
       <c r="H51">
@@ -27380,30 +27876,30 @@
         <v>0.4403265504032563</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21784.946509261394</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>180938.72602888721</v>
       </c>
       <c r="N51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>159661.14363046741</v>
       </c>
       <c r="P51">
         <v>320759</v>
       </c>
       <c r="Q51">
-        <f>P51/C51</f>
+        <f t="shared" si="8"/>
         <v>0.88461538461538447</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>118035.3274618514</v>
       </c>
       <c r="T51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.73928649625009479</v>
       </c>
     </row>
@@ -27415,7 +27911,7 @@
         <v>226191.359375</v>
       </c>
       <c r="F52">
-        <f>E52/C52</f>
+        <f t="shared" si="7"/>
         <v>0.6061663503491278</v>
       </c>
       <c r="H52">
@@ -27431,30 +27927,30 @@
         <v>0.43894642873257872</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19502.169331797231</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>189534.74857028018</v>
       </c>
       <c r="N52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>163793.13921110731</v>
       </c>
       <c r="P52">
         <v>327978</v>
       </c>
       <c r="Q52">
-        <f>P52/C52</f>
+        <f t="shared" si="8"/>
         <v>0.87894262541303703</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>118941.0820979226</v>
       </c>
       <c r="T52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7261664479403106</v>
       </c>
     </row>
@@ -27466,7 +27962,7 @@
         <v>223465.71875</v>
       </c>
       <c r="F53">
-        <f>E53/C53</f>
+        <f t="shared" si="7"/>
         <v>0.58729337675983173</v>
       </c>
       <c r="H53">
@@ -27482,30 +27978,30 @@
         <v>0.44268655902967802</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17636.769874601789</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>194148.5598777651</v>
       </c>
       <c r="N53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>168442.67960301871</v>
       </c>
       <c r="P53">
         <v>329547</v>
       </c>
       <c r="Q53">
-        <f>P53/C53</f>
+        <f t="shared" si="8"/>
         <v>0.86608707372961324</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>117761.67024763311</v>
       </c>
       <c r="T53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.69912014297784109</v>
       </c>
     </row>
@@ -27517,7 +28013,7 @@
         <v>223874.3125</v>
       </c>
       <c r="F54">
-        <f>E54/C54</f>
+        <f t="shared" si="7"/>
         <v>0.57236300241468563</v>
       </c>
       <c r="H54">
@@ -27533,30 +28029,30 @@
         <v>0.46501234028046562</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20872.510574531654</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>188097.83354568147</v>
       </c>
       <c r="N54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>181885.12804830133</v>
       </c>
       <c r="P54">
         <v>336676</v>
       </c>
       <c r="Q54">
-        <f>P54/C54</f>
+        <f t="shared" si="8"/>
         <v>0.86075478713515519</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>127705.65587978688</v>
       </c>
       <c r="T54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.70212258280882334</v>
       </c>
     </row>
@@ -27568,7 +28064,7 @@
         <v>233933.515625</v>
       </c>
       <c r="F55">
-        <f>E55/C55</f>
+        <f t="shared" si="7"/>
         <v>0.57125129859509816</v>
       </c>
       <c r="H55">
@@ -27584,30 +28080,30 @@
         <v>0.47354354480978933</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21635.390968189116</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>193681.93364274461</v>
       </c>
       <c r="N55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>193921.14558219633</v>
       </c>
       <c r="P55">
         <v>350347</v>
       </c>
       <c r="Q55">
-        <f>P55/C55</f>
+        <f t="shared" si="8"/>
         <v>0.85552588808915719</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>135029.67538906628</v>
       </c>
       <c r="T55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.69631228190033545</v>
       </c>
     </row>
@@ -27619,7 +28115,7 @@
         <v>243885.84375</v>
       </c>
       <c r="F56">
-        <f>E56/C56</f>
+        <f t="shared" si="7"/>
         <v>0.57905757378992562</v>
       </c>
       <c r="H56">
@@ -27635,30 +28131,30 @@
         <v>0.47335721475217629</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20745.947113058828</v>
       </c>
       <c r="M56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>200733.14542064004</v>
       </c>
       <c r="N56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>199367.26318835164</v>
       </c>
       <c r="P56">
         <v>361661</v>
       </c>
       <c r="Q56">
-        <f>P56/C56</f>
+        <f t="shared" si="8"/>
         <v>0.85869084475895618</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140181.90746630114</v>
       </c>
       <c r="T56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7031340312570008</v>
       </c>
     </row>
@@ -27670,7 +28166,7 @@
         <v>254200.703125</v>
       </c>
       <c r="F57">
-        <f>E57/C57</f>
+        <f t="shared" si="7"/>
         <v>0.58004752817245853</v>
       </c>
       <c r="H57">
@@ -27686,30 +28182,30 @@
         <v>0.47811107322113849</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19701.547958415351</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>208657.30337776255</v>
       </c>
       <c r="N57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>209527.95259309662</v>
       </c>
       <c r="P57">
         <v>371697</v>
       </c>
       <c r="Q57">
-        <f>P57/C57</f>
+        <f t="shared" si="8"/>
         <v>0.84815629315194607</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>143338.1486638221</v>
       </c>
       <c r="T57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68410036412747677</v>
       </c>
     </row>
@@ -27721,7 +28217,7 @@
         <v>255619.515625</v>
       </c>
       <c r="F58">
-        <f>E58/C58</f>
+        <f t="shared" si="7"/>
         <v>0.56825460600461197</v>
       </c>
       <c r="H58">
@@ -27737,30 +28233,30 @@
         <v>0.47455618125763094</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19664.59555065422</v>
       </c>
       <c r="M58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>216263.22351074475</v>
       </c>
       <c r="N58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>213470.89827009832</v>
       </c>
       <c r="P58">
         <v>372526</v>
       </c>
       <c r="Q58">
-        <f>P58/C58</f>
+        <f t="shared" si="8"/>
         <v>0.82814340227069305</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>136598.18093860103</v>
       </c>
       <c r="T58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.63989134840182038</v>
       </c>
     </row>
@@ -27772,7 +28268,7 @@
         <v>261143.34375</v>
       </c>
       <c r="F59">
-        <f>E59/C59</f>
+        <f t="shared" si="7"/>
         <v>0.56939443235394294</v>
       </c>
       <c r="H59">
@@ -27788,30 +28284,30 @@
         <v>0.47565272991125218</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19893.848761977813</v>
       </c>
       <c r="M59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>220082.80687536599</v>
       </c>
       <c r="N59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>218150.26156705956</v>
       </c>
       <c r="P59">
         <v>377824</v>
       </c>
       <c r="Q59">
-        <f>P59/C59</f>
+        <f t="shared" si="8"/>
         <v>0.82380381180860984</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>137847.34436265621</v>
       </c>
       <c r="T59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.63189172166214358</v>
       </c>
     </row>
@@ -27823,7 +28319,7 @@
         <v>268504.34375</v>
       </c>
       <c r="F60">
-        <f>E60/C60</f>
+        <f t="shared" si="7"/>
         <v>0.57445652243687861</v>
       </c>
       <c r="H60">
@@ -27839,30 +28335,30 @@
         <v>0.47483340318346229</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19798.604682558147</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>225139.68871344463</v>
       </c>
       <c r="N60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>221939.91421929386</v>
       </c>
       <c r="P60">
         <v>384140</v>
       </c>
       <c r="Q60">
-        <f>P60/C60</f>
+        <f t="shared" si="8"/>
         <v>0.82185533927289611</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>139201.70660399721</v>
       </c>
       <c r="T60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.62720447150599112</v>
       </c>
     </row>
@@ -27874,7 +28370,7 @@
         <v>280164.875</v>
       </c>
       <c r="F61">
-        <f>E61/C61</f>
+        <f t="shared" si="7"/>
         <v>0.58245591000707075</v>
       </c>
       <c r="H61">
@@ -27890,30 +28386,30 @@
         <v>0.47251625919781232</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19501.274380285173</v>
       </c>
       <c r="M61" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>233711.263786892</v>
       </c>
       <c r="N61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>227283.22679739934</v>
       </c>
       <c r="P61">
         <v>398824</v>
       </c>
       <c r="Q61">
-        <f>P61/C61</f>
+        <f t="shared" si="8"/>
         <v>0.82914532327673129</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>145611.46183282282</v>
       </c>
       <c r="T61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.6406608348737548</v>
       </c>
     </row>
@@ -27925,7 +28421,7 @@
         <v>290913.03125</v>
       </c>
       <c r="F62">
-        <f>E62/C62</f>
+        <f t="shared" si="7"/>
         <v>0.57383618306367579</v>
       </c>
       <c r="H62">
@@ -27941,30 +28437,30 @@
         <v>0.47265137996428597</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19264.555621385131</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>247419.83356560415</v>
       </c>
       <c r="N62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>239616.20010749338</v>
       </c>
       <c r="P62">
         <v>412579</v>
       </c>
       <c r="Q62">
-        <f>P62/C62</f>
+        <f t="shared" si="8"/>
         <v>0.81382658437452959</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>145894.61081301072</v>
       </c>
       <c r="T62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.60886789268656061</v>
       </c>
     </row>
@@ -27976,7 +28472,7 @@
         <v>297403.34375</v>
       </c>
       <c r="F63">
-        <f>E63/C63</f>
+        <f t="shared" si="7"/>
         <v>0.56840962617849855</v>
       </c>
       <c r="H63">
@@ -27992,30 +28488,30 @@
         <v>0.46706402207707015</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19577.471453969032</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>258600.41226789713</v>
       </c>
       <c r="N63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>244377.28622742128</v>
       </c>
       <c r="P63">
         <v>422977</v>
       </c>
       <c r="Q63">
-        <f>P63/C63</f>
+        <f t="shared" si="8"/>
         <v>0.80841121495327106</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>144799.11627813382</v>
       </c>
       <c r="T63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.59252280976465843</v>
       </c>
     </row>
@@ -28027,7 +28523,7 @@
         <v>304197.53125</v>
       </c>
       <c r="F64">
-        <f>E64/C64</f>
+        <f t="shared" si="7"/>
         <v>0.57476922428152721</v>
       </c>
       <c r="H64">
@@ -28043,30 +28539,30 @@
         <v>0.46240286621493987</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20197.422900501409</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>263957.33820565464</v>
       </c>
       <c r="N64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>244727.45652194368</v>
       </c>
       <c r="P64">
         <v>433331</v>
       </c>
       <c r="Q64">
-        <f>P64/C64</f>
+        <f t="shared" si="8"/>
         <v>0.81876181474480147</v>
       </c>
       <c r="S64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>149176.23889384395</v>
       </c>
       <c r="T64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.60956069667838009</v>
       </c>
     </row>
@@ -28078,7 +28574,7 @@
         <v>318470.59375</v>
       </c>
       <c r="F65">
-        <f>E65/C65</f>
+        <f t="shared" si="7"/>
         <v>0.57157814773726101</v>
       </c>
       <c r="H65">
@@ -28094,30 +28590,30 @@
         <v>0.45739317892313486</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19825.163271329853</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>282108.87574404449</v>
       </c>
       <c r="N65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>254849.27624596594</v>
       </c>
       <c r="P65">
         <v>451286</v>
       </c>
       <c r="Q65">
-        <f>P65/C65</f>
+        <f t="shared" si="8"/>
         <v>0.80994986991560358</v>
       </c>
       <c r="S65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>149351.96098462565</v>
       </c>
       <c r="T65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.58604035759740469</v>
       </c>
     </row>
@@ -28129,7 +28625,7 @@
         <v>329003.5</v>
       </c>
       <c r="F66">
-        <f>E66/C66</f>
+        <f t="shared" ref="F66:F97" si="9">E66/C66</f>
         <v>0.5625839643362881</v>
       </c>
       <c r="H66">
@@ -28145,30 +28641,30 @@
         <v>0.46197304962823921</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20501.561536488909</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293656.42140600202</v>
       </c>
       <c r="N66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>270165.45061442768</v>
       </c>
       <c r="P66">
         <v>465057</v>
       </c>
       <c r="Q66">
-        <f>P66/C66</f>
+        <f t="shared" ref="Q66:Q97" si="10">P66/C66</f>
         <v>0.7952304784062818</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>150899.01705750907</v>
       </c>
       <c r="T66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.55854298436134153</v>
       </c>
     </row>
@@ -28180,7 +28676,7 @@
         <v>333630.34375</v>
       </c>
       <c r="F67">
-        <f>E67/C67</f>
+        <f t="shared" si="9"/>
         <v>0.56061857522256386</v>
       </c>
       <c r="H67">
@@ -28196,30 +28692,30 @@
         <v>0.45887648366737421</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" ref="L67:L117" si="5">I67*C67</f>
+        <f t="shared" ref="L67:L117" si="11">I67*C67</f>
         <v>19761.587683845151</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" ref="M67:M117" si="6">J67*C67</f>
+        <f t="shared" ref="M67:M117" si="12">J67*C67</f>
         <v>301738.62303586479</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N117" si="7">K67*C67</f>
+        <f t="shared" ref="N67:N117" si="13">K67*C67</f>
         <v>273082.49449986388</v>
       </c>
       <c r="P67">
         <v>472592</v>
       </c>
       <c r="Q67">
-        <f>P67/C67</f>
+        <f t="shared" si="10"/>
         <v>0.79412397182947159</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" ref="S67:S117" si="8">P67-M67-L67</f>
+        <f t="shared" ref="S67:S117" si="14">P67-M67-L67</f>
         <v>151091.78928029008</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T117" si="9">S67/N67</f>
+        <f t="shared" ref="T67:T117" si="15">S67/N67</f>
         <v>0.55328258794840246</v>
       </c>
     </row>
@@ -28231,7 +28727,7 @@
         <v>340133.46875</v>
       </c>
       <c r="F68">
-        <f>E68/C68</f>
+        <f t="shared" si="9"/>
         <v>0.56026301353350183</v>
       </c>
       <c r="H68">
@@ -28247,30 +28743,30 @@
         <v>0.45231900958299809</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20366.247443209202</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>311601.82561770896</v>
       </c>
       <c r="N68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>274601.0891219218</v>
       </c>
       <c r="P68">
         <v>482878</v>
       </c>
       <c r="Q68">
-        <f>P68/C68</f>
+        <f t="shared" si="10"/>
         <v>0.79538977579380099</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>150909.92693908184</v>
       </c>
       <c r="T68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.54956055499138401</v>
       </c>
     </row>
@@ -28282,7 +28778,7 @@
         <v>349171.8125</v>
       </c>
       <c r="F69">
-        <f>E69/C69</f>
+        <f t="shared" si="9"/>
         <v>0.56197177861454173</v>
       </c>
       <c r="H69">
@@ -28298,30 +28794,30 @@
         <v>0.44339730131843347</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20306.312008144232</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>324969.53664341546</v>
       </c>
       <c r="N69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>275497.53430796182</v>
       </c>
       <c r="P69">
         <v>498771</v>
       </c>
       <c r="Q69">
-        <f>P69/C69</f>
+        <f t="shared" si="10"/>
         <v>0.80274299344066791</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>153495.15134844033</v>
       </c>
       <c r="T69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.55715617104891213</v>
       </c>
     </row>
@@ -28333,7 +28829,7 @@
         <v>359836.53125</v>
       </c>
       <c r="F70">
-        <f>E70/C70</f>
+        <f t="shared" si="9"/>
         <v>0.55578574505495137</v>
       </c>
       <c r="H70">
@@ -28349,30 +28845,30 @@
         <v>0.44085038751760997</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20086.187976550806</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>341514.99606742122</v>
       </c>
       <c r="N70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>285423.07113125164</v>
       </c>
       <c r="P70">
         <v>512257</v>
       </c>
       <c r="Q70">
-        <f>P70/C70</f>
+        <f t="shared" si="10"/>
         <v>0.79120687778866028</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>150655.81595602797</v>
       </c>
       <c r="T70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.52783335053790725</v>
       </c>
     </row>
@@ -28384,7 +28880,7 @@
         <v>362714.21875</v>
       </c>
       <c r="F71">
-        <f>E71/C71</f>
+        <f t="shared" si="9"/>
         <v>0.54687821918765056</v>
       </c>
       <c r="H71">
@@ -28400,30 +28896,30 @@
         <v>0.43499425768226962</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19019.337935286516</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>355122.62125083525</v>
       </c>
       <c r="N71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>288507.74596642324</v>
       </c>
       <c r="P71">
         <v>513652</v>
       </c>
       <c r="Q71">
-        <f>P71/C71</f>
+        <f t="shared" si="10"/>
         <v>0.77445293435212226</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>139510.04081387824</v>
       </c>
       <c r="T71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.48355734902907782</v>
       </c>
     </row>
@@ -28435,7 +28931,7 @@
         <v>373695.09375</v>
       </c>
       <c r="F72">
-        <f>E72/C72</f>
+        <f t="shared" si="9"/>
         <v>0.53724381253388886</v>
       </c>
       <c r="H72">
@@ -28451,30 +28947,30 @@
         <v>0.41203928778335275</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19864.394301833509</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>389108.27015162102</v>
       </c>
       <c r="N72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>286605.55353938206</v>
       </c>
       <c r="P72">
         <v>527781</v>
       </c>
       <c r="Q72">
-        <f>P72/C72</f>
+        <f t="shared" si="10"/>
         <v>0.75876585313865497</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>118808.33554654547</v>
       </c>
       <c r="T72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.41453605514388675</v>
       </c>
     </row>
@@ -28486,7 +28982,7 @@
         <v>386068.3125</v>
       </c>
       <c r="F73">
-        <f>E73/C73</f>
+        <f t="shared" si="9"/>
         <v>0.54171222074929404</v>
       </c>
       <c r="H73">
@@ -28502,30 +28998,30 @@
         <v>0.40389725288566053</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20058.918637525363</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>404772.51923685672</v>
       </c>
       <c r="N73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>287850.12571669207</v>
       </c>
       <c r="P73">
         <v>545486</v>
       </c>
       <c r="Q73">
-        <f>P73/C73</f>
+        <f t="shared" si="10"/>
         <v>0.76539934224114647</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>120654.56212561791</v>
       </c>
       <c r="T73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.41915758009558274</v>
       </c>
     </row>
@@ -28537,7 +29033,7 @@
         <v>411057</v>
       </c>
       <c r="F74">
-        <f>E74/C74</f>
+        <f t="shared" si="9"/>
         <v>0.55339130998490182</v>
       </c>
       <c r="H74">
@@ -28553,30 +29049,30 @@
         <v>0.39515810025518161</v>
       </c>
       <c r="L74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20558.732287292081</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>428715.57379132893</v>
       </c>
       <c r="N74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>293521.9622820348</v>
       </c>
       <c r="P74">
         <v>578753</v>
       </c>
       <c r="Q74">
-        <f>P74/C74</f>
+        <f t="shared" si="10"/>
         <v>0.77915442585259931</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>129478.69392137899</v>
       </c>
       <c r="T74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.44112097409926526</v>
       </c>
     </row>
@@ -28588,7 +29084,7 @@
         <v>433901.5625</v>
       </c>
       <c r="F75">
-        <f>E75/C75</f>
+        <f t="shared" si="9"/>
         <v>0.5499020779242465</v>
       </c>
       <c r="H75">
@@ -28604,30 +29100,30 @@
         <v>0.38662401924701933</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>21479.732026005327</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>462506.06677898101</v>
       </c>
       <c r="N75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>305066.61601380899</v>
       </c>
       <c r="P75">
         <v>608586</v>
       </c>
       <c r="Q75">
-        <f>P75/C75</f>
+        <f t="shared" si="10"/>
         <v>0.77128716492143412</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>124600.20119501367</v>
       </c>
       <c r="T75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.4084360420131109</v>
       </c>
     </row>
@@ -28639,7 +29135,7 @@
         <v>428332</v>
       </c>
       <c r="F76">
-        <f>E76/C76</f>
+        <f t="shared" si="9"/>
         <v>0.57175823924533464</v>
       </c>
       <c r="H76">
@@ -28655,30 +29151,30 @@
         <v>0.37749033507024726</v>
       </c>
       <c r="L76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20029.812668164959</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>446322.55708628031</v>
       </c>
       <c r="N76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>282796.43230804306</v>
       </c>
       <c r="P76">
         <v>604835</v>
       </c>
       <c r="Q76">
-        <f>P76/C76</f>
+        <f t="shared" si="10"/>
         <v>0.80736296759044845</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>138482.63024555473</v>
       </c>
       <c r="T76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.48969016021640993</v>
       </c>
     </row>
@@ -28690,7 +29186,7 @@
         <v>427570.71875</v>
       </c>
       <c r="F77">
-        <f>E77/C77</f>
+        <f t="shared" si="9"/>
         <v>0.57935070986534509</v>
       </c>
       <c r="H77">
@@ -28706,30 +29202,30 @@
         <v>0.37026957791678833</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19466.266475143639</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>445285.54033879942</v>
       </c>
       <c r="N77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>273265.27242529282</v>
       </c>
       <c r="P77">
         <v>612000</v>
       </c>
       <c r="Q77">
-        <f>P77/C77</f>
+        <f t="shared" si="10"/>
         <v>0.82924910170217592</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>147248.19318605695</v>
       </c>
       <c r="T77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.5388470766123884</v>
       </c>
     </row>
@@ -28741,7 +29237,7 @@
         <v>429960.21875</v>
       </c>
       <c r="F78">
-        <f>E78/C78</f>
+        <f t="shared" si="9"/>
         <v>0.5683413220927459</v>
       </c>
       <c r="H78">
@@ -28757,30 +29253,30 @@
         <v>0.37166665574638286</v>
       </c>
       <c r="L78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>18988.186847883626</v>
       </c>
       <c r="M78" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>456357.05313647538</v>
       </c>
       <c r="N78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>281172.3701848273</v>
       </c>
       <c r="P78">
         <v>616949</v>
       </c>
       <c r="Q78">
-        <f>P78/C78</f>
+        <f t="shared" si="10"/>
         <v>0.8155117497688209</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>141603.76001564099</v>
       </c>
       <c r="T78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.50361904308932792</v>
       </c>
     </row>
@@ -28792,7 +29288,7 @@
         <v>428595.8125</v>
       </c>
       <c r="F79">
-        <f>E79/C79</f>
+        <f t="shared" si="9"/>
         <v>0.55973768881562791</v>
       </c>
       <c r="H79">
@@ -28808,30 +29304,30 @@
         <v>0.37352379583179562</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>18277.982600993739</v>
       </c>
       <c r="M79" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>461420.06722218049</v>
       </c>
       <c r="N79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>286010.2829619266</v>
       </c>
       <c r="P79">
         <v>613568</v>
       </c>
       <c r="Q79">
-        <f>P79/C79</f>
+        <f t="shared" si="10"/>
         <v>0.80130772218225343</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>133869.95017682578</v>
       </c>
       <c r="T79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.46805992005065922</v>
       </c>
     </row>
@@ -28843,7 +29339,7 @@
         <v>451453.9375</v>
       </c>
       <c r="F80">
-        <f>E80/C80</f>
+        <f t="shared" si="9"/>
         <v>0.55724694911697326</v>
       </c>
       <c r="H80">
@@ -28859,30 +29355,30 @@
         <v>0.3748770742554815</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>18322.29350768165</v>
       </c>
       <c r="M80" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>488121.40563878528</v>
       </c>
       <c r="N80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>303706.87810727058</v>
       </c>
       <c r="P80">
         <v>640995</v>
       </c>
       <c r="Q80">
-        <f>P80/C80</f>
+        <f t="shared" si="10"/>
         <v>0.79120476859111299</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>134551.30085353309</v>
       </c>
       <c r="T80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.44303014041719857</v>
       </c>
     </row>
@@ -28894,7 +29390,7 @@
         <v>472608.15625</v>
       </c>
       <c r="F81">
-        <f>E81/C81</f>
+        <f t="shared" si="9"/>
         <v>0.55969544510379277</v>
       </c>
       <c r="H81">
@@ -28910,30 +29406,30 @@
         <v>0.37582500912382227</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>18030.178553740752</v>
       </c>
       <c r="M81" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>509024.65849365824</v>
       </c>
       <c r="N81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>317347.52567391488</v>
       </c>
       <c r="P81">
         <v>666305</v>
       </c>
       <c r="Q81">
-        <f>P81/C81</f>
+        <f t="shared" si="10"/>
         <v>0.78908471768441391</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>139250.16295260101</v>
       </c>
       <c r="T81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.43879391420144609</v>
       </c>
     </row>
@@ -28945,7 +29441,7 @@
         <v>473240.53125</v>
       </c>
       <c r="F82">
-        <f>E82/C82</f>
+        <f t="shared" si="9"/>
         <v>0.56793554303799043</v>
       </c>
       <c r="H82">
@@ -28961,30 +29457,30 @@
         <v>0.37676950726530117</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>16744.263800149038</v>
       </c>
       <c r="M82" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>502571.58654316911</v>
       </c>
       <c r="N82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>313948.65836932632</v>
       </c>
       <c r="P82">
         <v>668772</v>
       </c>
       <c r="Q82">
-        <f>P82/C82</f>
+        <f t="shared" si="10"/>
         <v>0.80259268576459852</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>149456.14965668187</v>
       </c>
       <c r="T82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.47605283753390981</v>
       </c>
     </row>
@@ -28996,7 +29492,7 @@
         <v>475133.59375</v>
       </c>
       <c r="F83">
-        <f>E83/C83</f>
+        <f t="shared" si="9"/>
         <v>0.57252043745912851</v>
       </c>
       <c r="H83">
@@ -29012,30 +29508,30 @@
         <v>0.36894525645371901</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>15924.466864553902</v>
       </c>
       <c r="M83" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>507786.63327505282</v>
       </c>
       <c r="N83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>306186.94831900252</v>
       </c>
       <c r="P83">
         <v>670642</v>
       </c>
       <c r="Q83">
-        <f>P83/C83</f>
+        <f t="shared" si="10"/>
         <v>0.80810167133854627</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>146930.89986039329</v>
       </c>
       <c r="T83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.47987316463702606</v>
       </c>
     </row>
@@ -29047,7 +29543,7 @@
         <v>481267.9375</v>
       </c>
       <c r="F84">
-        <f>E84/C84</f>
+        <f t="shared" si="9"/>
         <v>0.57407239258826481</v>
       </c>
       <c r="H84">
@@ -29063,30 +29559,30 @@
         <v>0.36147983797196703</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>15344.712886458219</v>
       </c>
       <c r="M84" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>519952.37751342438</v>
       </c>
       <c r="N84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>303043.06271243433</v>
       </c>
       <c r="P84">
         <v>678204</v>
       </c>
       <c r="Q84">
-        <f>P84/C84</f>
+        <f t="shared" si="10"/>
         <v>0.80898427384419636</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>142906.90960011742</v>
       </c>
       <c r="T84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.47157294518147608</v>
       </c>
     </row>
@@ -29098,7 +29594,7 @@
         <v>502456.4375</v>
       </c>
       <c r="F85">
-        <f>E85/C85</f>
+        <f t="shared" si="9"/>
         <v>0.57465332334990737</v>
       </c>
       <c r="H85">
@@ -29114,30 +29610,30 @@
         <v>0.35442190840635818</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>15256.812332545178</v>
       </c>
       <c r="M85" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>549213.72120455501</v>
       </c>
       <c r="N85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>309893.91731295333</v>
       </c>
       <c r="P85">
         <v>703428</v>
       </c>
       <c r="Q85">
-        <f>P85/C85</f>
+        <f t="shared" si="10"/>
         <v>0.80450205782740847</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>138957.46646289981</v>
       </c>
       <c r="T85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.4484033364313198</v>
       </c>
     </row>
@@ -29149,7 +29645,7 @@
         <v>515265.84375</v>
       </c>
       <c r="F86">
-        <f>E86/C86</f>
+        <f t="shared" si="9"/>
         <v>0.57494881606012849</v>
       </c>
       <c r="H86">
@@ -29165,30 +29661,30 @@
         <v>0.34883101764417723</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>14942.669351424087</v>
       </c>
       <c r="M86" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>568631.2519179649</v>
       </c>
       <c r="N86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>312620.36482531118</v>
       </c>
       <c r="P86">
         <v>719081</v>
       </c>
       <c r="Q86">
-        <f>P86/C86</f>
+        <f t="shared" si="10"/>
         <v>0.80237177491222611</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>135507.07873061101</v>
       </c>
       <c r="T86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.43345569891561891</v>
       </c>
     </row>
@@ -29200,7 +29696,7 @@
         <v>542087.375</v>
       </c>
       <c r="F87">
-        <f>E87/C87</f>
+        <f t="shared" si="9"/>
         <v>0.57984314472916743</v>
       </c>
       <c r="H87">
@@ -29216,30 +29712,30 @@
         <v>0.34423050630211266</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>14912.812854706799</v>
       </c>
       <c r="M87" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>598157.06073982571</v>
       </c>
       <c r="N87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>321816.36232569686</v>
       </c>
       <c r="P87">
         <v>747236</v>
       </c>
       <c r="Q87">
-        <f>P87/C87</f>
+        <f t="shared" si="10"/>
         <v>0.79928013836301592</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>134166.12640546748</v>
       </c>
       <c r="T87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.41690274986603559</v>
       </c>
     </row>
@@ -29251,7 +29747,7 @@
         <v>574404.25</v>
       </c>
       <c r="F88">
-        <f>E88/C88</f>
+        <f t="shared" si="9"/>
         <v>0.59199268445116571</v>
       </c>
       <c r="H88">
@@ -29267,30 +29763,30 @@
         <v>0.33736563914695011</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>15826.141746224926</v>
       </c>
       <c r="M88" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>627120.98085698253</v>
       </c>
       <c r="N88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>327342.31692344509</v>
       </c>
       <c r="P88">
         <v>784209</v>
       </c>
       <c r="Q88">
-        <f>P88/C88</f>
+        <f t="shared" si="10"/>
         <v>0.80822172029674955</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>141261.87739679255</v>
       </c>
       <c r="T88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.43154175336832234</v>
       </c>
     </row>
@@ -29302,7 +29798,7 @@
         <v>603762.4375</v>
       </c>
       <c r="F89">
-        <f>E89/C89</f>
+        <f t="shared" si="9"/>
         <v>0.59185537085508066</v>
       </c>
       <c r="H89">
@@ -29318,30 +29814,30 @@
         <v>0.33062090691925389</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>17025.285873293888</v>
       </c>
       <c r="M89" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>665820.51185273239</v>
       </c>
       <c r="N89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>337272.40552304906</v>
       </c>
       <c r="P89">
         <v>815670</v>
       </c>
       <c r="Q89">
-        <f>P89/C89</f>
+        <f t="shared" si="10"/>
         <v>0.79958381038794524</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>132824.20227397373</v>
       </c>
       <c r="T89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.39381876518473902</v>
       </c>
     </row>
@@ -29353,7 +29849,7 @@
         <v>648721.9375</v>
       </c>
       <c r="F90">
-        <f>E90/C90</f>
+        <f t="shared" si="9"/>
         <v>0.59855801719714707</v>
       </c>
       <c r="H90">
@@ -29369,30 +29865,30 @@
         <v>0.32390834453326911</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>18523.646650636201</v>
       </c>
       <c r="M90" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>714229.86438871222</v>
       </c>
       <c r="N90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>351054.43883617804</v>
       </c>
       <c r="P90">
         <v>863363</v>
       </c>
       <c r="Q90">
-        <f>P90/C90</f>
+        <f t="shared" si="10"/>
         <v>0.79660146440073254</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>130609.48896065158</v>
       </c>
       <c r="T90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.37204910267948893</v>
       </c>
     </row>
@@ -29404,7 +29900,7 @@
         <v>673792.0625</v>
       </c>
       <c r="F91">
-        <f>E91/C91</f>
+        <f t="shared" si="9"/>
         <v>0.5973253560174695</v>
       </c>
       <c r="H91">
@@ -29420,30 +29916,30 @@
         <v>0.31759757679781558</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19781.882766983024</v>
       </c>
       <c r="M91" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>749978.40206336742</v>
       </c>
       <c r="N91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>358254.88431022468</v>
       </c>
       <c r="P91">
         <v>891266</v>
       </c>
       <c r="Q91">
-        <f>P91/C91</f>
+        <f t="shared" si="10"/>
         <v>0.79011880724888461</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>121505.71516964956</v>
       </c>
       <c r="T91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.33915996819860178</v>
       </c>
     </row>
@@ -29455,7 +29951,7 @@
         <v>681302.75</v>
       </c>
       <c r="F92">
-        <f>E92/C92</f>
+        <f t="shared" si="9"/>
         <v>0.59927866299063492</v>
       </c>
       <c r="H92">
@@ -29471,30 +29967,30 @@
         <v>0.30489256254883113</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19109.334726577727</v>
       </c>
       <c r="M92" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>771138.40464327042</v>
       </c>
       <c r="N92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>346623.62294435938</v>
       </c>
       <c r="P92">
         <v>903627</v>
       </c>
       <c r="Q92">
-        <f>P92/C92</f>
+        <f t="shared" si="10"/>
         <v>0.79483662791943599</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>113379.26063015185</v>
       </c>
       <c r="T92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.32709617327019769</v>
       </c>
     </row>
@@ -29506,7 +30002,7 @@
         <v>677682.875</v>
       </c>
       <c r="F93">
-        <f>E93/C93</f>
+        <f t="shared" si="9"/>
         <v>0.60341933932852732</v>
       </c>
       <c r="H93">
@@ -29522,30 +30018,30 @@
         <v>0.28668177228786923</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>17925.195229262903</v>
       </c>
       <c r="M93" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>783180.0215689363</v>
       </c>
       <c r="N93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>321964.03892246576</v>
       </c>
       <c r="P93">
         <v>905615</v>
       </c>
       <c r="Q93">
-        <f>P93/C93</f>
+        <f t="shared" si="10"/>
         <v>0.8063736375011753</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>104509.7832018008</v>
       </c>
       <c r="T93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.32460079564031213</v>
       </c>
     </row>
@@ -29557,7 +30053,7 @@
         <v>683769.3125</v>
       </c>
       <c r="F94">
-        <f>E94/C94</f>
+        <f t="shared" si="9"/>
         <v>0.61345217916430816</v>
       </c>
       <c r="H94">
@@ -29573,30 +30069,30 @@
         <v>0.27650408288290934</v>
       </c>
       <c r="L94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>18133.860374218486</v>
       </c>
       <c r="M94" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>788298.53143447021</v>
       </c>
       <c r="N94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>308198.44329813751</v>
       </c>
       <c r="P94">
         <v>913865</v>
       </c>
       <c r="Q94">
-        <f>P94/C94</f>
+        <f t="shared" si="10"/>
         <v>0.81988539915936998</v>
       </c>
       <c r="S94" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>107432.6081913113</v>
       </c>
       <c r="T94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.34858257894374162</v>
       </c>
     </row>
@@ -29608,7 +30104,7 @@
         <v>704578.875</v>
       </c>
       <c r="F95">
-        <f>E95/C95</f>
+        <f t="shared" si="9"/>
         <v>0.62003644883922659</v>
       </c>
       <c r="H95">
@@ -29624,30 +30120,30 @@
         <v>0.27035307293596184</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19040.337263249814</v>
       </c>
       <c r="M95" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>810096.27720652521</v>
       </c>
       <c r="N95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>307215.91341705958</v>
       </c>
       <c r="P95">
         <v>934284</v>
       </c>
       <c r="Q95">
-        <f>P95/C95</f>
+        <f t="shared" si="10"/>
         <v>0.82217925362480959</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>105147.38553022497</v>
       </c>
       <c r="T95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.34225891608512676</v>
       </c>
     </row>
@@ -29659,7 +30155,7 @@
         <v>727946.3125</v>
       </c>
       <c r="F96">
-        <f>E96/C96</f>
+        <f t="shared" si="9"/>
         <v>0.61649694080047657</v>
       </c>
       <c r="H96">
@@ -29675,30 +30171,30 @@
         <v>0.27478268797683902</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19328.453267954894</v>
       </c>
       <c r="M96" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>836992.53246630868</v>
       </c>
       <c r="N96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>324457.48099229409</v>
       </c>
       <c r="P96">
         <v>960898</v>
       </c>
       <c r="Q96">
-        <f>P96/C96</f>
+        <f t="shared" si="10"/>
         <v>0.81378347173274035</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>104577.01426573642</v>
       </c>
       <c r="T96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.32231346291016832</v>
       </c>
     </row>
@@ -29710,7 +30206,7 @@
         <v>743483.5</v>
       </c>
       <c r="F97">
-        <f>E97/C97</f>
+        <f t="shared" si="9"/>
         <v>0.61957347108802108</v>
       </c>
       <c r="H97">
@@ -29726,30 +30222,30 @@
         <v>0.27692145133003487</v>
       </c>
       <c r="L97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20571.15234090561</v>
       </c>
       <c r="M97" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>847110.84070414107</v>
       </c>
       <c r="N97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>332303.65641443722</v>
       </c>
       <c r="P97">
         <v>979858</v>
       </c>
       <c r="Q97">
-        <f>P97/C97</f>
+        <f t="shared" si="10"/>
         <v>0.81655345711554606</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>112176.00695495332</v>
       </c>
       <c r="T97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.33757078740972812</v>
       </c>
     </row>
@@ -29761,7 +30257,7 @@
         <v>771675.4375</v>
       </c>
       <c r="F98">
-        <f>E98/C98</f>
+        <f t="shared" ref="F98:F129" si="16">E98/C98</f>
         <v>0.62143322001253753</v>
       </c>
       <c r="H98">
@@ -29777,30 +30273,30 @@
         <v>0.27496217154106811</v>
       </c>
       <c r="L98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19555.880693773001</v>
       </c>
       <c r="M98" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>880782.29449291504</v>
       </c>
       <c r="N98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>341439.0270536599</v>
       </c>
       <c r="P98">
         <v>1010611</v>
       </c>
       <c r="Q98">
-        <f>P98/C98</f>
+        <f t="shared" ref="Q98:Q129" si="17">P98/C98</f>
         <v>0.8138489543540649</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>110272.82481331196</v>
       </c>
       <c r="T98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.3229649104991788</v>
       </c>
     </row>
@@ -29812,7 +30308,7 @@
         <v>810095.5625</v>
       </c>
       <c r="F99">
-        <f>E99/C99</f>
+        <f t="shared" si="16"/>
         <v>0.6308731979804042</v>
       </c>
       <c r="H99">
@@ -29828,30 +30324,30 @@
         <v>0.26981540008449911</v>
       </c>
       <c r="L99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>14597.741310287749</v>
       </c>
       <c r="M99" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>923402.27963875281</v>
       </c>
       <c r="N99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>346466.22966760449</v>
       </c>
       <c r="P99">
         <v>1049936</v>
       </c>
       <c r="Q99">
-        <f>P99/C99</f>
+        <f t="shared" si="17"/>
         <v>0.81765227789993444</v>
       </c>
       <c r="S99" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>111935.97905095945</v>
       </c>
       <c r="T99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.32307904628497119</v>
       </c>
     </row>
@@ -29863,7 +30359,7 @@
         <v>841375.9375</v>
       </c>
       <c r="F100">
-        <f>E100/C100</f>
+        <f t="shared" si="16"/>
         <v>0.62954283352972273</v>
       </c>
       <c r="H100">
@@ -29879,30 +30375,30 @@
         <v>0.25974083390675146</v>
       </c>
       <c r="L100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>18625.897137070777</v>
       </c>
       <c r="M100" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>975912.89456598728</v>
       </c>
       <c r="N100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>347140.29927084671</v>
       </c>
       <c r="P100">
         <v>1089435</v>
       </c>
       <c r="Q100">
-        <f>P100/C100</f>
+        <f t="shared" si="17"/>
         <v>0.81514810000904436</v>
       </c>
       <c r="S100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>94896.208296941943</v>
       </c>
       <c r="T100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.27336557725008404</v>
       </c>
     </row>
@@ -29914,7 +30410,7 @@
         <v>881491.9375</v>
       </c>
       <c r="F101">
-        <f>E101/C101</f>
+        <f t="shared" si="16"/>
         <v>0.64904412428070912</v>
       </c>
       <c r="H101">
@@ -29930,30 +30426,30 @@
         <v>0.2487098343362793</v>
       </c>
       <c r="L101" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>15876.050902501367</v>
       </c>
       <c r="M101" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1007554.3556579468</v>
       </c>
       <c r="N101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>337782.44890107389</v>
       </c>
       <c r="P101">
         <v>1138803</v>
       </c>
       <c r="Q101">
-        <f>P101/C101</f>
+        <f t="shared" si="17"/>
         <v>0.83850272976914708</v>
       </c>
       <c r="S101" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>115372.59343955186</v>
       </c>
       <c r="T101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.34155887558663817</v>
       </c>
     </row>
@@ -29965,7 +30461,7 @@
         <v>923822.4375</v>
       </c>
       <c r="F102">
-        <f>E102/C102</f>
+        <f t="shared" si="16"/>
         <v>0.64655460809232257</v>
       </c>
       <c r="H102">
@@ -29981,30 +30477,30 @@
         <v>0.25343317367965584</v>
       </c>
       <c r="L102" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20360.568026933244</v>
       </c>
       <c r="M102" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1054311.5027032092</v>
       </c>
       <c r="N102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>362115.20159588609</v>
       </c>
       <c r="P102">
         <v>1190283</v>
       </c>
       <c r="Q102">
-        <f>P102/C102</f>
+        <f t="shared" si="17"/>
         <v>0.8330420731786502</v>
       </c>
       <c r="S102" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>115610.92926985759</v>
       </c>
       <c r="T102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.3192656059738615</v>
       </c>
     </row>
@@ -30016,7 +30512,7 @@
         <v>956850.25</v>
       </c>
       <c r="F103">
-        <f>E103/C103</f>
+        <f t="shared" si="16"/>
         <v>0.64833072016537441</v>
       </c>
       <c r="H103">
@@ -30032,30 +30528,30 @@
         <v>0.23959951151215605</v>
       </c>
       <c r="L103" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>18022.465729977604</v>
       </c>
       <c r="M103" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1110040.0994336533</v>
       </c>
       <c r="N103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>353617.13606877241</v>
       </c>
       <c r="P103">
         <v>1234146</v>
       </c>
       <c r="Q103">
-        <f>P103/C103</f>
+        <f t="shared" si="17"/>
         <v>0.83621733387143515</v>
       </c>
       <c r="S103" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>106083.43483636911</v>
       </c>
       <c r="T103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.29999517561767064</v>
       </c>
     </row>
@@ -30067,7 +30563,7 @@
         <v>992187</v>
       </c>
       <c r="F104">
-        <f>E104/C104</f>
+        <f t="shared" si="16"/>
         <v>0.64922025623359858</v>
       </c>
       <c r="H104">
@@ -30083,30 +30579,30 @@
         <v>0.23601633226000729</v>
       </c>
       <c r="L104" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>23164.944285084151</v>
       </c>
       <c r="M104" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1155304.2228647899</v>
       </c>
       <c r="N104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>360697.82852216082</v>
       </c>
       <c r="P104">
         <v>1281338</v>
       </c>
       <c r="Q104">
-        <f>P104/C104</f>
+        <f t="shared" si="17"/>
         <v>0.83842116927741117</v>
       </c>
       <c r="S104" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>102868.83285012597</v>
       </c>
       <c r="T104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.28519393441207214</v>
       </c>
     </row>
@@ -30118,7 +30614,7 @@
         <v>1029234</v>
       </c>
       <c r="F105">
-        <f>E105/C105</f>
+        <f t="shared" si="16"/>
         <v>0.64925673146140683</v>
       </c>
       <c r="H105">
@@ -30134,30 +30630,30 @@
         <v>0.22621614780615334</v>
       </c>
       <c r="L105" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20544.290509811926</v>
       </c>
       <c r="M105" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1213224.7946654349</v>
       </c>
       <c r="N105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>358609.06693573232</v>
       </c>
       <c r="P105">
         <v>1330606</v>
       </c>
       <c r="Q105">
-        <f>P105/C105</f>
+        <f t="shared" si="17"/>
         <v>0.83936685187521665</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>96836.914824753214</v>
       </c>
       <c r="T105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.27003476418544575</v>
       </c>
     </row>
@@ -30169,7 +30665,7 @@
         <v>1064099.625</v>
       </c>
       <c r="F106">
-        <f>E106/C106</f>
+        <f t="shared" si="16"/>
         <v>0.65280591527220755</v>
       </c>
       <c r="H106">
@@ -30185,30 +30681,30 @@
         <v>0.21789724013086931</v>
       </c>
       <c r="L106" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>21992.634922672478</v>
       </c>
       <c r="M106" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1260899.8399445121</v>
       </c>
       <c r="N106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>355181.17420107935</v>
       </c>
       <c r="P106">
         <v>1376051</v>
       </c>
       <c r="Q106">
-        <f>P106/C106</f>
+        <f t="shared" si="17"/>
         <v>0.84418245379631296</v>
       </c>
       <c r="S106" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>93158.525132815412</v>
       </c>
       <c r="T106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.2622845237852483</v>
       </c>
     </row>
@@ -30220,7 +30716,7 @@
         <v>1095513.5</v>
       </c>
       <c r="F107">
-        <f>E107/C107</f>
+        <f t="shared" si="16"/>
         <v>0.64874348750727295</v>
       </c>
       <c r="H107">
@@ -30236,30 +30732,30 @@
         <v>0.22027767331632067</v>
       </c>
       <c r="L107" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19380.432534772135</v>
       </c>
       <c r="M107" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1305926.3243618894</v>
       </c>
       <c r="N107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>371976.24255752348</v>
       </c>
       <c r="P107">
         <v>1414923</v>
       </c>
       <c r="Q107">
-        <f>P107/C107</f>
+        <f t="shared" si="17"/>
         <v>0.83789207670581245</v>
       </c>
       <c r="S107" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>89616.243103338478</v>
       </c>
       <c r="T107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.24091926540034331</v>
       </c>
     </row>
@@ -30271,7 +30767,7 @@
         <v>1113261.125</v>
       </c>
       <c r="F108">
-        <f>E108/C108</f>
+        <f t="shared" si="16"/>
         <v>0.6513498922556954</v>
       </c>
       <c r="H108">
@@ -30287,30 +30783,30 @@
         <v>0.22051451454047905</v>
       </c>
       <c r="L108" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19155.25538358964</v>
       </c>
       <c r="M108" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1321673.6274218422</v>
       </c>
       <c r="N108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>376894.5684262006</v>
       </c>
       <c r="P108">
         <v>1439695</v>
       </c>
       <c r="Q108">
-        <f>P108/C108</f>
+        <f t="shared" si="17"/>
         <v>0.84234072498585033</v>
       </c>
       <c r="S108" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>98866.117194568171</v>
       </c>
       <c r="T108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.26231770228847717</v>
       </c>
     </row>
@@ -30322,7 +30818,7 @@
         <v>1145189.125</v>
       </c>
       <c r="F109">
-        <f>E109/C109</f>
+        <f t="shared" si="16"/>
         <v>0.65186334946321722</v>
       </c>
       <c r="H109">
@@ -30338,30 +30834,30 @@
         <v>0.21541748987830744</v>
       </c>
       <c r="L109" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>16720.004490471092</v>
       </c>
       <c r="M109" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1367309.1529385478</v>
       </c>
       <c r="N109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>378443.98975119169</v>
       </c>
       <c r="P109">
         <v>1475250</v>
       </c>
       <c r="Q109">
-        <f>P109/C109</f>
+        <f t="shared" si="17"/>
         <v>0.83974025364204463</v>
       </c>
       <c r="S109" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>91220.842570981127</v>
       </c>
       <c r="T109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.24104185834990891</v>
       </c>
     </row>
@@ -30373,7 +30869,7 @@
         <v>1137564.625</v>
       </c>
       <c r="F110">
-        <f>E110/C110</f>
+        <f t="shared" si="16"/>
         <v>0.66406486217130845</v>
       </c>
       <c r="H110">
@@ -30389,30 +30885,30 @@
         <v>0.21144015269000152</v>
       </c>
       <c r="L110" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6399.7740420113714</v>
       </c>
       <c r="M110" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1338885.4929165242</v>
       </c>
       <c r="N110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>362203.83234596706</v>
       </c>
       <c r="P110">
         <v>1474737</v>
       </c>
       <c r="Q110">
-        <f>P110/C110</f>
+        <f t="shared" si="17"/>
         <v>0.86089264831343437</v>
       </c>
       <c r="S110" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>129451.73304146445</v>
       </c>
       <c r="T110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.35740023014945832</v>
       </c>
     </row>
@@ -30424,7 +30920,7 @@
         <v>1100940.75</v>
       </c>
       <c r="F111">
-        <f>E111/C111</f>
+        <f t="shared" si="16"/>
         <v>0.67267103186508637</v>
       </c>
       <c r="H111">
@@ -30440,30 +30936,30 @@
         <v>0.19939677144669946</v>
       </c>
       <c r="L111" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>13712.701732522066</v>
       </c>
       <c r="M111" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1300451.9073880038</v>
       </c>
       <c r="N111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>326346.78870508651</v>
       </c>
       <c r="P111">
         <v>1442476</v>
       </c>
       <c r="Q111">
-        <f>P111/C111</f>
+        <f t="shared" si="17"/>
         <v>0.88134790120233297</v>
       </c>
       <c r="S111" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>128311.39087947416</v>
       </c>
       <c r="T111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.39317497619204939</v>
       </c>
     </row>
@@ -30475,7 +30971,7 @@
         <v>1107272.875</v>
       </c>
       <c r="F112">
-        <f>E112/C112</f>
+        <f t="shared" si="16"/>
         <v>0.66280943393519642</v>
       </c>
       <c r="H112">
@@ -30491,30 +30987,30 @@
         <v>0.20112608552736219</v>
       </c>
       <c r="L112" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12997.033816537136</v>
       </c>
       <c r="M112" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1322377.4991496527</v>
       </c>
       <c r="N112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>335996.21181787824</v>
       </c>
       <c r="P112">
         <v>1449362</v>
       </c>
       <c r="Q112">
-        <f>P112/C112</f>
+        <f t="shared" si="17"/>
         <v>0.86758271468285009</v>
       </c>
       <c r="S112" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>113987.4670338102</v>
       </c>
       <c r="T112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.33925223864010529</v>
       </c>
     </row>
@@ -30526,7 +31022,7 @@
         <v>1102261.625</v>
       </c>
       <c r="F113">
-        <f>E113/C113</f>
+        <f t="shared" si="16"/>
         <v>0.65526465407373347</v>
       </c>
       <c r="H113">
@@ -30542,30 +31038,30 @@
         <v>0.20306664600657678</v>
       </c>
       <c r="L113" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>12508.620958464226</v>
       </c>
       <c r="M113" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1329151.3563740947</v>
       </c>
       <c r="N113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>341591.09577932826</v>
       </c>
       <c r="P113">
         <v>1445150</v>
       </c>
       <c r="Q113">
-        <f>P113/C113</f>
+        <f t="shared" si="17"/>
         <v>0.85910249740814115</v>
       </c>
       <c r="S113" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>103490.02266744105</v>
       </c>
       <c r="T113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.30296463797257989</v>
       </c>
     </row>
@@ -30577,7 +31073,7 @@
         <v>1121061.375</v>
       </c>
       <c r="F114">
-        <f>E114/C114</f>
+        <f t="shared" si="16"/>
         <v>0.66668110489446231</v>
       </c>
       <c r="H114">
@@ -30593,30 +31089,30 @@
         <v>0.20146953414604138</v>
       </c>
       <c r="L114" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11456.846575300611</v>
       </c>
       <c r="M114" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1331560.2377913911</v>
       </c>
       <c r="N114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>338782.23233299056</v>
       </c>
       <c r="P114">
         <v>1469641</v>
       </c>
       <c r="Q114">
-        <f>P114/C114</f>
+        <f t="shared" si="17"/>
         <v>0.87397702527946119</v>
       </c>
       <c r="S114" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>126623.91563330829</v>
       </c>
       <c r="T114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.37376197317470028</v>
       </c>
     </row>
@@ -30628,7 +31124,7 @@
         <v>1138546</v>
       </c>
       <c r="F115">
-        <f>E115/C115</f>
+        <f t="shared" si="16"/>
         <v>0.66880487605728289</v>
       </c>
       <c r="H115">
@@ -30644,30 +31140,30 @@
         <v>0.20502232279528962</v>
       </c>
       <c r="L115" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9321.7183323882637</v>
       </c>
       <c r="M115" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1341166.1993905462</v>
       </c>
       <c r="N115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>349021.59641146642</v>
       </c>
       <c r="P115">
         <v>1488161</v>
       </c>
       <c r="Q115">
-        <f>P115/C115</f>
+        <f t="shared" si="17"/>
         <v>0.87417577608483288</v>
       </c>
       <c r="S115" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>137673.08227706555</v>
       </c>
       <c r="T115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.39445433661578017</v>
       </c>
     </row>
@@ -30679,7 +31175,7 @@
         <v>1163136</v>
       </c>
       <c r="F116">
-        <f>E116/C116</f>
+        <f t="shared" si="16"/>
         <v>0.66469471414898895</v>
       </c>
       <c r="H116">
@@ -30695,30 +31191,30 @@
         <v>0.2014910027606146</v>
       </c>
       <c r="L116" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8612.9769426694475</v>
       </c>
       <c r="M116" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1385446.4735068798</v>
       </c>
       <c r="N116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>352585.08003486082</v>
       </c>
       <c r="P116">
         <v>1520726</v>
       </c>
       <c r="Q116">
-        <f>P116/C116</f>
+        <f t="shared" si="17"/>
         <v>0.86904586726654098</v>
       </c>
       <c r="S116" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>126666.54955045079</v>
       </c>
       <c r="T116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.35925101974799106</v>
       </c>
     </row>
@@ -30730,7 +31226,7 @@
         <v>1190789</v>
       </c>
       <c r="F117">
-        <f>E117/C117</f>
+        <f t="shared" si="16"/>
         <v>0.66376314565851136</v>
       </c>
       <c r="H117">
@@ -30746,30 +31242,30 @@
         <v>0.19365357610149103</v>
       </c>
       <c r="L117" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9712.611085547549</v>
       </c>
       <c r="M117" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1431876.8808545182</v>
       </c>
       <c r="N117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>347413.90771785378</v>
       </c>
       <c r="P117">
         <v>1553051</v>
       </c>
       <c r="Q117">
-        <f>P117/C117</f>
+        <f t="shared" si="17"/>
         <v>0.86569326482533582</v>
       </c>
       <c r="S117" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>111461.50805993431</v>
       </c>
       <c r="T117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.32083202653607018</v>
       </c>
     </row>
@@ -30781,7 +31277,7 @@
         <v>1223627</v>
       </c>
       <c r="F118">
-        <f>E118/C118</f>
+        <f t="shared" si="16"/>
         <v>0.66375125975226867</v>
       </c>
       <c r="I118">
